--- a/data/Traderes_data.xlsx
+++ b/data/Traderes_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\toolbox-amiris-emlab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85875F05-44F4-4CBD-BF12-C9DFB08219E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2C849B7-F3CF-4D88-A02D-1409D0494F1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5355" yWindow="-14565" windowWidth="21600" windowHeight="12735" tabRatio="785" xr2:uid="{9A6D5CBA-73A9-44EC-81CD-5563DD7C030A}"/>
+    <workbookView xWindow="5010" yWindow="-14910" windowWidth="21600" windowHeight="12735" tabRatio="785" activeTab="7" xr2:uid="{9A6D5CBA-73A9-44EC-81CD-5563DD7C030A}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="12" r:id="rId1"/>
@@ -341,12 +341,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="&quot;€&quot;\ #,##0"/>
-    <numFmt numFmtId="170" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -549,12 +548,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
@@ -612,22 +610,24 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="11" fillId="6" borderId="0" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="11" fillId="6" borderId="0" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="11" fillId="6" borderId="1" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="11" fillId="6" borderId="1" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="11" fillId="6" borderId="0" xfId="5" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -1064,8 +1064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{589E0DAF-1F73-4FA6-BDA2-9B4F19FDD1B8}">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1115,66 +1115,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>63</v>
       </c>
       <c r="F1" t="s">
         <v>62</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="I1" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="J1" s="26" t="s">
+      <c r="J1" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="K1" s="26" t="s">
+      <c r="K1" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="M1" s="25" t="s">
+      <c r="M1" s="24" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="21">
+      <c r="A2" s="20">
         <v>2019</v>
       </c>
-      <c r="B2" s="13">
+      <c r="B2" s="12">
         <v>290.54545454545456</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="12">
         <v>1821.6363636363637</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="12">
         <v>1724.3181818181799</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="24">
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="23">
         <v>2019</v>
       </c>
-      <c r="I2" s="12">
+      <c r="I2" s="11">
         <v>4236</v>
       </c>
-      <c r="J2" s="12">
+      <c r="J2" s="11">
         <v>962</v>
       </c>
-      <c r="K2" s="12">
+      <c r="K2" s="11">
         <v>6789</v>
       </c>
       <c r="M2" t="s">
@@ -1182,251 +1182,251 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
+      <c r="A3" s="11">
         <v>2020</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="12">
         <v>290.54545454545456</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="12">
         <v>1821.6363636363637</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="12">
         <v>1724.3181818181818</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="24">
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="23">
         <v>2030</v>
       </c>
-      <c r="I3" s="12">
+      <c r="I3" s="11">
         <v>7432</v>
       </c>
-      <c r="J3" s="12">
+      <c r="J3" s="11">
         <v>21000</v>
       </c>
-      <c r="K3" s="11">
+      <c r="K3" s="10">
         <v>25756.5</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="21">
+      <c r="A4" s="20">
         <v>2021</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="12">
         <v>290.54545454545456</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="12">
         <v>1821.6363636363637</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="12">
         <v>1724.3181818181818</v>
       </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="24">
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="23">
         <v>2050</v>
       </c>
-      <c r="I4" s="12">
+      <c r="I4" s="11">
         <v>12000</v>
       </c>
-      <c r="J4" s="12">
+      <c r="J4" s="11">
         <v>70000</v>
       </c>
-      <c r="K4" s="12">
+      <c r="K4" s="11">
         <v>91733</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
+      <c r="A5" s="11">
         <v>2022</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="12">
         <v>290.54545454545456</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="12">
         <v>1821.6363636363637</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="12">
         <v>1724.3181818181818</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="21">
+      <c r="A6" s="20">
         <v>2023</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="12">
         <v>290.54545454545456</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="12">
         <v>1821.6363636363637</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="12">
         <v>1724.3181818181818</v>
       </c>
-      <c r="H6" s="23" t="s">
+      <c r="H6" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="I6" s="23" t="s">
+      <c r="I6" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="J6" s="23" t="s">
+      <c r="J6" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="K6" s="23" t="s">
+      <c r="K6" s="22" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
+      <c r="A7" s="11">
         <v>2024</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="12">
         <v>290.54545454545456</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="12">
         <v>1821.6363636363637</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="12">
         <v>1724.3181818181818</v>
       </c>
-      <c r="H7" s="22" t="s">
+      <c r="H7" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="7">
         <v>290.54545454545502</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J7" s="7">
         <v>1821.6363636363637</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7" s="7">
         <v>1724.3181818181818</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="21">
+      <c r="A8" s="20">
         <v>2025</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="12">
         <v>290.54545454545456</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="12">
         <v>1821.6363636363637</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="12">
         <v>1724.3181818181818</v>
       </c>
-      <c r="H8" s="22" t="s">
+      <c r="H8" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8" s="7">
         <v>228.4</v>
       </c>
-      <c r="J8" s="8">
+      <c r="J8" s="7">
         <v>2450</v>
       </c>
-      <c r="K8" s="8">
+      <c r="K8" s="7">
         <v>3298.8249999999998</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="12">
+      <c r="A9" s="11">
         <v>2026</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="12">
         <v>290.54545454545456</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="12">
         <v>1821.6363636363637</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="12">
         <v>1724.3181818181818</v>
       </c>
-      <c r="H9" s="22" t="s">
+      <c r="H9" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9" s="7">
         <v>250.45161290322579</v>
       </c>
-      <c r="J9" s="8">
+      <c r="J9" s="7">
         <v>2227.0322580645161</v>
       </c>
-      <c r="K9" s="8">
+      <c r="K9" s="7">
         <v>2740.1290322580644</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="21">
+      <c r="A10" s="20">
         <v>2027</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="12">
         <v>290.54545454545456</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="12">
         <v>1821.6363636363637</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="12">
         <v>1724.3181818181818</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="12">
+      <c r="A11" s="11">
         <v>2028</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11" s="12">
         <v>290.54545454545456</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="12">
         <v>1821.6363636363637</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="12">
         <v>1724.3181818181818</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="12">
+      <c r="A12" s="11">
         <v>2029</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="12">
         <v>290.54545454545456</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="12">
         <v>1821.6363636363637</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="12">
         <v>1724.3181818181818</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="21">
+      <c r="A13" s="20">
         <v>2030</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13" s="12">
         <v>228.4</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="12">
         <v>2450</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="12">
         <v>3298.8249999999998</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="21">
+      <c r="A14" s="20">
         <v>2031</v>
       </c>
-      <c r="B14" s="13">
+      <c r="B14" s="12">
         <v>228.4</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="12">
         <v>2450</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="12">
         <v>3298.8249999999998</v>
       </c>
-      <c r="G14" s="22"/>
+      <c r="G14" s="21"/>
       <c r="H14" t="s">
         <v>42</v>
       </c>
@@ -1441,19 +1441,19 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="12">
+      <c r="A15" s="11">
         <v>2032</v>
       </c>
-      <c r="B15" s="13">
+      <c r="B15" s="12">
         <v>228.4</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15" s="12">
         <v>2450</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="12">
         <v>3298.8249999999998</v>
       </c>
-      <c r="G15" s="22"/>
+      <c r="G15" s="21"/>
       <c r="H15" t="s">
         <v>47</v>
       </c>
@@ -1468,16 +1468,16 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="12">
+      <c r="A16" s="11">
         <v>2033</v>
       </c>
-      <c r="B16" s="13">
+      <c r="B16" s="12">
         <v>228.4</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="12">
         <v>2450</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="12">
         <v>3298.8249999999998</v>
       </c>
       <c r="H16" t="s">
@@ -1489,245 +1489,245 @@
       <c r="J16" t="b">
         <v>1</v>
       </c>
-      <c r="K16" s="8">
+      <c r="K16" s="7">
         <v>300</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="21">
+      <c r="A17" s="20">
         <v>2034</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B17" s="12">
         <v>228.4</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17" s="12">
         <v>2450</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="12">
         <v>3298.8249999999998</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="21">
+      <c r="A18" s="20">
         <v>2035</v>
       </c>
-      <c r="B18" s="13">
+      <c r="B18" s="12">
         <v>228.4</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C18" s="12">
         <v>2450</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D18" s="12">
         <v>3298.8249999999998</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="12">
+      <c r="A19" s="11">
         <v>2036</v>
       </c>
-      <c r="B19" s="13">
+      <c r="B19" s="12">
         <v>228.4</v>
       </c>
-      <c r="C19" s="13">
+      <c r="C19" s="12">
         <v>2450</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D19" s="12">
         <v>3298.8249999999998</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="12">
+      <c r="A20" s="11">
         <v>2037</v>
       </c>
-      <c r="B20" s="13">
+      <c r="B20" s="12">
         <v>228.4</v>
       </c>
-      <c r="C20" s="13">
+      <c r="C20" s="12">
         <v>2450</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D20" s="12">
         <v>3298.8249999999998</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="21">
+      <c r="A21" s="20">
         <v>2038</v>
       </c>
-      <c r="B21" s="13">
+      <c r="B21" s="12">
         <v>228.4</v>
       </c>
-      <c r="C21" s="13">
+      <c r="C21" s="12">
         <v>2450</v>
       </c>
-      <c r="D21" s="13">
+      <c r="D21" s="12">
         <v>3298.8249999999998</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="21">
+      <c r="A22" s="20">
         <v>2039</v>
       </c>
-      <c r="B22" s="13">
+      <c r="B22" s="12">
         <v>228.4</v>
       </c>
-      <c r="C22" s="13">
+      <c r="C22" s="12">
         <v>2450</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D22" s="12">
         <v>3298.8249999999998</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="12">
+      <c r="A23" s="11">
         <v>2040</v>
       </c>
-      <c r="B23" s="13">
+      <c r="B23" s="12">
         <v>228.4</v>
       </c>
-      <c r="C23" s="13">
+      <c r="C23" s="12">
         <v>2450</v>
       </c>
-      <c r="D23" s="13">
+      <c r="D23" s="12">
         <v>3298.8249999999998</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="12">
+      <c r="A24" s="11">
         <v>2041</v>
       </c>
-      <c r="B24" s="13">
+      <c r="B24" s="12">
         <v>228.4</v>
       </c>
-      <c r="C24" s="13">
+      <c r="C24" s="12">
         <v>2450</v>
       </c>
-      <c r="D24" s="13">
+      <c r="D24" s="12">
         <v>3298.8249999999998</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="21">
+      <c r="A25" s="20">
         <v>2042</v>
       </c>
-      <c r="B25" s="13">
+      <c r="B25" s="12">
         <v>228.4</v>
       </c>
-      <c r="C25" s="13">
+      <c r="C25" s="12">
         <v>2450</v>
       </c>
-      <c r="D25" s="13">
+      <c r="D25" s="12">
         <v>3298.8249999999998</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="21">
+      <c r="A26" s="20">
         <v>2043</v>
       </c>
-      <c r="B26" s="13">
+      <c r="B26" s="12">
         <v>228.4</v>
       </c>
-      <c r="C26" s="13">
+      <c r="C26" s="12">
         <v>2450</v>
       </c>
-      <c r="D26" s="13">
+      <c r="D26" s="12">
         <v>3298.8249999999998</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="12">
+      <c r="A27" s="11">
         <v>2044</v>
       </c>
-      <c r="B27" s="13">
+      <c r="B27" s="12">
         <v>228.4</v>
       </c>
-      <c r="C27" s="13">
+      <c r="C27" s="12">
         <v>2450</v>
       </c>
-      <c r="D27" s="13">
+      <c r="D27" s="12">
         <v>3298.8249999999998</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="12">
+      <c r="A28" s="11">
         <v>2045</v>
       </c>
-      <c r="B28" s="13">
+      <c r="B28" s="12">
         <v>228.4</v>
       </c>
-      <c r="C28" s="13">
+      <c r="C28" s="12">
         <v>2450</v>
       </c>
-      <c r="D28" s="13">
+      <c r="D28" s="12">
         <v>3298.8249999999998</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="21">
+      <c r="A29" s="20">
         <v>2046</v>
       </c>
-      <c r="B29" s="13">
+      <c r="B29" s="12">
         <v>228.4</v>
       </c>
-      <c r="C29" s="13">
+      <c r="C29" s="12">
         <v>2450</v>
       </c>
-      <c r="D29" s="13">
+      <c r="D29" s="12">
         <v>3298.8249999999998</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="21">
+      <c r="A30" s="20">
         <v>2047</v>
       </c>
-      <c r="B30" s="13">
+      <c r="B30" s="12">
         <v>228.4</v>
       </c>
-      <c r="C30" s="13">
+      <c r="C30" s="12">
         <v>2450</v>
       </c>
-      <c r="D30" s="13">
+      <c r="D30" s="12">
         <v>3298.8249999999998</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="12">
+      <c r="A31" s="11">
         <v>2048</v>
       </c>
-      <c r="B31" s="13">
+      <c r="B31" s="12">
         <v>228.4</v>
       </c>
-      <c r="C31" s="13">
+      <c r="C31" s="12">
         <v>2450</v>
       </c>
-      <c r="D31" s="13">
+      <c r="D31" s="12">
         <v>3298.8249999999998</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="12">
+      <c r="A32" s="11">
         <v>2049</v>
       </c>
-      <c r="B32" s="13">
+      <c r="B32" s="12">
         <v>228.4</v>
       </c>
-      <c r="C32" s="13">
+      <c r="C32" s="12">
         <v>2450</v>
       </c>
-      <c r="D32" s="13">
+      <c r="D32" s="12">
         <v>3298.8249999999998</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="21">
+      <c r="A33" s="20">
         <v>2050</v>
       </c>
-      <c r="B33" s="13">
+      <c r="B33" s="12">
         <v>228.4</v>
       </c>
-      <c r="C33" s="13">
+      <c r="C33" s="12">
         <v>2450</v>
       </c>
-      <c r="D33" s="13">
+      <c r="D33" s="12">
         <v>3298.8249999999998</v>
       </c>
     </row>
@@ -1778,10 +1778,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>49</v>
       </c>
       <c r="F1" t="s">
@@ -1789,109 +1789,109 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="10">
         <v>42191.125290999997</v>
       </c>
-      <c r="C2" s="15"/>
+      <c r="C2" s="14"/>
     </row>
     <row r="3" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="10">
         <v>27840</v>
       </c>
-      <c r="D3" s="51" t="s">
+      <c r="D3" s="44" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="10">
         <v>796910.69999999984</v>
       </c>
-      <c r="C4" s="15"/>
+      <c r="C4" s="14"/>
     </row>
     <row r="5" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
-      <c r="C8" s="15"/>
+      <c r="A8" s="8"/>
+      <c r="C8" s="14"/>
     </row>
     <row r="9" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
     </row>
     <row r="10" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
     </row>
     <row r="11" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="15"/>
+      <c r="C11" s="14"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
     </row>
     <row r="17" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
     </row>
     <row r="18" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
     </row>
     <row r="19" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
     </row>
     <row r="20" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
     </row>
     <row r="21" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1915,10 +1915,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>49</v>
       </c>
       <c r="F1" t="s">
@@ -1926,14 +1926,14 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="10">
         <v>12000</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="F2" s="9">
+      <c r="C2" s="8"/>
+      <c r="F2" s="8">
         <v>43336.125918999998</v>
       </c>
       <c r="G2" t="s">
@@ -1944,14 +1944,14 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="20">
+      <c r="B3" s="19">
         <v>26964</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="F3" s="9">
+      <c r="C3" s="8"/>
+      <c r="F3" s="8">
         <v>96145.2</v>
       </c>
       <c r="G3" t="s">
@@ -1962,16 +1962,16 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="20">
+      <c r="B4" s="19">
         <v>82099</v>
       </c>
       <c r="D4" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="19">
+      <c r="F4" s="18">
         <v>47745</v>
       </c>
       <c r="G4" t="s">
@@ -1982,14 +1982,14 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="10">
         <v>70000</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="F5" s="18">
+      <c r="C5" s="8"/>
+      <c r="F5" s="17">
         <v>134820</v>
       </c>
       <c r="H5" t="s">
@@ -2000,135 +2000,135 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="10">
         <v>12040</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="16">
         <v>82099</v>
       </c>
       <c r="G6" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="16" t="s">
+      <c r="H6" s="15" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="11">
+      <c r="A7" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="10">
         <v>2700</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="43" t="s">
+      <c r="C7" s="14"/>
+      <c r="D7" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="16">
         <v>26964</v>
       </c>
       <c r="G7" t="s">
         <v>38</v>
       </c>
-      <c r="H7" s="16" t="s">
+      <c r="H7" s="15" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="15"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="14"/>
     </row>
     <row r="9" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
-      <c r="B9" s="11"/>
-      <c r="D9" s="51" t="s">
+      <c r="A9" s="11"/>
+      <c r="B9" s="10"/>
+      <c r="D9" s="44" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="15"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="14"/>
     </row>
     <row r="11" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="C14" s="15"/>
+      <c r="A14" s="8"/>
+      <c r="C14" s="14"/>
     </row>
     <row r="15" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
     </row>
     <row r="16" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
     </row>
     <row r="17" spans="2:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="15"/>
+      <c r="C17" s="14"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2141,298 +2141,299 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="31.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" style="2" customWidth="1"/>
+    <col min="1" max="2" width="31.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.140625" style="52" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" style="54" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="28">
+      <c r="B1" s="27">
         <v>2020</v>
       </c>
-      <c r="C1" s="28">
+      <c r="C1" s="47">
         <v>2030</v>
       </c>
-      <c r="D1" s="44">
+      <c r="D1" s="50">
         <v>2050</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="46">
+      <c r="B2" s="43"/>
+      <c r="C2" s="48">
         <v>3030612</v>
       </c>
-      <c r="D2" s="46">
+      <c r="D2" s="48">
         <v>2400000</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="45">
+      <c r="B3" s="43">
         <f xml:space="preserve"> 0.935767992*1000000</f>
         <v>935767.99200000009</v>
       </c>
-      <c r="C3" s="30">
+      <c r="C3" s="36">
         <v>882599.35600000003</v>
       </c>
-      <c r="D3" s="30">
+      <c r="D3" s="36">
         <v>850698.174</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="45">
+      <c r="B4" s="43">
         <v>1390000</v>
       </c>
-      <c r="C4" s="47">
+      <c r="C4" s="10">
         <v>1280000</v>
       </c>
-      <c r="D4" s="28"/>
+      <c r="D4" s="47"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="B5" s="45"/>
-      <c r="C5" s="30">
+      <c r="B5" s="43"/>
+      <c r="C5" s="36">
         <v>3845510</v>
       </c>
-      <c r="D5" s="28"/>
+      <c r="D5" s="47"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="30">
+      <c r="B6" s="43"/>
+      <c r="C6" s="36">
         <f>ROUND(2690000*1.002*1.016*1.018*1.014*1.007,0)</f>
         <v>2846616</v>
       </c>
-      <c r="D6" s="30">
+      <c r="D6" s="36">
         <f>ROUND(2685000*1.002*1.016*1.018*1.014*1.007,0)</f>
         <v>2841325</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="45"/>
+      <c r="B7" s="43"/>
       <c r="C7" s="49"/>
       <c r="D7" s="49">
         <v>730000</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="45"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44">
+      <c r="B8" s="43"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50">
         <v>750000</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="45">
+      <c r="B9" s="43">
         <f xml:space="preserve"> 0.935767992*1000000</f>
         <v>935767.99200000009</v>
       </c>
-      <c r="C9" s="30">
+      <c r="C9" s="36">
         <v>882599.35600000003</v>
       </c>
-      <c r="D9" s="30">
+      <c r="D9" s="36">
         <v>850698.174</v>
       </c>
-      <c r="E9" s="4"/>
+      <c r="E9" s="3"/>
       <c r="F9" s="1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="45"/>
-      <c r="C10" s="30">
+      <c r="B10" s="43"/>
+      <c r="C10" s="36">
         <f>ROUND(2990000*1.002*1.016*1.018*1.014*1.007,0)</f>
         <v>3164083</v>
       </c>
-      <c r="D10" s="30">
+      <c r="D10" s="36">
         <f>ROUND(2970000*1.002*1.016*1.018*1.014*1.007,0)</f>
         <v>3142918</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="B11" s="45"/>
-      <c r="C11" s="30">
+      <c r="B11" s="43"/>
+      <c r="C11" s="36">
         <v>3845510</v>
       </c>
-      <c r="D11" s="28"/>
+      <c r="D11" s="47"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="45"/>
-      <c r="C12" s="30">
+      <c r="B12" s="43"/>
+      <c r="C12" s="36">
         <v>470000</v>
       </c>
-      <c r="D12" s="30">
+      <c r="D12" s="36">
         <v>220000</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="45" t="s">
+      <c r="A13" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="45"/>
-      <c r="C13" s="30">
+      <c r="B13" s="43"/>
+      <c r="C13" s="36">
         <f>D13</f>
         <v>7940450</v>
       </c>
-      <c r="D13" s="30">
+      <c r="D13" s="36">
         <v>7940450</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="45"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44">
+      <c r="A14" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="43"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50">
         <v>412000</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="45" t="s">
+      <c r="A15" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="45"/>
-      <c r="C15" s="30">
+      <c r="B15" s="43"/>
+      <c r="C15" s="36">
         <v>343000</v>
       </c>
-      <c r="D15" s="44"/>
+      <c r="D15" s="50"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="45" t="s">
+      <c r="A16" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="B16" s="45"/>
-      <c r="C16" s="48">
+      <c r="B16" s="43"/>
+      <c r="C16" s="51">
         <f>ROUND(2690000*1.002*1.016*1.018*1.014*1.007,0)+600000</f>
         <v>3446616</v>
       </c>
-      <c r="D16" s="48">
+      <c r="D16" s="51">
         <f>ROUND(2685000*1.002*1.016*1.018*1.014*1.007,0)+600000</f>
         <v>3441325</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="45" t="s">
+      <c r="A17" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="45"/>
-      <c r="C17" s="30">
+      <c r="B17" s="43"/>
+      <c r="C17" s="36">
         <f>ROUND(580000*0.95/1.092/1.029,0)</f>
         <v>490358</v>
       </c>
-      <c r="D17" s="50">
+      <c r="D17" s="40">
         <v>290000</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="45"/>
-      <c r="C18" s="30">
+      <c r="B18" s="43"/>
+      <c r="C18" s="36">
         <v>840000</v>
       </c>
-      <c r="D18" s="50">
+      <c r="D18" s="40">
         <v>640000</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="45" t="s">
+      <c r="A19" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="45"/>
-      <c r="C19" s="30">
+      <c r="B19" s="43"/>
+      <c r="C19" s="36">
         <v>1800000</v>
       </c>
-      <c r="D19" s="50">
+      <c r="D19" s="40">
         <v>1640000</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="45" t="s">
+      <c r="A20" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="45"/>
-      <c r="C20" s="30">
+      <c r="B20" s="43"/>
+      <c r="C20" s="36">
         <v>1110000</v>
       </c>
-      <c r="D20" s="50">
+      <c r="D20" s="40">
         <v>1020000</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="45" t="s">
+      <c r="A21" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="45"/>
-      <c r="C21" s="48">
+      <c r="B21" s="43"/>
+      <c r="C21" s="51">
         <v>650000</v>
       </c>
-      <c r="D21" s="48">
+      <c r="D21" s="51">
         <v>400000</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B22" s="54">
+      <c r="B22" s="46">
         <v>50000</v>
       </c>
-      <c r="C22" s="53">
+      <c r="C22" s="52">
         <f>B22</f>
         <v>50000</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="36"/>
+      <c r="B24" s="35"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="38"/>
-      <c r="C25" s="35"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="53"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="38"/>
-      <c r="C26" s="35"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="53"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D1" xr:uid="{5D7D7B62-0359-4414-8FD2-B8EA37D25C57}">
@@ -2459,182 +2460,182 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="3">
+      <c r="B1" s="2">
         <v>2030</v>
       </c>
-      <c r="C1" s="3">
+      <c r="C1" s="2">
         <v>2050</v>
       </c>
-      <c r="D1" s="3"/>
+      <c r="D1" s="2"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="37">
+      <c r="B2" s="36">
         <v>66992</v>
       </c>
-      <c r="C2" s="37">
+      <c r="C2" s="36">
         <v>61676</v>
       </c>
-      <c r="D2" s="3"/>
+      <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="37">
+      <c r="B3" s="36">
         <v>29561.761559999999</v>
       </c>
-      <c r="C3" s="37">
+      <c r="C3" s="36">
         <v>27647.69067</v>
       </c>
-      <c r="D3" s="3"/>
+      <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="52">
+      <c r="B4" s="45">
         <v>32000</v>
       </c>
-      <c r="C4" s="52"/>
-      <c r="D4" s="3"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="B5" s="37">
+      <c r="B5" s="36">
         <v>61528.160000000003</v>
       </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="3"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B6" s="33">
+      <c r="B6" s="32">
         <f>ROUND(13450*1.002*1.016*1.018*1.014*1.007,0)</f>
         <v>14233</v>
       </c>
-      <c r="C6" s="33">
+      <c r="C6" s="32">
         <f>ROUND(13425*1.002*1.016*1.018*1.014*1.007,0)</f>
         <v>14207</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="3"/>
+      <c r="B7" s="2"/>
       <c r="C7" s="1">
         <v>30000</v>
       </c>
-      <c r="D7" s="3"/>
+      <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2">
         <v>11250</v>
       </c>
-      <c r="D8" s="3"/>
+      <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="33">
+      <c r="B9" s="32">
         <v>29561</v>
       </c>
-      <c r="C9" s="33">
+      <c r="C9" s="32">
         <v>27647</v>
       </c>
-      <c r="D9" s="3"/>
+      <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="33">
+      <c r="B10" s="32">
         <f>ROUND(14950*1.002*1.016*1.018*1.014*1.007,0)</f>
         <v>15820</v>
       </c>
-      <c r="C10" s="33">
+      <c r="C10" s="32">
         <f>ROUND(14850*1.002*1.016*1.018*1.014*1.007,0)</f>
         <v>15715</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="B11" s="33">
+      <c r="B11" s="32">
         <v>61528.160000000003</v>
       </c>
-      <c r="C11" s="33"/>
+      <c r="C11" s="32"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="41">
+      <c r="B12" s="40">
         <v>570</v>
       </c>
-      <c r="C12" s="41">
+      <c r="C12" s="40">
         <v>570</v>
       </c>
-      <c r="D12" s="3"/>
+      <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="41">
+      <c r="B13" s="40">
         <f>C13</f>
         <v>111166.3</v>
       </c>
-      <c r="C13" s="41">
+      <c r="C13" s="40">
         <v>111166.3</v>
       </c>
-      <c r="D13" s="3"/>
+      <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="3">
+      <c r="A14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="2">
         <v>7423</v>
       </c>
-      <c r="D14" s="3"/>
+      <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="37">
+      <c r="B15" s="36">
         <v>8815.1</v>
       </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="3"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="36" t="s">
+      <c r="A16" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="B16" s="33">
+      <c r="B16" s="32">
         <f>ROUND(14950*1.002*1.016*1.018*1.014*1.007,0)+8507</f>
         <v>24327</v>
       </c>
-      <c r="C16" s="33">
+      <c r="C16" s="32">
         <f>ROUND(14850*1.002*1.016*1.018*1.014*1.007,0)+8507</f>
         <v>24222</v>
       </c>
@@ -2643,10 +2644,10 @@
       <c r="A17" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="37">
+      <c r="B17" s="36">
         <v>9500</v>
       </c>
-      <c r="C17" s="37">
+      <c r="C17" s="36">
         <v>7400</v>
       </c>
     </row>
@@ -2654,10 +2655,10 @@
       <c r="A18" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="37">
+      <c r="B18" s="36">
         <v>10700</v>
       </c>
-      <c r="C18" s="37">
+      <c r="C18" s="36">
         <v>8900</v>
       </c>
     </row>
@@ -2665,10 +2666,10 @@
       <c r="A19" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="41">
+      <c r="B19" s="40">
         <v>39000</v>
       </c>
-      <c r="C19" s="41">
+      <c r="C19" s="40">
         <v>33000</v>
       </c>
     </row>
@@ -2676,33 +2677,33 @@
       <c r="A20" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="37">
+      <c r="B20" s="36">
         <v>13398.5</v>
       </c>
-      <c r="C20" s="37">
+      <c r="C20" s="36">
         <v>12058.65</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="33">
+      <c r="B21" s="32">
         <v>45500.000000000007</v>
       </c>
-      <c r="C21" s="33">
+      <c r="C21" s="32">
         <v>28000.000000000004</v>
       </c>
-      <c r="D21" s="3"/>
+      <c r="D21" s="2"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="2">
         <v>1700</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="2">
         <v>1700</v>
       </c>
     </row>
@@ -2728,7 +2729,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="21.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="29"/>
+    <col min="4" max="4" width="9.140625" style="28"/>
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -2742,124 +2743,124 @@
       <c r="C1" s="1">
         <v>2030</v>
       </c>
-      <c r="D1" s="28">
+      <c r="D1" s="27">
         <v>2050</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="30">
+      <c r="B2" s="4"/>
+      <c r="C2" s="29">
         <v>26.81</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="30">
+      <c r="B3" s="4"/>
+      <c r="C3" s="29">
         <v>8.93</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="30">
+      <c r="B4" s="4"/>
+      <c r="C4" s="29">
         <v>6.48</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="30">
+      <c r="B5" s="4"/>
+      <c r="C5" s="29">
         <v>1.69</v>
       </c>
-      <c r="D5" s="30">
+      <c r="D5" s="29">
         <v>1.69</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="30">
+      <c r="B6" s="4"/>
+      <c r="C6" s="29">
         <v>40.68</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="30">
+      <c r="B7" s="4"/>
+      <c r="C7" s="29">
         <v>74.66</v>
       </c>
-      <c r="D7" s="31">
+      <c r="D7" s="30">
         <v>50.29</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="30">
+      <c r="B8" s="4"/>
+      <c r="C8" s="29">
         <v>15</v>
       </c>
-      <c r="D8" s="30">
+      <c r="D8" s="29">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="32">
+      <c r="B9" s="4"/>
+      <c r="C9" s="31">
         <v>74.27</v>
       </c>
-      <c r="D9" s="30">
+      <c r="D9" s="29">
         <v>45.07</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="32">
+      <c r="B10" s="4"/>
+      <c r="C10" s="31">
         <v>100</v>
       </c>
-      <c r="D10" s="30">
+      <c r="D10" s="29">
         <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4">
         <v>1</v>
       </c>
-      <c r="D11" s="28">
+      <c r="D11" s="27">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="55" t="s">
+      <c r="A12" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B12" s="55"/>
-      <c r="D12" s="55">
+      <c r="B12" s="4"/>
+      <c r="D12" s="4">
         <v>48.579252851200003</v>
       </c>
       <c r="F12" s="1" t="s">
@@ -2886,413 +2887,413 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="3">
+      <c r="B1" s="2">
         <v>2020</v>
       </c>
-      <c r="C1" s="3">
+      <c r="C1" s="2">
         <v>2030</v>
       </c>
-      <c r="D1" s="27">
+      <c r="D1" s="26">
         <v>2050</v>
       </c>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5">
         <v>25</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="5">
         <v>25</v>
       </c>
-      <c r="E2" s="45"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
+      <c r="E2" s="43"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5">
         <v>25</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
         <v>25</v>
       </c>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5">
         <v>40</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <v>40</v>
       </c>
-      <c r="E4" s="45"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="36"/>
+      <c r="E4" s="43"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="35"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5">
         <v>40</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <v>40</v>
       </c>
-      <c r="E5" s="45"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="36"/>
+      <c r="E5" s="43"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="35"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5">
         <v>60</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <v>60</v>
       </c>
-      <c r="E6" s="45"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
+      <c r="E6" s="43"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5">
         <v>30</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <v>30</v>
       </c>
-      <c r="E7" s="45"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
+      <c r="E7" s="43"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5">
         <v>30</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <v>30</v>
       </c>
-      <c r="E8" s="45"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="36"/>
+      <c r="E8" s="43"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="35"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5">
         <v>25</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <v>25</v>
       </c>
-      <c r="E9" s="45"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
+      <c r="E9" s="43"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5">
         <v>60</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <v>60</v>
       </c>
-      <c r="E10" s="45"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
+      <c r="E10" s="43"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5">
         <v>40</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="5">
         <v>40</v>
       </c>
-      <c r="E11" s="45"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
+      <c r="E11" s="43"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <v>25</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="5">
         <v>25</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="5">
         <v>30</v>
       </c>
-      <c r="E12" s="45"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
+      <c r="E12" s="43"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6">
+      <c r="B13" s="5"/>
+      <c r="C13" s="5">
         <v>40</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="5">
         <v>40</v>
       </c>
-      <c r="E13" s="45"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
+      <c r="E13" s="43"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6">
+      <c r="A14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5">
         <v>25</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="5">
         <v>25</v>
       </c>
-      <c r="E14" s="45"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
+      <c r="E14" s="43"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6">
+      <c r="B15" s="5"/>
+      <c r="C15" s="5">
         <v>25</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="5">
         <v>25</v>
       </c>
-      <c r="E15" s="45"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
+      <c r="E15" s="43"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6">
+      <c r="B16" s="5"/>
+      <c r="C16" s="5">
         <v>50</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="5">
         <v>50</v>
       </c>
-      <c r="E16" s="45"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
+      <c r="E16" s="43"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="34"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6">
+      <c r="B17" s="5"/>
+      <c r="C17" s="5">
         <v>25</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="5">
         <v>40</v>
       </c>
-      <c r="E17" s="45"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
+      <c r="E17" s="43"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6">
+      <c r="B18" s="5"/>
+      <c r="C18" s="5">
         <v>25</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="5">
         <v>40</v>
       </c>
-      <c r="E18" s="45"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
+      <c r="E18" s="43"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6">
+      <c r="B19" s="5"/>
+      <c r="C19" s="5">
         <v>30</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="5">
         <v>30</v>
       </c>
-      <c r="E19" s="45"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="35"/>
+      <c r="E19" s="43"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="34"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6">
+      <c r="B20" s="5"/>
+      <c r="C20" s="5">
         <v>30</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="5">
         <v>30</v>
       </c>
-      <c r="E20" s="45"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="35"/>
+      <c r="E20" s="43"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="34"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6">
+      <c r="B21" s="5"/>
+      <c r="C21" s="5">
         <v>25</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="5">
         <v>30</v>
       </c>
-      <c r="E21" s="45"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="35"/>
+      <c r="E21" s="43"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="34"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J22" s="35"/>
-      <c r="K22" s="35"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="34"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J23" s="35"/>
-      <c r="K23" s="35"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="34"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J24" s="35"/>
-      <c r="K24" s="35"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="34"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J25" s="35"/>
-      <c r="K25" s="35"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="34"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J26" s="35"/>
-      <c r="K26" s="35"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J27" s="35"/>
-      <c r="K27" s="35"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="34"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J28" s="35"/>
-      <c r="K28" s="35"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="34"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J29" s="35"/>
-      <c r="K29" s="35"/>
+      <c r="J29" s="34"/>
+      <c r="K29" s="34"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J30" s="35"/>
-      <c r="K30" s="35"/>
+      <c r="J30" s="34"/>
+      <c r="K30" s="34"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J31" s="35"/>
-      <c r="K31" s="35"/>
+      <c r="J31" s="34"/>
+      <c r="K31" s="34"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J32" s="35"/>
-      <c r="K32" s="35"/>
+      <c r="J32" s="34"/>
+      <c r="K32" s="34"/>
     </row>
     <row r="33" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J33" s="35"/>
-      <c r="K33" s="35"/>
+      <c r="J33" s="34"/>
+      <c r="K33" s="34"/>
     </row>
     <row r="34" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J34" s="35"/>
-      <c r="K34" s="35"/>
+      <c r="J34" s="34"/>
+      <c r="K34" s="34"/>
     </row>
     <row r="35" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J35" s="35"/>
-      <c r="K35" s="35"/>
+      <c r="J35" s="34"/>
+      <c r="K35" s="34"/>
     </row>
     <row r="36" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J36" s="35"/>
-      <c r="K36" s="35"/>
+      <c r="J36" s="34"/>
+      <c r="K36" s="34"/>
     </row>
     <row r="37" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J37" s="35"/>
-      <c r="K37" s="35"/>
+      <c r="J37" s="34"/>
+      <c r="K37" s="34"/>
     </row>
     <row r="38" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J38" s="35"/>
+      <c r="J38" s="34"/>
     </row>
     <row r="39" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J39" s="35"/>
+      <c r="J39" s="34"/>
     </row>
     <row r="40" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J40" s="34"/>
+      <c r="J40" s="33"/>
     </row>
     <row r="41" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J41" s="34"/>
+      <c r="J41" s="33"/>
     </row>
     <row r="42" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J42" s="34"/>
-      <c r="K42" s="34"/>
+      <c r="J42" s="33"/>
+      <c r="K42" s="33"/>
     </row>
     <row r="43" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J43" s="34"/>
-      <c r="K43" s="34"/>
+      <c r="J43" s="33"/>
+      <c r="K43" s="33"/>
     </row>
     <row r="44" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J44" s="34"/>
-      <c r="K44" s="34"/>
+      <c r="J44" s="33"/>
+      <c r="K44" s="33"/>
     </row>
     <row r="45" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J45" s="34"/>
-      <c r="K45" s="34"/>
+      <c r="J45" s="33"/>
+      <c r="K45" s="33"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D1" xr:uid="{A82A2359-E2A1-427E-8CA6-7C7CC9CE7402}">
@@ -3308,8 +3309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40331877-1BEF-474F-BDAB-D1A166D0FBFC}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3319,25 +3320,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>23</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -3345,25 +3346,25 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>2.6</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>0.309</v>
       </c>
-      <c r="D2" s="3">
-        <v>0</v>
-      </c>
-      <c r="E2" s="3">
-        <v>0</v>
-      </c>
-      <c r="F2" s="3">
-        <v>0</v>
-      </c>
-      <c r="G2" s="3">
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
         <v>0</v>
       </c>
       <c r="H2" s="1">
@@ -3371,25 +3372,25 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="33">
+      <c r="B3" s="32">
         <v>4.4000000000000004</v>
       </c>
-      <c r="C3" s="33">
+      <c r="C3" s="32">
         <v>0.6</v>
       </c>
-      <c r="D3" s="33">
-        <v>0</v>
-      </c>
-      <c r="E3" s="33">
-        <v>0</v>
-      </c>
-      <c r="F3" s="33">
-        <v>0</v>
-      </c>
-      <c r="G3" s="33">
+      <c r="D3" s="32">
+        <v>0</v>
+      </c>
+      <c r="E3" s="32">
+        <v>0</v>
+      </c>
+      <c r="F3" s="32">
+        <v>0</v>
+      </c>
+      <c r="G3" s="32">
         <v>0</v>
       </c>
       <c r="H3" s="1">
@@ -3397,25 +3398,25 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>3</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>0.43</v>
       </c>
-      <c r="D4" s="3">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0</v>
-      </c>
-      <c r="F4" s="3">
-        <v>0</v>
-      </c>
-      <c r="G4" s="3">
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
         <v>0</v>
       </c>
       <c r="H4" s="1">
@@ -3423,25 +3424,25 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="B5" s="33">
+      <c r="B5" s="32">
         <v>3.5</v>
       </c>
-      <c r="C5" s="33">
+      <c r="C5" s="32">
         <v>0.43</v>
       </c>
-      <c r="D5" s="33">
-        <v>0</v>
-      </c>
-      <c r="E5" s="33">
-        <v>0</v>
-      </c>
-      <c r="F5" s="33">
-        <v>0</v>
-      </c>
-      <c r="G5" s="33">
+      <c r="D5" s="32">
+        <v>0</v>
+      </c>
+      <c r="E5" s="32">
+        <v>0</v>
+      </c>
+      <c r="F5" s="32">
+        <v>0</v>
+      </c>
+      <c r="G5" s="32">
         <v>0</v>
       </c>
       <c r="H5" s="1">
@@ -3449,25 +3450,25 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>1</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>1</v>
       </c>
-      <c r="D6" s="3">
-        <v>0</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0</v>
-      </c>
-      <c r="G6" s="3">
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
         <v>0</v>
       </c>
       <c r="H6" s="1">
@@ -3475,25 +3476,25 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>2.7</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>0.85</v>
       </c>
-      <c r="D7" s="3">
-        <v>0</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3">
-        <v>0</v>
-      </c>
-      <c r="G7" s="3">
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
         <v>0</v>
       </c>
       <c r="H7" s="1">
@@ -3501,26 +3502,26 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <f>B7</f>
         <v>2.7</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>0.61</v>
       </c>
-      <c r="D8" s="3">
-        <v>0</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
         <v>0</v>
       </c>
       <c r="H8" s="1">
@@ -3528,25 +3529,25 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>1.5</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>0.4</v>
       </c>
-      <c r="D9" s="3">
-        <v>0</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3">
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
         <v>0</v>
       </c>
       <c r="H9" s="1">
@@ -3554,25 +3555,25 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="3">
-        <v>0</v>
-      </c>
-      <c r="C10" s="3">
+      <c r="B10" s="2">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
         <v>1</v>
       </c>
-      <c r="D10" s="3">
-        <v>0</v>
-      </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3">
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
         <v>0</v>
       </c>
       <c r="H10" s="1">
@@ -3580,25 +3581,25 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="B11" s="33">
+      <c r="B11" s="32">
         <v>3.5</v>
       </c>
-      <c r="C11" s="33">
+      <c r="C11" s="32">
         <v>0.43</v>
       </c>
-      <c r="D11" s="33">
-        <v>0</v>
-      </c>
-      <c r="E11" s="33">
-        <v>0</v>
-      </c>
-      <c r="F11" s="33">
-        <v>0</v>
-      </c>
-      <c r="G11" s="33">
+      <c r="D11" s="32">
+        <v>0</v>
+      </c>
+      <c r="E11" s="32">
+        <v>0</v>
+      </c>
+      <c r="F11" s="32">
+        <v>0</v>
+      </c>
+      <c r="G11" s="32">
         <v>0</v>
       </c>
       <c r="H11" s="1">
@@ -3606,25 +3607,25 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <v>1.8</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <v>0.92</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="2">
         <v>0.92</v>
       </c>
-      <c r="E12" s="33">
+      <c r="E12" s="32">
         <v>2</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="2">
         <v>0.92</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="2">
         <v>0.92</v>
       </c>
       <c r="H12" s="1">
@@ -3632,25 +3633,25 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <v>3.5</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <v>0.35</v>
       </c>
-      <c r="D13" s="3">
-        <v>0</v>
-      </c>
-      <c r="E13" s="3">
-        <v>0</v>
-      </c>
-      <c r="F13" s="3">
-        <v>0</v>
-      </c>
-      <c r="G13" s="3">
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2">
         <v>0</v>
       </c>
       <c r="H13" s="1">
@@ -3658,25 +3659,25 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="3">
+      <c r="A14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="2">
         <v>4.5</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="2">
         <v>0.43</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2">
         <v>0</v>
       </c>
       <c r="H14" s="1">
@@ -3684,25 +3685,25 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="33">
+      <c r="B15" s="32">
         <v>3.5</v>
       </c>
-      <c r="C15" s="33">
+      <c r="C15" s="32">
         <v>0.43</v>
       </c>
-      <c r="D15" s="33">
-        <v>0</v>
-      </c>
-      <c r="E15" s="33">
-        <v>0</v>
-      </c>
-      <c r="F15" s="33">
-        <v>0</v>
-      </c>
-      <c r="G15" s="33">
+      <c r="D15" s="32">
+        <v>0</v>
+      </c>
+      <c r="E15" s="32">
+        <v>0</v>
+      </c>
+      <c r="F15" s="32">
+        <v>0</v>
+      </c>
+      <c r="G15" s="32">
         <v>0</v>
       </c>
       <c r="H15" s="1">
@@ -3710,25 +3711,25 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="2">
         <v>1</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="2">
         <v>1</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="2">
         <v>0.89</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="2">
         <v>10</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="2">
         <v>0.89</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="2">
         <v>0.89</v>
       </c>
       <c r="H16" s="1">
@@ -3736,25 +3737,25 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="2">
         <v>0.5</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="2">
         <v>1</v>
       </c>
-      <c r="D17" s="3">
-        <v>0</v>
-      </c>
-      <c r="E17" s="3">
-        <v>0</v>
-      </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
-      <c r="G17" s="3">
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0</v>
+      </c>
+      <c r="G17" s="2">
         <v>0</v>
       </c>
       <c r="H17" s="1">
@@ -3762,25 +3763,25 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="2">
         <v>0.5</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="2">
         <v>1</v>
       </c>
-      <c r="D18" s="3">
-        <v>0</v>
-      </c>
-      <c r="E18" s="3">
-        <v>0</v>
-      </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0</v>
+      </c>
+      <c r="G18" s="2">
         <v>0</v>
       </c>
       <c r="H18" s="1">
@@ -3788,25 +3789,25 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="2">
         <v>0.5</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="2">
         <v>1</v>
       </c>
-      <c r="D19" s="3">
-        <v>0</v>
-      </c>
-      <c r="E19" s="3">
-        <v>0</v>
-      </c>
-      <c r="F19" s="3">
-        <v>0</v>
-      </c>
-      <c r="G19" s="3">
+      <c r="D19" s="2">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0</v>
+      </c>
+      <c r="G19" s="2">
         <v>0</v>
       </c>
       <c r="H19" s="1">
@@ -3814,25 +3815,25 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="2">
         <v>0.5</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="2">
         <v>1</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
-      </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
+      <c r="D20" s="2">
+        <v>0</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0</v>
+      </c>
+      <c r="G20" s="2">
         <v>0</v>
       </c>
       <c r="H20" s="1">
@@ -3840,25 +3841,25 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="3">
-        <v>0</v>
-      </c>
-      <c r="C21" s="3">
+      <c r="B21" s="2">
+        <v>0</v>
+      </c>
+      <c r="C21" s="2">
         <v>0.74</v>
       </c>
-      <c r="D21" s="3">
-        <v>0</v>
-      </c>
-      <c r="E21" s="3">
-        <v>0</v>
-      </c>
-      <c r="F21" s="3">
-        <v>0</v>
-      </c>
-      <c r="G21" s="3">
+      <c r="D21" s="2">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0</v>
+      </c>
+      <c r="G21" s="2">
         <v>0</v>
       </c>
       <c r="H21" s="1">
@@ -3866,25 +3867,25 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="2">
         <v>1</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="2">
         <v>1.04</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
+      <c r="D22" s="2">
+        <v>0</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0</v>
+      </c>
+      <c r="G22" s="2">
         <v>0</v>
       </c>
       <c r="H22" s="1">
@@ -3916,42 +3917,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="14">
+      <c r="A2" s="13">
         <v>2010</v>
       </c>
-      <c r="B2" s="14">
+      <c r="B2" s="13">
         <v>14.3538679245283</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="13">
         <f t="shared" ref="C2:C10" si="0">B2</f>
         <v>14.3538679245283</v>
       </c>
       <c r="E2" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="14">
+      <c r="A3" s="13">
         <v>2011</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="13">
         <v>13.2143027888446</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="13">
         <f t="shared" si="0"/>
         <v>13.2143027888446</v>
       </c>
@@ -3960,49 +3961,49 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="14">
+      <c r="A4" s="13">
         <v>2012</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="13">
         <v>7.4974103585657303</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="13">
         <f t="shared" si="0"/>
         <v>7.4974103585657303</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="14">
+      <c r="A5" s="13">
         <v>2013</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="13">
         <v>4.9400000000000004</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="13">
         <f t="shared" si="0"/>
         <v>4.9400000000000004</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="14">
+      <c r="A6" s="13">
         <v>2014</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="13">
         <v>9.5500000000000007</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="13">
         <f t="shared" si="0"/>
         <v>9.5500000000000007</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="14">
+      <c r="A7" s="13">
         <v>2015</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="13">
         <v>18.079999999999998</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="13">
         <f t="shared" si="0"/>
         <v>18.079999999999998</v>
       </c>
@@ -4011,13 +4012,13 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="14">
+      <c r="A8" s="13">
         <v>2016</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="13">
         <v>18.079999999999998</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="13">
         <f t="shared" si="0"/>
         <v>18.079999999999998</v>
       </c>
@@ -4027,18 +4028,18 @@
       <c r="F8">
         <v>1</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="8">
         <v>21.7845449890137</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="14">
+      <c r="A9" s="13">
         <v>2017</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="13">
         <v>18.079999999999998</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="13">
         <f t="shared" si="0"/>
         <v>18.079999999999998</v>
       </c>
@@ -4048,18 +4049,18 @@
       <c r="F9">
         <v>2</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="8">
         <v>21.732001069450401</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="14">
+      <c r="A10" s="13">
         <v>2018</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="13">
         <v>18.079999999999998</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="13">
         <f t="shared" si="0"/>
         <v>18.079999999999998</v>
       </c>
@@ -4069,154 +4070,154 @@
       <c r="F10">
         <v>3</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="8">
         <v>45.310069289016702</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="12">
+      <c r="A11" s="11">
         <v>2019</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="10">
         <v>21.7845449890137</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="12">
         <v>19.7</v>
       </c>
       <c r="F11">
         <v>4</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="8">
         <v>63.1633059127807</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="12">
+      <c r="A12" s="11">
         <v>2020</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="10">
         <v>21.732001069450401</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="12">
         <v>20.399999999999999</v>
       </c>
       <c r="F12">
         <v>5</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="8">
         <v>66.373634433746304</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="12">
+      <c r="A13" s="11">
         <v>2021</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="10">
         <v>45.310069289016702</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="12">
         <v>21.7</v>
       </c>
       <c r="F13">
         <v>6</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="8">
         <v>69.664229811859101</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="12">
+      <c r="A14" s="11">
         <v>2022</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="10">
         <v>63.1633059127807</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="12">
         <v>25.177777777777777</v>
       </c>
       <c r="F14">
         <v>7</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="8">
         <v>73.115337734985303</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="12">
+      <c r="A15" s="11">
         <v>2023</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="10">
         <v>66.373634433746304</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15" s="12">
         <v>28.655555555555559</v>
       </c>
       <c r="F15">
         <v>8</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="8">
         <v>76.807218003845193</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="12">
+      <c r="A16" s="11">
         <v>2024</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B16" s="10">
         <v>69.664229811859101</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="12">
         <v>32.13333333333334</v>
       </c>
       <c r="F16">
         <v>9</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="8">
         <v>80.659617874145496</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="12">
+      <c r="A17" s="11">
         <v>2025</v>
       </c>
-      <c r="B17" s="11">
+      <c r="B17" s="10">
         <v>73.115337734985303</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17" s="12">
         <v>35.611111111111114</v>
       </c>
       <c r="F17">
         <v>10</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="8">
         <v>84.672537345886198</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="12">
+      <c r="A18" s="11">
         <v>2026</v>
       </c>
-      <c r="B18" s="11">
+      <c r="B18" s="10">
         <v>76.807218003845193</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C18" s="12">
         <v>39.088888888888889</v>
       </c>
       <c r="F18">
         <v>11</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="8">
         <v>88.926222106933594</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="12">
+      <c r="A19" s="11">
         <v>2027</v>
       </c>
-      <c r="B19" s="11">
+      <c r="B19" s="10">
         <v>80.659617874145496</v>
       </c>
-      <c r="C19" s="13">
+      <c r="C19" s="12">
         <v>42.56666666666667</v>
       </c>
       <c r="E19">
@@ -4225,171 +4226,171 @@
       <c r="F19">
         <v>12</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G19" s="8">
         <v>93.340433525848397</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="12">
+      <c r="A20" s="11">
         <v>2028</v>
       </c>
-      <c r="B20" s="11">
+      <c r="B20" s="10">
         <v>84.672537345886198</v>
       </c>
-      <c r="C20" s="13">
+      <c r="C20" s="12">
         <v>46.044444444444451</v>
       </c>
       <c r="F20">
         <v>13</v>
       </c>
-      <c r="G20" s="9">
+      <c r="G20" s="8">
         <v>97.995417290496803</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="12">
+      <c r="A21" s="11">
         <v>2029</v>
       </c>
-      <c r="B21" s="11">
+      <c r="B21" s="10">
         <v>88.926222106933594</v>
       </c>
-      <c r="C21" s="13">
+      <c r="C21" s="12">
         <v>49.522222222222226</v>
       </c>
       <c r="F21">
         <v>14</v>
       </c>
-      <c r="G21" s="9">
+      <c r="G21" s="8">
         <v>102.891173400879</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="12">
+      <c r="A22" s="11">
         <v>2030</v>
       </c>
-      <c r="B22" s="11">
+      <c r="B22" s="10">
         <v>93.340433525848397</v>
       </c>
-      <c r="C22" s="13">
+      <c r="C22" s="12">
         <v>53</v>
       </c>
       <c r="F22">
         <v>15</v>
       </c>
-      <c r="G22" s="9">
+      <c r="G22" s="8">
         <v>108.107968714142</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="12">
+      <c r="A23" s="11">
         <v>2031</v>
       </c>
-      <c r="B23" s="11">
+      <c r="B23" s="10">
         <v>97.995417290496803</v>
       </c>
-      <c r="C23" s="13">
+      <c r="C23" s="12">
         <v>57.699999999999996</v>
       </c>
       <c r="F23">
         <v>16</v>
       </c>
-      <c r="G23" s="9">
+      <c r="G23" s="8">
         <v>113.485276572418</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="12">
+      <c r="A24" s="11">
         <v>2032</v>
       </c>
-      <c r="B24" s="11">
+      <c r="B24" s="10">
         <v>102.891173400879</v>
       </c>
-      <c r="C24" s="13">
+      <c r="C24" s="12">
         <v>62.399999999999991</v>
       </c>
       <c r="F24">
         <v>17</v>
       </c>
-      <c r="G24" s="9">
+      <c r="G24" s="8">
         <v>119.183616577148</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="12">
+      <c r="A25" s="11">
         <v>2033</v>
       </c>
-      <c r="B25" s="11">
+      <c r="B25" s="10">
         <v>108.107968714142</v>
       </c>
-      <c r="C25" s="13">
+      <c r="C25" s="12">
         <v>67.099999999999994</v>
       </c>
       <c r="F25">
         <v>18</v>
       </c>
-      <c r="G25" s="9">
+      <c r="G25" s="8">
         <v>125.122728927612</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="12">
+      <c r="A26" s="11">
         <v>2034</v>
       </c>
-      <c r="B26" s="11">
+      <c r="B26" s="10">
         <v>113.485276572418</v>
       </c>
-      <c r="C26" s="13">
+      <c r="C26" s="12">
         <v>71.8</v>
       </c>
       <c r="F26">
         <v>19</v>
       </c>
-      <c r="G26" s="9">
+      <c r="G26" s="8">
         <v>131.382880480957</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="12">
+      <c r="A27" s="11">
         <v>2035</v>
       </c>
-      <c r="B27" s="11">
+      <c r="B27" s="10">
         <v>119.183616577148</v>
       </c>
-      <c r="C27" s="13">
+      <c r="C27" s="12">
         <v>76.5</v>
       </c>
       <c r="F27">
         <v>20</v>
       </c>
-      <c r="G27" s="9">
+      <c r="G27" s="8">
         <v>137.964057124329</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="12">
+      <c r="A28" s="11">
         <v>2036</v>
       </c>
-      <c r="B28" s="11">
+      <c r="B28" s="10">
         <v>125.122728927612</v>
       </c>
-      <c r="C28" s="13">
+      <c r="C28" s="12">
         <v>81.2</v>
       </c>
       <c r="F28">
         <v>21</v>
       </c>
-      <c r="G28" s="9">
+      <c r="G28" s="8">
         <v>144.86627297058101</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="12">
+      <c r="A29" s="11">
         <v>2037</v>
       </c>
-      <c r="B29" s="11">
+      <c r="B29" s="10">
         <v>131.382880480957</v>
       </c>
-      <c r="C29" s="13">
+      <c r="C29" s="12">
         <v>85.899999999999991</v>
       </c>
       <c r="E29">
@@ -4398,180 +4399,180 @@
       <c r="F29">
         <v>22</v>
       </c>
-      <c r="G29" s="9">
+      <c r="G29" s="8">
         <v>152.08952801971401</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="12">
+      <c r="A30" s="11">
         <v>2038</v>
       </c>
-      <c r="B30" s="11">
+      <c r="B30" s="10">
         <v>137.964057124329</v>
       </c>
-      <c r="C30" s="13">
+      <c r="C30" s="12">
         <v>90.6</v>
       </c>
       <c r="F30">
         <v>23</v>
       </c>
-      <c r="G30" s="9">
+      <c r="G30" s="8">
         <f t="shared" ref="G30:G43" si="1">_xlfn.FORECAST.LINEAR(F30,$G$8:$G$29,$F$8:$F$29)</f>
         <v>154.87831521398357</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="12">
+      <c r="A31" s="11">
         <v>2039</v>
       </c>
-      <c r="B31" s="11">
+      <c r="B31" s="10">
         <v>144.86627297058101</v>
       </c>
-      <c r="C31" s="13">
+      <c r="C31" s="12">
         <v>95.3</v>
       </c>
       <c r="F31">
         <v>24</v>
       </c>
-      <c r="G31" s="9">
+      <c r="G31" s="8">
         <f t="shared" si="1"/>
         <v>160.36718818841777</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="12">
+      <c r="A32" s="11">
         <v>2040</v>
       </c>
-      <c r="B32" s="11">
+      <c r="B32" s="10">
         <v>152.08952801971401</v>
       </c>
-      <c r="C32" s="13">
+      <c r="C32" s="12">
         <v>100</v>
       </c>
       <c r="F32">
         <v>25</v>
       </c>
-      <c r="G32" s="9">
+      <c r="G32" s="8">
         <f t="shared" si="1"/>
         <v>165.85606116285197</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="12">
+      <c r="A33" s="11">
         <v>2041</v>
       </c>
-      <c r="B33" s="11">
+      <c r="B33" s="10">
         <v>154.87831521398357</v>
       </c>
-      <c r="C33" s="13">
+      <c r="C33" s="12">
         <v>102</v>
       </c>
       <c r="F33">
         <v>26</v>
       </c>
-      <c r="G33" s="9">
+      <c r="G33" s="8">
         <f t="shared" si="1"/>
         <v>171.34493413728617</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="12">
+      <c r="A34" s="11">
         <v>2042</v>
       </c>
-      <c r="B34" s="11">
+      <c r="B34" s="10">
         <v>160.36718818841777</v>
       </c>
-      <c r="C34" s="13">
+      <c r="C34" s="12">
         <v>104</v>
       </c>
       <c r="F34">
         <v>27</v>
       </c>
-      <c r="G34" s="9">
+      <c r="G34" s="8">
         <f t="shared" si="1"/>
         <v>176.83380711172035</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="12">
+      <c r="A35" s="11">
         <v>2043</v>
       </c>
-      <c r="B35" s="11">
+      <c r="B35" s="10">
         <v>165.85606116285197</v>
       </c>
-      <c r="C35" s="13">
+      <c r="C35" s="12">
         <v>106</v>
       </c>
       <c r="F35">
         <v>28</v>
       </c>
-      <c r="G35" s="9">
+      <c r="G35" s="8">
         <f t="shared" si="1"/>
         <v>182.32268008615455</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="12">
+      <c r="A36" s="11">
         <v>2044</v>
       </c>
-      <c r="B36" s="11">
+      <c r="B36" s="10">
         <v>171.34493413728617</v>
       </c>
-      <c r="C36" s="13">
+      <c r="C36" s="12">
         <v>108</v>
       </c>
       <c r="F36">
         <v>29</v>
       </c>
-      <c r="G36" s="9">
+      <c r="G36" s="8">
         <f t="shared" si="1"/>
         <v>187.81155306058875</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="12">
+      <c r="A37" s="11">
         <v>2045</v>
       </c>
-      <c r="B37" s="11">
+      <c r="B37" s="10">
         <v>176.83380711172035</v>
       </c>
-      <c r="C37" s="13">
+      <c r="C37" s="12">
         <v>110</v>
       </c>
       <c r="F37">
         <v>30</v>
       </c>
-      <c r="G37" s="9">
+      <c r="G37" s="8">
         <f t="shared" si="1"/>
         <v>193.30042603502292</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="12">
+      <c r="A38" s="11">
         <v>2046</v>
       </c>
-      <c r="B38" s="11">
+      <c r="B38" s="10">
         <v>182.32268008615455</v>
       </c>
-      <c r="C38" s="13">
+      <c r="C38" s="12">
         <v>112</v>
       </c>
       <c r="F38">
         <v>31</v>
       </c>
-      <c r="G38" s="9">
+      <c r="G38" s="8">
         <f t="shared" si="1"/>
         <v>198.78929900945712</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="12">
+      <c r="A39" s="11">
         <v>2047</v>
       </c>
-      <c r="B39" s="11">
+      <c r="B39" s="10">
         <v>187.81155306058875</v>
       </c>
-      <c r="C39" s="13">
+      <c r="C39" s="12">
         <v>114</v>
       </c>
       <c r="E39">
@@ -4580,116 +4581,116 @@
       <c r="F39">
         <v>32</v>
       </c>
-      <c r="G39" s="9">
+      <c r="G39" s="8">
         <f t="shared" si="1"/>
         <v>204.27817198389133</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="12">
+      <c r="A40" s="11">
         <v>2048</v>
       </c>
-      <c r="B40" s="11">
+      <c r="B40" s="10">
         <v>193.30042603502292</v>
       </c>
-      <c r="C40" s="13">
+      <c r="C40" s="12">
         <v>116</v>
       </c>
       <c r="F40">
         <v>33</v>
       </c>
-      <c r="G40" s="9">
+      <c r="G40" s="8">
         <f t="shared" si="1"/>
         <v>209.76704495832553</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="12">
+      <c r="A41" s="11">
         <v>2049</v>
       </c>
-      <c r="B41" s="11">
+      <c r="B41" s="10">
         <v>198.78929900945712</v>
       </c>
-      <c r="C41" s="13">
+      <c r="C41" s="12">
         <v>118</v>
       </c>
       <c r="F41">
         <v>34</v>
       </c>
-      <c r="G41" s="9">
+      <c r="G41" s="8">
         <f t="shared" si="1"/>
         <v>215.25591793275973</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="12">
+      <c r="A42" s="11">
         <v>2050</v>
       </c>
-      <c r="B42" s="11">
+      <c r="B42" s="10">
         <v>204.27817198389133</v>
       </c>
-      <c r="C42" s="13">
+      <c r="C42" s="12">
         <v>120</v>
       </c>
       <c r="F42">
         <v>35</v>
       </c>
-      <c r="G42" s="9">
+      <c r="G42" s="8">
         <f t="shared" si="1"/>
         <v>220.7447909071939</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="12">
+      <c r="A43" s="11">
         <v>2051</v>
       </c>
-      <c r="B43" s="11">
+      <c r="B43" s="10">
         <v>209.76704495832553</v>
       </c>
-      <c r="C43" s="13">
+      <c r="C43" s="12">
         <f>_xlfn.FORECAST.LINEAR(yearlyCO2!F40,$C$11:$C$42,yearlyCO2!$F$8:$F$39)</f>
         <v>131.9840725806452</v>
       </c>
       <c r="F43">
         <v>36</v>
       </c>
-      <c r="G43" s="9">
+      <c r="G43" s="8">
         <f t="shared" si="1"/>
         <v>226.2336638816281</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="12">
+      <c r="A44" s="11">
         <v>2052</v>
       </c>
-      <c r="B44" s="11">
+      <c r="B44" s="10">
         <v>215.25591793275973</v>
       </c>
-      <c r="C44" s="13">
+      <c r="C44" s="12">
         <f>_xlfn.FORECAST.LINEAR(yearlyCO2!F41,$C$11:$C$42,yearlyCO2!$F$8:$F$39)</f>
         <v>135.60413000977522</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="12">
+      <c r="A45" s="11">
         <v>2053</v>
       </c>
-      <c r="B45" s="11">
+      <c r="B45" s="10">
         <v>220.7447909071939</v>
       </c>
-      <c r="C45" s="13">
+      <c r="C45" s="12">
         <f>_xlfn.FORECAST.LINEAR(yearlyCO2!F42,$C$11:$C$42,yearlyCO2!$F$8:$F$39)</f>
         <v>139.2241874389052</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="12">
+      <c r="A46" s="11">
         <v>2054</v>
       </c>
-      <c r="B46" s="11">
+      <c r="B46" s="10">
         <v>226.2336638816281</v>
       </c>
-      <c r="C46" s="13">
+      <c r="C46" s="12">
         <f>_xlfn.FORECAST.LINEAR(yearlyCO2!F43,$C$11:$C$42,yearlyCO2!$F$8:$F$39)</f>
         <v>142.84424486803522</v>
       </c>

--- a/data/Traderes_data.xlsx
+++ b/data/Traderes_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\toolbox-amiris-emlab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2C849B7-F3CF-4D88-A02D-1409D0494F1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD00844A-FBBC-454C-81DB-7BF15349A6F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5010" yWindow="-14910" windowWidth="21600" windowHeight="12735" tabRatio="785" activeTab="7" xr2:uid="{9A6D5CBA-73A9-44EC-81CD-5563DD7C030A}"/>
+    <workbookView xWindow="-9920" yWindow="-21710" windowWidth="38620" windowHeight="21220" tabRatio="785" activeTab="10" xr2:uid="{9A6D5CBA-73A9-44EC-81CD-5563DD7C030A}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="12" r:id="rId1"/>
@@ -26,7 +26,7 @@
     <sheet name="sources" sheetId="10" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">fixedCosts!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">fixedCosts!$A$1:$D$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">investmentCosts!$A$1:$D$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">lifetime_technical!$A$1:$D$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">techspecs!$A$1:$G$1</definedName>
@@ -97,9 +97,6 @@
     <t>hydrogen turbine</t>
   </si>
   <si>
-    <t>hydrogen combined cycle</t>
-  </si>
-  <si>
     <t>hydrogen CHP</t>
   </si>
   <si>
@@ -335,6 +332,9 @@
   </si>
   <si>
     <t>OTHER fuel</t>
+  </si>
+  <si>
+    <t>hydrogen OCGT</t>
   </si>
 </sst>
 </file>
@@ -347,7 +347,7 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="&quot;€&quot;\ #,##0"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -464,8 +464,15 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -506,6 +513,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -540,7 +552,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -549,8 +561,9 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -628,14 +641,27 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="8" borderId="0" xfId="8" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="5"/>
+    <xf numFmtId="2" fontId="11" fillId="6" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="6" borderId="1" xfId="5" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="9">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
     <cellStyle name="Comma 2" xfId="2" xr:uid="{E5037CBA-12FA-4B97-B1F6-0BDCF682C8FC}"/>
     <cellStyle name="Comma 2 2" xfId="6" xr:uid="{70A3E38C-3CB6-43E2-84EC-850839FF8B51}"/>
     <cellStyle name="Comma 2 3" xfId="7" xr:uid="{8FEEAB14-B303-4891-A615-0BE5A09BA410}"/>
     <cellStyle name="Good" xfId="5" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{66935CEE-9E6E-468B-A18D-D284C6317C61}"/>
   </cellStyles>
@@ -1072,22 +1098,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1116,37 +1142,37 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H1" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I1" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J1" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K1" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M1" s="24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -1178,7 +1204,7 @@
         <v>6789</v>
       </c>
       <c r="M2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -1267,16 +1293,16 @@
         <v>1724.3181818181818</v>
       </c>
       <c r="H6" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I6" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J6" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K6" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -1293,7 +1319,7 @@
         <v>1724.3181818181818</v>
       </c>
       <c r="H7" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I7" s="7">
         <v>290.54545454545502</v>
@@ -1319,7 +1345,7 @@
         <v>1724.3181818181818</v>
       </c>
       <c r="H8" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I8" s="7">
         <v>228.4</v>
@@ -1345,7 +1371,7 @@
         <v>1724.3181818181818</v>
       </c>
       <c r="H9" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I9" s="7">
         <v>250.45161290322579</v>
@@ -1428,10 +1454,10 @@
       </c>
       <c r="G14" s="21"/>
       <c r="H14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J14" t="b">
         <v>1</v>
@@ -1455,10 +1481,10 @@
       </c>
       <c r="G15" s="21"/>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J15" t="b">
         <v>1</v>
@@ -1481,10 +1507,10 @@
         <v>3298.8249999999998</v>
       </c>
       <c r="H16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J16" t="b">
         <v>1</v>
@@ -1740,20 +1766,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7B6706D-91F6-4F7E-841A-03D37A556D1E}">
   <dimension ref="A2:A34"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="P37" sqref="P37"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="N59" sqref="N59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1779,13 +1805,13 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1805,7 +1831,7 @@
         <v>27840</v>
       </c>
       <c r="D3" s="44" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1916,13 +1942,13 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -1937,10 +1963,10 @@
         <v>43336.125918999998</v>
       </c>
       <c r="G2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1955,10 +1981,10 @@
         <v>96145.2</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1969,16 +1995,16 @@
         <v>82099</v>
       </c>
       <c r="D4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" s="18">
         <v>47745</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1993,15 +2019,15 @@
         <v>134820</v>
       </c>
       <c r="H5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="10">
         <v>12040</v>
@@ -2010,10 +2036,10 @@
         <v>82099</v>
       </c>
       <c r="G6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="15" t="s">
         <v>38</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2025,16 +2051,16 @@
       </c>
       <c r="C7" s="14"/>
       <c r="D7" s="42" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F7" s="16">
         <v>26964</v>
       </c>
       <c r="G7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2046,7 +2072,7 @@
       <c r="A9" s="11"/>
       <c r="B9" s="10"/>
       <c r="D9" s="44" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2138,10 +2164,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D7D7B62-0359-4414-8FD2-B8EA37D25C57}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2154,7 +2180,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" s="27">
         <v>2020</v>
@@ -2168,7 +2194,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="43"/>
       <c r="C2" s="48">
@@ -2180,7 +2206,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="43" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B3" s="43">
         <f xml:space="preserve"> 0.935767992*1000000</f>
@@ -2195,7 +2221,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="43" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B4" s="43">
         <v>1390000</v>
@@ -2207,7 +2233,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="43" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B5" s="43"/>
       <c r="C5" s="36">
@@ -2217,7 +2243,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="43" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B6" s="43"/>
       <c r="C6" s="36">
@@ -2231,7 +2257,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="43" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="43"/>
       <c r="C7" s="49"/>
@@ -2241,12 +2267,16 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="43"/>
-      <c r="C8" s="50"/>
+        <v>87</v>
+      </c>
+      <c r="B8" s="43">
+        <v>478517.72310000006</v>
+      </c>
+      <c r="C8" s="50">
+        <v>467883.99592000007</v>
+      </c>
       <c r="D8" s="50">
-        <v>750000</v>
+        <v>435982.81438000005</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -2265,12 +2295,12 @@
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="43" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B10" s="43"/>
       <c r="C10" s="36">
@@ -2284,7 +2314,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="43" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B11" s="43"/>
       <c r="C11" s="36">
@@ -2329,7 +2359,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="43" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" s="43"/>
       <c r="C15" s="36">
@@ -2339,7 +2369,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="43" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B16" s="43"/>
       <c r="C16" s="51">
@@ -2402,7 +2432,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="43" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B21" s="43"/>
       <c r="C21" s="51">
@@ -2414,7 +2444,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B22" s="46">
         <v>50000</v>
@@ -2434,6 +2464,15 @@
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B26" s="37"/>
       <c r="C26" s="53"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="55"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="56"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="52"/>
+      <c r="D29" s="52"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D1" xr:uid="{5D7D7B62-0359-4414-8FD2-B8EA37D25C57}">
@@ -2447,269 +2486,291 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCB4739B-0110-4D61-9D8D-66A005DA91D1}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="23.28515625" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="3" width="23.28515625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="2">
+        <v>29</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2">
         <v>2030</v>
       </c>
-      <c r="C1" s="2">
+      <c r="D1" s="2">
         <v>2050</v>
       </c>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="36">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="36">
         <v>66992</v>
       </c>
-      <c r="C2" s="36">
+      <c r="D2" s="36">
         <v>61676</v>
       </c>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="B3" s="36">
+        <v>78</v>
+      </c>
+      <c r="B3" s="43"/>
+      <c r="C3" s="36">
         <v>29561.761559999999</v>
       </c>
-      <c r="C3" s="36">
+      <c r="D3" s="36">
         <v>27647.69067</v>
       </c>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="B4" s="45">
+        <v>76</v>
+      </c>
+      <c r="B4" s="43"/>
+      <c r="C4" s="45">
         <v>32000</v>
       </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D4" s="45"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="B5" s="36">
+        <v>66</v>
+      </c>
+      <c r="B5" s="38"/>
+      <c r="C5" s="36">
         <v>61528.160000000003</v>
       </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D5" s="36"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B6" s="32">
+        <v>69</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="32">
         <f>ROUND(13450*1.002*1.016*1.018*1.014*1.007,0)</f>
         <v>14233</v>
       </c>
-      <c r="C6" s="32">
+      <c r="D6" s="32">
         <f>ROUND(13425*1.002*1.016*1.018*1.014*1.007,0)</f>
         <v>14207</v>
       </c>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="2"/>
-      <c r="C7" s="1">
+      <c r="C7" s="2"/>
+      <c r="D7" s="1">
         <v>30000</v>
       </c>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2">
-        <v>11250</v>
-      </c>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+      <c r="B8" s="59">
+        <v>8579.2910888240003</v>
+      </c>
+      <c r="C8" s="59">
+        <v>8236.1194452710406</v>
+      </c>
+      <c r="D8" s="59">
+        <v>7892.9478017180809</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="32">
+      <c r="B9" s="2"/>
+      <c r="C9" s="32">
         <v>29561</v>
       </c>
-      <c r="C9" s="32">
+      <c r="D9" s="32">
         <v>27647</v>
       </c>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="B10" s="32">
+        <v>70</v>
+      </c>
+      <c r="B10" s="43"/>
+      <c r="C10" s="32">
         <f>ROUND(14950*1.002*1.016*1.018*1.014*1.007,0)</f>
         <v>15820</v>
       </c>
-      <c r="C10" s="32">
+      <c r="D10" s="32">
         <f>ROUND(14850*1.002*1.016*1.018*1.014*1.007,0)</f>
         <v>15715</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="B11" s="32">
+        <v>67</v>
+      </c>
+      <c r="B11" s="38"/>
+      <c r="C11" s="32">
         <v>61528.160000000003</v>
       </c>
-      <c r="C11" s="32"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D11" s="32"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="40">
-        <v>570</v>
-      </c>
+      <c r="B12" s="57"/>
       <c r="C12" s="40">
         <v>570</v>
       </c>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D12" s="40">
+        <v>570</v>
+      </c>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="40">
-        <f>C13</f>
+      <c r="B13" s="57"/>
+      <c r="C13" s="40">
+        <f>D13</f>
         <v>111166.3</v>
       </c>
-      <c r="C13" s="40">
+      <c r="D13" s="40">
         <v>111166.3</v>
       </c>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2">
         <v>7423</v>
       </c>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="36">
+        <v>17</v>
+      </c>
+      <c r="B15" s="38"/>
+      <c r="C15" s="36">
         <v>8815.1</v>
       </c>
-      <c r="C15" s="36"/>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D15" s="36"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="B16" s="32">
+        <v>71</v>
+      </c>
+      <c r="B16" s="35"/>
+      <c r="C16" s="32">
         <f>ROUND(14950*1.002*1.016*1.018*1.014*1.007,0)+8507</f>
         <v>24327</v>
       </c>
-      <c r="C16" s="32">
+      <c r="D16" s="32">
         <f>ROUND(14850*1.002*1.016*1.018*1.014*1.007,0)+8507</f>
         <v>24222</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="36">
+      <c r="C17" s="36">
         <v>9500</v>
       </c>
-      <c r="C17" s="36">
+      <c r="D17" s="36">
         <v>7400</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="36">
+      <c r="C18" s="36">
         <v>10700</v>
       </c>
-      <c r="C18" s="36">
+      <c r="D18" s="36">
         <v>8900</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="40">
+      <c r="C19" s="40">
         <v>39000</v>
       </c>
-      <c r="C19" s="40">
+      <c r="D19" s="40">
         <v>33000</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="36">
+      <c r="C20" s="36">
         <v>13398.5</v>
       </c>
-      <c r="C20" s="36">
+      <c r="D20" s="36">
         <v>12058.65</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="32">
+        <v>9</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="32">
         <v>45500.000000000007</v>
       </c>
-      <c r="C21" s="32">
+      <c r="D21" s="32">
         <v>28000.000000000004</v>
       </c>
-      <c r="D21" s="2"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B22" s="2">
-        <v>1700</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="B22" s="2"/>
       <c r="C22" s="2">
         <v>1700</v>
       </c>
+      <c r="D22" s="2">
+        <v>1700</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C1" xr:uid="{DCB4739B-0110-4D61-9D8D-66A005DA91D1}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C21">
+  <autoFilter ref="A1:D1" xr:uid="{DCB4739B-0110-4D61-9D8D-66A005DA91D1}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D21">
       <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>
@@ -2735,7 +2796,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B1" s="1">
         <v>2020</v>
@@ -2749,7 +2810,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="29">
@@ -2758,7 +2819,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="29">
@@ -2767,7 +2828,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="29">
@@ -2776,7 +2837,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="29">
@@ -2788,7 +2849,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="29">
@@ -2797,7 +2858,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="29">
@@ -2809,7 +2870,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="29">
@@ -2821,7 +2882,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="31">
@@ -2833,7 +2894,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="31">
@@ -2845,7 +2906,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4">
@@ -2857,14 +2918,14 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B12" s="4"/>
       <c r="D12" s="4">
         <v>48.579252851200003</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2877,7 +2938,7 @@
   <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="N40" sqref="N40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2888,7 +2949,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" s="2">
         <v>2020</v>
@@ -2904,7 +2965,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5">
@@ -2919,7 +2980,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="43" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5">
@@ -2933,7 +2994,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="43" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5">
@@ -2948,7 +3009,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="38" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5">
@@ -2963,7 +3024,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5">
@@ -2978,7 +3039,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5">
@@ -2993,14 +3054,14 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="39" t="s">
-        <v>8</v>
+        <v>87</v>
       </c>
       <c r="B8" s="5"/>
-      <c r="C8" s="5">
-        <v>30</v>
-      </c>
-      <c r="D8" s="5">
-        <v>30</v>
+      <c r="C8" s="60">
+        <v>25</v>
+      </c>
+      <c r="D8" s="60">
+        <v>25</v>
       </c>
       <c r="E8" s="43"/>
       <c r="J8" s="34"/>
@@ -3011,10 +3072,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="5"/>
-      <c r="C9" s="5">
+      <c r="C9" s="60">
         <v>25</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="60">
         <v>25</v>
       </c>
       <c r="E9" s="43"/>
@@ -3023,7 +3084,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5">
@@ -3038,7 +3099,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="38" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5">
@@ -3100,7 +3161,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="38" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5">
@@ -3115,7 +3176,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5">
@@ -3190,7 +3251,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="5">
@@ -3309,8 +3370,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40331877-1BEF-474F-BDAB-D1A166D0FBFC}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I50" sqref="I50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3321,33 +3382,33 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2">
         <v>2.6</v>
@@ -3373,7 +3434,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B3" s="32">
         <v>4.4000000000000004</v>
@@ -3399,7 +3460,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="43" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B4" s="2">
         <v>3</v>
@@ -3425,7 +3486,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="38" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B5" s="32">
         <v>3.5</v>
@@ -3451,7 +3512,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B6" s="2">
         <v>1</v>
@@ -3477,7 +3538,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="2">
         <v>2.7</v>
@@ -3503,60 +3564,59 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="2">
-        <f>B7</f>
-        <v>2.7</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0.61</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0</v>
-      </c>
-      <c r="H8" s="1">
-        <v>30</v>
+        <v>87</v>
+      </c>
+      <c r="B8" s="32">
+        <v>4.79</v>
+      </c>
+      <c r="C8" s="32">
+        <v>0.43</v>
+      </c>
+      <c r="D8" s="32">
+        <v>0</v>
+      </c>
+      <c r="E8" s="32">
+        <v>0</v>
+      </c>
+      <c r="F8" s="32">
+        <v>0</v>
+      </c>
+      <c r="G8" s="32">
+        <v>0</v>
+      </c>
+      <c r="H8" s="58">
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0</v>
-      </c>
-      <c r="G9" s="2">
-        <v>0</v>
-      </c>
-      <c r="H9" s="1">
+      <c r="B9" s="32">
+        <v>4.24</v>
+      </c>
+      <c r="C9" s="32">
+        <v>0.6</v>
+      </c>
+      <c r="D9" s="32">
+        <v>0</v>
+      </c>
+      <c r="E9" s="32">
+        <v>0</v>
+      </c>
+      <c r="F9" s="32">
+        <v>0</v>
+      </c>
+      <c r="G9" s="32">
+        <v>0</v>
+      </c>
+      <c r="H9" s="58">
         <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="43" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B10" s="2">
         <v>0</v>
@@ -3582,7 +3642,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="38" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B11" s="32">
         <v>3.5</v>
@@ -3686,7 +3746,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="38" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" s="32">
         <v>3.5</v>
@@ -3712,7 +3772,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B16" s="2">
         <v>1</v>
@@ -3842,7 +3902,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B21" s="2">
         <v>0</v>
@@ -3868,7 +3928,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B22" s="2">
         <v>1</v>
@@ -3918,13 +3978,13 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -3939,10 +3999,10 @@
         <v>14.3538679245283</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -3957,7 +4017,7 @@
         <v>13.2143027888446</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -4008,7 +4068,7 @@
         <v>18.079999999999998</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">

--- a/data/Traderes_data.xlsx
+++ b/data/Traderes_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\toolbox-amiris-emlab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD00844A-FBBC-454C-81DB-7BF15349A6F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BC0F217-2961-457D-83E1-9A7F1D6A14BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9920" yWindow="-21710" windowWidth="38620" windowHeight="21220" tabRatio="785" activeTab="10" xr2:uid="{9A6D5CBA-73A9-44EC-81CD-5563DD7C030A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="785" activeTab="6" xr2:uid="{9A6D5CBA-73A9-44EC-81CD-5563DD7C030A}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="12" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="90">
   <si>
     <t>OCGT</t>
   </si>
@@ -335,17 +335,22 @@
   </si>
   <si>
     <t>hydrogen OCGT</t>
+  </si>
+  <si>
+    <t>Lithium ion battery 4</t>
+  </si>
+  <si>
+    <t>correct values</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="&quot;€&quot;\ #,##0"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -465,14 +470,14 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
+      <sz val="8"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -513,13 +518,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -551,8 +551,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -561,9 +574,8 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -611,27 +623,17 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="11" fillId="6" borderId="1" xfId="5" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="11" fillId="6" borderId="0" xfId="5" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="11" fillId="6" borderId="0" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="11" fillId="6" borderId="1" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -641,27 +643,40 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="6" borderId="1" xfId="5" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="6" borderId="1" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="8" borderId="0" xfId="8" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="11" fillId="6" borderId="0" xfId="5" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="5"/>
     <xf numFmtId="2" fontId="11" fillId="6" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="6" borderId="1" xfId="5" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="8">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
     <cellStyle name="Comma 2" xfId="2" xr:uid="{E5037CBA-12FA-4B97-B1F6-0BDCF682C8FC}"/>
     <cellStyle name="Comma 2 2" xfId="6" xr:uid="{70A3E38C-3CB6-43E2-84EC-850839FF8B51}"/>
     <cellStyle name="Comma 2 3" xfId="7" xr:uid="{8FEEAB14-B303-4891-A615-0BE5A09BA410}"/>
     <cellStyle name="Good" xfId="5" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{66935CEE-9E6E-468B-A18D-D284C6317C61}"/>
   </cellStyles>
@@ -1766,8 +1781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7B6706D-91F6-4F7E-841A-03D37A556D1E}">
   <dimension ref="A2:A34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="N59" sqref="N59"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="V17" sqref="V17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1830,7 +1845,7 @@
       <c r="B3" s="10">
         <v>27840</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="42" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2050,7 +2065,7 @@
         <v>2700</v>
       </c>
       <c r="C7" s="14"/>
-      <c r="D7" s="42" t="s">
+      <c r="D7" s="40" t="s">
         <v>72</v>
       </c>
       <c r="F7" s="16">
@@ -2071,7 +2086,7 @@
     <row r="9" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
       <c r="B9" s="10"/>
-      <c r="D9" s="44" t="s">
+      <c r="D9" s="42" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2167,14 +2182,14 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="31.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.140625" style="52" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" style="54" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="31.140625" style="46" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" style="48" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -2182,33 +2197,33 @@
       <c r="A1" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="27">
+      <c r="B1" s="43">
         <v>2020</v>
       </c>
-      <c r="C1" s="47">
+      <c r="C1" s="43">
         <v>2030</v>
       </c>
-      <c r="D1" s="50">
+      <c r="D1" s="44">
         <v>2050</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="48">
+      <c r="B2" s="50"/>
+      <c r="C2" s="45">
         <v>3030612</v>
       </c>
-      <c r="D2" s="48">
+      <c r="D2" s="45">
         <v>2400000</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="43">
+      <c r="B3" s="50">
         <f xml:space="preserve"> 0.935767992*1000000</f>
         <v>935767.99200000009</v>
       </c>
@@ -2220,32 +2235,32 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="B4" s="43">
+      <c r="B4" s="50">
         <v>1390000</v>
       </c>
       <c r="C4" s="10">
         <v>1280000</v>
       </c>
-      <c r="D4" s="47"/>
+      <c r="D4" s="43"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="B5" s="43"/>
+      <c r="B5" s="50"/>
       <c r="C5" s="36">
         <v>3845510</v>
       </c>
-      <c r="D5" s="47"/>
+      <c r="D5" s="43"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="43"/>
+      <c r="B6" s="50"/>
       <c r="C6" s="36">
         <f>ROUND(2690000*1.002*1.016*1.018*1.014*1.007,0)</f>
         <v>2846616</v>
@@ -2256,34 +2271,34 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49">
+      <c r="B7" s="50"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44">
         <v>730000</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="B8" s="43">
+      <c r="B8" s="36">
         <v>478517.72310000006</v>
       </c>
-      <c r="C8" s="50">
+      <c r="C8" s="36">
         <v>467883.99592000007</v>
       </c>
-      <c r="D8" s="50">
+      <c r="D8" s="36">
         <v>435982.81438000005</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="43">
+      <c r="B9" s="36">
         <f xml:space="preserve"> 0.935767992*1000000</f>
         <v>935767.99200000009</v>
       </c>
@@ -2299,10 +2314,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="B10" s="43"/>
+      <c r="B10" s="50"/>
       <c r="C10" s="36">
         <f>ROUND(2990000*1.002*1.016*1.018*1.014*1.007,0)</f>
         <v>3164083</v>
@@ -2313,32 +2328,34 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="43" t="s">
+      <c r="A11" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="B11" s="43"/>
+      <c r="B11" s="50"/>
       <c r="C11" s="36">
         <v>3845510</v>
       </c>
-      <c r="D11" s="47"/>
+      <c r="D11" s="43"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="43" t="s">
+      <c r="A12" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="43"/>
-      <c r="C12" s="36">
-        <v>470000</v>
-      </c>
-      <c r="D12" s="36">
-        <v>220000</v>
+      <c r="B12" s="36">
+        <v>780535.59999999986</v>
+      </c>
+      <c r="C12" s="61">
+        <v>472149.59999999992</v>
+      </c>
+      <c r="D12" s="61">
+        <v>223313.99999999997</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="43" t="s">
+      <c r="A13" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="43"/>
+      <c r="B13" s="50"/>
       <c r="C13" s="36">
         <f>D13</f>
         <v>7940450</v>
@@ -2348,131 +2365,146 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="43"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50">
+      <c r="A14" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="50"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44">
         <v>412000</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="43" t="s">
+      <c r="A15" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="43"/>
+      <c r="B15" s="50"/>
       <c r="C15" s="36">
         <v>343000</v>
       </c>
-      <c r="D15" s="50"/>
+      <c r="D15" s="44"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="43" t="s">
+      <c r="A16" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="B16" s="43"/>
-      <c r="C16" s="51">
+      <c r="B16" s="50"/>
+      <c r="C16" s="45">
         <f>ROUND(2690000*1.002*1.016*1.018*1.014*1.007,0)+600000</f>
         <v>3446616</v>
       </c>
-      <c r="D16" s="51">
+      <c r="D16" s="45">
         <f>ROUND(2685000*1.002*1.016*1.018*1.014*1.007,0)+600000</f>
         <v>3441325</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="43" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="43"/>
+      <c r="B17" s="50"/>
       <c r="C17" s="36">
         <f>ROUND(580000*0.95/1.092/1.029,0)</f>
         <v>490358</v>
       </c>
-      <c r="D17" s="40">
+      <c r="D17" s="36">
         <v>290000</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="43" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="43"/>
+      <c r="B18" s="50"/>
       <c r="C18" s="36">
         <v>840000</v>
       </c>
-      <c r="D18" s="40">
+      <c r="D18" s="36">
         <v>640000</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="43" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="43"/>
+      <c r="B19">
+        <v>2120000</v>
+      </c>
       <c r="C19" s="36">
         <v>1800000</v>
       </c>
-      <c r="D19" s="40">
+      <c r="D19" s="36">
         <v>1640000</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="43" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="43"/>
-      <c r="C20" s="36">
-        <v>1110000</v>
-      </c>
-      <c r="D20" s="40">
-        <v>1020000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="43" t="s">
+      <c r="B20" s="58">
+        <v>1105513.87329</v>
+      </c>
+      <c r="C20" s="58">
+        <v>1146644.8996600001</v>
+      </c>
+      <c r="D20" s="18">
+        <v>1090288.1746699999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="43"/>
-      <c r="C21" s="51">
+      <c r="B21" s="50"/>
+      <c r="C21" s="45">
         <v>650000</v>
       </c>
-      <c r="D21" s="51">
+      <c r="D21" s="45">
         <v>400000</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B22" s="46">
+      <c r="B22" s="51">
         <v>50000</v>
       </c>
-      <c r="C22" s="52">
+      <c r="C22" s="43">
         <f>B22</f>
         <v>50000</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="35"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="37"/>
-      <c r="C25" s="53"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="37"/>
-      <c r="C26" s="53"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B28" s="55"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="56"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B29" s="52"/>
-      <c r="D29" s="52"/>
+      <c r="D22" s="44"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="52"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="B25" s="57">
+        <v>1273953.1999999997</v>
+      </c>
+      <c r="C25" s="57">
+        <v>774155.19999999984</v>
+      </c>
+      <c r="D25" s="57">
+        <v>382823.99999999994</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="53"/>
+      <c r="C26" s="47"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D29" s="46"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D1" xr:uid="{5D7D7B62-0359-4414-8FD2-B8EA37D25C57}">
@@ -2486,223 +2518,218 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCB4739B-0110-4D61-9D8D-66A005DA91D1}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="23.28515625" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2">
+      <c r="B1" s="43">
+        <v>2020</v>
+      </c>
+      <c r="C1" s="43">
         <v>2030</v>
       </c>
-      <c r="D1" s="2">
+      <c r="D1" s="43">
         <v>2050</v>
       </c>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="43"/>
       <c r="C2" s="36">
         <v>66992</v>
       </c>
       <c r="D2" s="36">
         <v>61676</v>
       </c>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="43"/>
+      <c r="B3" s="50"/>
       <c r="C3" s="36">
         <v>29561.761559999999</v>
       </c>
       <c r="D3" s="36">
         <v>27647.69067</v>
       </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="43" t="s">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="45">
+      <c r="B4" s="50"/>
+      <c r="C4" s="43">
         <v>32000</v>
       </c>
-      <c r="D4" s="45"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="38" t="s">
+      <c r="D4" s="10"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="B5" s="38"/>
+      <c r="B5" s="55"/>
       <c r="C5" s="36">
         <v>61528.160000000003</v>
       </c>
       <c r="D5" s="36"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="32">
+      <c r="B6" s="43"/>
+      <c r="C6" s="36">
         <f>ROUND(13450*1.002*1.016*1.018*1.014*1.007,0)</f>
         <v>14233</v>
       </c>
-      <c r="D6" s="32">
+      <c r="D6" s="36">
         <f>ROUND(13425*1.002*1.016*1.018*1.014*1.007,0)</f>
         <v>14207</v>
       </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="1">
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43">
         <v>30000</v>
       </c>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B8" s="59">
+      <c r="B8" s="56">
         <v>8579.2910888240003</v>
       </c>
-      <c r="C8" s="59">
+      <c r="C8" s="56">
         <v>8236.1194452710406</v>
       </c>
-      <c r="D8" s="59">
+      <c r="D8" s="56">
         <v>7892.9478017180809</v>
       </c>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="32">
+      <c r="B9" s="43"/>
+      <c r="C9" s="36">
         <v>29561</v>
       </c>
-      <c r="D9" s="32">
+      <c r="D9" s="36">
         <v>27647</v>
       </c>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="43" t="s">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="B10" s="43"/>
-      <c r="C10" s="32">
+      <c r="B10" s="50"/>
+      <c r="C10" s="36">
         <f>ROUND(14950*1.002*1.016*1.018*1.014*1.007,0)</f>
         <v>15820</v>
       </c>
-      <c r="D10" s="32">
+      <c r="D10" s="36">
         <f>ROUND(14850*1.002*1.016*1.018*1.014*1.007,0)</f>
         <v>15715</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="38" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="B11" s="38"/>
-      <c r="C11" s="32">
+      <c r="B11" s="55"/>
+      <c r="C11" s="36">
         <v>61528.160000000003</v>
       </c>
-      <c r="D11" s="32"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D11" s="36"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="57"/>
-      <c r="C12" s="40">
+      <c r="B12" s="43"/>
+      <c r="C12" s="36">
         <v>570</v>
       </c>
-      <c r="D12" s="40">
+      <c r="D12" s="36">
         <v>570</v>
       </c>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="57"/>
-      <c r="C13" s="40">
+      <c r="B13" s="43"/>
+      <c r="C13" s="36">
         <f>D13</f>
         <v>111166.3</v>
       </c>
-      <c r="D13" s="40">
+      <c r="D13" s="36">
         <v>111166.3</v>
       </c>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2">
+      <c r="B14" s="43"/>
+      <c r="C14" s="43">
         <v>7423</v>
       </c>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="38" t="s">
+      <c r="D14" s="43"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="38"/>
+      <c r="B15" s="55"/>
       <c r="C15" s="36">
         <v>8815.1</v>
       </c>
       <c r="D15" s="36"/>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="35" t="s">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="B16" s="35"/>
-      <c r="C16" s="32">
+      <c r="B16" s="55"/>
+      <c r="C16" s="36">
         <f>ROUND(14950*1.002*1.016*1.018*1.014*1.007,0)+8507</f>
         <v>24327</v>
       </c>
-      <c r="D16" s="32">
+      <c r="D16" s="36">
         <f>ROUND(14850*1.002*1.016*1.018*1.014*1.007,0)+8507</f>
         <v>24222</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="B17" s="43"/>
       <c r="C17" s="36">
         <v>9500</v>
       </c>
@@ -2710,10 +2737,11 @@
         <v>7400</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="B18" s="43"/>
       <c r="C18" s="36">
         <v>10700</v>
       </c>
@@ -2721,50 +2749,61 @@
         <v>8900</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="40">
+      <c r="B19" s="62">
+        <v>50000</v>
+      </c>
+      <c r="C19" s="36">
         <v>39000</v>
       </c>
-      <c r="D19" s="40">
+      <c r="D19" s="36">
         <v>33000</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="36">
+      <c r="B20" s="60">
+        <v>16396.952973721294</v>
+      </c>
+      <c r="C20" s="61">
         <v>13398.5</v>
       </c>
-      <c r="D20" s="36">
+      <c r="D20" s="61">
         <v>12058.65</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20" s="60">
+        <v>16662.667964091612</v>
+      </c>
+      <c r="G20" s="60">
+        <v>15602.06928231802</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="32">
+      <c r="B21" s="43"/>
+      <c r="C21" s="36">
         <v>45500.000000000007</v>
       </c>
-      <c r="D21" s="32">
+      <c r="D21" s="36">
         <v>28000.000000000004</v>
       </c>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2">
+      <c r="B22" s="43"/>
+      <c r="C22" s="43">
         <v>1700</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="43">
         <v>1700</v>
       </c>
     </row>
@@ -2784,7 +2823,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2937,8 +2976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A82A2359-E2A1-427E-8CA6-7C7CC9CE7402}">
   <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N40" sqref="N40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2960,8 +2999,8 @@
       <c r="D1" s="26">
         <v>2050</v>
       </c>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -2974,12 +3013,12 @@
       <c r="D2" s="5">
         <v>25</v>
       </c>
-      <c r="E2" s="43"/>
+      <c r="E2" s="41"/>
       <c r="J2" s="34"/>
       <c r="K2" s="34"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="41" t="s">
         <v>78</v>
       </c>
       <c r="B3" s="5"/>
@@ -2993,7 +3032,7 @@
       <c r="K3" s="34"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="41" t="s">
         <v>76</v>
       </c>
       <c r="B4" s="5"/>
@@ -3003,12 +3042,12 @@
       <c r="D4" s="5">
         <v>40</v>
       </c>
-      <c r="E4" s="43"/>
+      <c r="E4" s="41"/>
       <c r="J4" s="34"/>
       <c r="K4" s="35"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="37" t="s">
         <v>66</v>
       </c>
       <c r="B5" s="5"/>
@@ -3018,7 +3057,7 @@
       <c r="D5" s="5">
         <v>40</v>
       </c>
-      <c r="E5" s="43"/>
+      <c r="E5" s="41"/>
       <c r="J5" s="34"/>
       <c r="K5" s="35"/>
     </row>
@@ -3033,7 +3072,7 @@
       <c r="D6" s="5">
         <v>60</v>
       </c>
-      <c r="E6" s="43"/>
+      <c r="E6" s="41"/>
       <c r="J6" s="34"/>
       <c r="K6" s="34"/>
     </row>
@@ -3048,22 +3087,22 @@
       <c r="D7" s="5">
         <v>30</v>
       </c>
-      <c r="E7" s="43"/>
+      <c r="E7" s="41"/>
       <c r="J7" s="34"/>
       <c r="K7" s="34"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="38" t="s">
         <v>87</v>
       </c>
       <c r="B8" s="5"/>
-      <c r="C8" s="60">
+      <c r="C8" s="49">
         <v>25</v>
       </c>
-      <c r="D8" s="60">
+      <c r="D8" s="49">
         <v>25</v>
       </c>
-      <c r="E8" s="43"/>
+      <c r="E8" s="41"/>
       <c r="J8" s="34"/>
       <c r="K8" s="35"/>
     </row>
@@ -3072,13 +3111,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="5"/>
-      <c r="C9" s="60">
+      <c r="C9" s="49">
         <v>25</v>
       </c>
-      <c r="D9" s="60">
+      <c r="D9" s="49">
         <v>25</v>
       </c>
-      <c r="E9" s="43"/>
+      <c r="E9" s="41"/>
       <c r="J9" s="34"/>
       <c r="K9" s="34"/>
     </row>
@@ -3093,12 +3132,12 @@
       <c r="D10" s="5">
         <v>60</v>
       </c>
-      <c r="E10" s="43"/>
+      <c r="E10" s="41"/>
       <c r="J10" s="34"/>
       <c r="K10" s="34"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="37" t="s">
         <v>67</v>
       </c>
       <c r="B11" s="5"/>
@@ -3108,7 +3147,7 @@
       <c r="D11" s="5">
         <v>40</v>
       </c>
-      <c r="E11" s="43"/>
+      <c r="E11" s="41"/>
       <c r="J11" s="34"/>
       <c r="K11" s="34"/>
     </row>
@@ -3116,16 +3155,16 @@
       <c r="A12" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="59">
+        <v>20</v>
+      </c>
+      <c r="C12" s="59">
         <v>25</v>
       </c>
-      <c r="C12" s="5">
-        <v>25</v>
-      </c>
-      <c r="D12" s="5">
+      <c r="D12" s="59">
         <v>30</v>
       </c>
-      <c r="E12" s="43"/>
+      <c r="E12" s="41"/>
       <c r="J12" s="34"/>
       <c r="K12" s="34"/>
     </row>
@@ -3140,7 +3179,7 @@
       <c r="D13" s="5">
         <v>40</v>
       </c>
-      <c r="E13" s="43"/>
+      <c r="E13" s="41"/>
       <c r="J13" s="34"/>
       <c r="K13" s="34"/>
     </row>
@@ -3155,12 +3194,12 @@
       <c r="D14" s="5">
         <v>25</v>
       </c>
-      <c r="E14" s="43"/>
+      <c r="E14" s="41"/>
       <c r="J14" s="34"/>
       <c r="K14" s="34"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="38" t="s">
+      <c r="A15" s="37" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="5"/>
@@ -3170,7 +3209,7 @@
       <c r="D15" s="5">
         <v>25</v>
       </c>
-      <c r="E15" s="43"/>
+      <c r="E15" s="41"/>
       <c r="J15" s="34"/>
       <c r="K15" s="34"/>
     </row>
@@ -3185,7 +3224,7 @@
       <c r="D16" s="5">
         <v>50</v>
       </c>
-      <c r="E16" s="43"/>
+      <c r="E16" s="41"/>
       <c r="J16" s="34"/>
       <c r="K16" s="34"/>
     </row>
@@ -3200,7 +3239,7 @@
       <c r="D17" s="5">
         <v>40</v>
       </c>
-      <c r="E17" s="43"/>
+      <c r="E17" s="41"/>
       <c r="J17" s="34"/>
       <c r="K17" s="34"/>
     </row>
@@ -3215,7 +3254,7 @@
       <c r="D18" s="5">
         <v>40</v>
       </c>
-      <c r="E18" s="43"/>
+      <c r="E18" s="41"/>
       <c r="J18" s="34"/>
       <c r="K18" s="34"/>
     </row>
@@ -3223,14 +3262,16 @@
       <c r="A19" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5">
+      <c r="B19" s="49">
+        <v>27</v>
+      </c>
+      <c r="C19" s="49">
         <v>30</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="49">
         <v>30</v>
       </c>
-      <c r="E19" s="43"/>
+      <c r="E19" s="41"/>
       <c r="J19" s="34"/>
       <c r="K19" s="34"/>
     </row>
@@ -3238,14 +3279,16 @@
       <c r="A20" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5">
+      <c r="B20" s="49">
+        <v>27</v>
+      </c>
+      <c r="C20" s="49">
         <v>30</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="49">
         <v>30</v>
       </c>
-      <c r="E20" s="43"/>
+      <c r="E20" s="41"/>
       <c r="J20" s="34"/>
       <c r="K20" s="34"/>
     </row>
@@ -3260,7 +3303,7 @@
       <c r="D21" s="5">
         <v>30</v>
       </c>
-      <c r="E21" s="43"/>
+      <c r="E21" s="41"/>
       <c r="J21" s="34"/>
       <c r="K21" s="34"/>
     </row>
@@ -3368,10 +3411,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40331877-1BEF-474F-BDAB-D1A166D0FBFC}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I50" sqref="I50"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3380,33 +3423,36 @@
     <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="54" t="s">
         <v>22</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J1" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -3428,11 +3474,11 @@
       <c r="G2" s="2">
         <v>0</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="2">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>78</v>
       </c>
@@ -3454,12 +3500,12 @@
       <c r="G3" s="32">
         <v>0</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="2">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="43" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="41" t="s">
         <v>76</v>
       </c>
       <c r="B4" s="2">
@@ -3480,12 +3526,12 @@
       <c r="G4" s="2">
         <v>0</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="38" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="37" t="s">
         <v>66</v>
       </c>
       <c r="B5" s="32">
@@ -3506,11 +3552,11 @@
       <c r="G5" s="32">
         <v>0</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>69</v>
       </c>
@@ -3532,11 +3578,11 @@
       <c r="G6" s="2">
         <v>0</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="2">
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
@@ -3558,11 +3604,11 @@
       <c r="G7" s="2">
         <v>0</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="2">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>87</v>
       </c>
@@ -3584,11 +3630,11 @@
       <c r="G8" s="32">
         <v>0</v>
       </c>
-      <c r="H8" s="58">
+      <c r="H8" s="32">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -3610,12 +3656,12 @@
       <c r="G9" s="32">
         <v>0</v>
       </c>
-      <c r="H9" s="58">
+      <c r="H9" s="32">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="43" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="41" t="s">
         <v>70</v>
       </c>
       <c r="B10" s="2">
@@ -3636,12 +3682,12 @@
       <c r="G10" s="2">
         <v>0</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="2">
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="38" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="37" t="s">
         <v>67</v>
       </c>
       <c r="B11" s="32">
@@ -3662,37 +3708,37 @@
       <c r="G11" s="32">
         <v>0</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="32">
         <v>1.8</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="32">
         <v>0.92</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="32">
         <v>0.92</v>
       </c>
       <c r="E12" s="32">
         <v>2</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="32">
         <v>0.92</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="32">
         <v>0.92</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="2">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>5</v>
       </c>
@@ -3714,11 +3760,11 @@
       <c r="G13" s="2">
         <v>0</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>0</v>
       </c>
@@ -3740,12 +3786,12 @@
       <c r="G14" s="2">
         <v>0</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14" s="2">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="38" t="s">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="37" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="32">
@@ -3766,11 +3812,11 @@
       <c r="G15" s="32">
         <v>0</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H15" s="2">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>71</v>
       </c>
@@ -3792,7 +3838,7 @@
       <c r="G16" s="2">
         <v>0.89</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H16" s="2">
         <v>50</v>
       </c>
     </row>
@@ -3818,7 +3864,7 @@
       <c r="G17" s="2">
         <v>0</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H17" s="2">
         <v>25</v>
       </c>
     </row>
@@ -3844,7 +3890,7 @@
       <c r="G18" s="2">
         <v>0</v>
       </c>
-      <c r="H18" s="1">
+      <c r="H18" s="2">
         <v>25</v>
       </c>
     </row>
@@ -3870,7 +3916,7 @@
       <c r="G19" s="2">
         <v>0</v>
       </c>
-      <c r="H19" s="1">
+      <c r="H19" s="2">
         <v>30</v>
       </c>
     </row>
@@ -3878,8 +3924,8 @@
       <c r="A20" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="2">
-        <v>0.5</v>
+      <c r="B20" s="32">
+        <v>2</v>
       </c>
       <c r="C20" s="2">
         <v>1</v>
@@ -3896,7 +3942,7 @@
       <c r="G20" s="2">
         <v>0</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H20" s="2">
         <v>30</v>
       </c>
     </row>
@@ -3922,7 +3968,7 @@
       <c r="G21" s="2">
         <v>0</v>
       </c>
-      <c r="H21" s="1">
+      <c r="H21" s="2">
         <v>25</v>
       </c>
     </row>
@@ -3948,7 +3994,7 @@
       <c r="G22" s="2">
         <v>0</v>
       </c>
-      <c r="H22" s="1">
+      <c r="H22" s="2">
         <v>25</v>
       </c>
     </row>

--- a/data/Traderes_data.xlsx
+++ b/data/Traderes_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\toolbox-amiris-emlab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BC0F217-2961-457D-83E1-9A7F1D6A14BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8B7F763-217F-499A-B99C-8731901BDC12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="785" activeTab="6" xr2:uid="{9A6D5CBA-73A9-44EC-81CD-5563DD7C030A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="785" activeTab="3" xr2:uid="{9A6D5CBA-73A9-44EC-81CD-5563DD7C030A}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="12" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="91">
   <si>
     <t>OCGT</t>
   </si>
@@ -341,6 +341,9 @@
   </si>
   <si>
     <t>correct values</t>
+  </si>
+  <si>
+    <t>talking</t>
   </si>
 </sst>
 </file>
@@ -2179,10 +2182,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D7D7B62-0359-4414-8FD2-B8EA37D25C57}">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2398,7 +2401,7 @@
         <v>3441325</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="41" t="s">
         <v>4</v>
       </c>
@@ -2411,7 +2414,7 @@
         <v>290000</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="41" t="s">
         <v>3</v>
       </c>
@@ -2423,7 +2426,7 @@
         <v>640000</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="41" t="s">
         <v>2</v>
       </c>
@@ -2437,7 +2440,7 @@
         <v>1640000</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="41" t="s">
         <v>1</v>
       </c>
@@ -2451,7 +2454,7 @@
         <v>1090288.1746699999</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="41" t="s">
         <v>9</v>
       </c>
@@ -2463,7 +2466,7 @@
         <v>400000</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>80</v>
       </c>
@@ -2476,10 +2479,10 @@
       </c>
       <c r="D22" s="44"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B24" s="52"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="41" t="s">
         <v>88</v>
       </c>
@@ -2493,17 +2496,20 @@
         <v>382823.99999999994</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B26" s="53"/>
       <c r="C26" s="47"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C28"/>
       <c r="D28"/>
       <c r="E28"/>
       <c r="F28"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G28" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D29" s="46"/>
     </row>
   </sheetData>
@@ -2521,7 +2527,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2976,8 +2982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A82A2359-E2A1-427E-8CA6-7C7CC9CE7402}">
   <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/Traderes_data.xlsx
+++ b/data/Traderes_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\toolbox-amiris-emlab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8B7F763-217F-499A-B99C-8731901BDC12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9BCD11B-CDEC-471E-87B9-01FA467861E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="785" activeTab="3" xr2:uid="{9A6D5CBA-73A9-44EC-81CD-5563DD7C030A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="785" activeTab="4" xr2:uid="{9A6D5CBA-73A9-44EC-81CD-5563DD7C030A}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="12" r:id="rId1"/>
@@ -26,8 +26,8 @@
     <sheet name="sources" sheetId="10" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">fixedCosts!$A$1:$D$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">investmentCosts!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">fixedCosts!$A$1:$B$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">investmentCosts!$A$1:$B$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">lifetime_technical!$A$1:$D$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">techspecs!$A$1:$G$1</definedName>
   </definedNames>
@@ -355,7 +355,7 @@
     <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -457,12 +457,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri Light"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri Light"/>
       <scheme val="major"/>
     </font>
@@ -578,7 +572,7 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -635,24 +629,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="11" fillId="6" borderId="1" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="11" fillId="6" borderId="1" xfId="5" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
@@ -662,7 +650,7 @@
     <xf numFmtId="1" fontId="11" fillId="6" borderId="1" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="11" fillId="6" borderId="0" xfId="5" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="5"/>
     <xf numFmtId="2" fontId="11" fillId="6" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
@@ -2182,339 +2170,338 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D7D7B62-0359-4414-8FD2-B8EA37D25C57}">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.140625" style="1" customWidth="1"/>
-    <col min="2" max="3" width="31.140625" style="46" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" style="48" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="20.85546875" style="47" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="43">
+      <c r="B1" s="44">
+        <v>2050</v>
+      </c>
+      <c r="H1" s="43">
         <v>2020</v>
       </c>
-      <c r="C1" s="43">
+      <c r="I1" s="43">
         <v>2030</v>
       </c>
-      <c r="D1" s="44">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="45">
+      <c r="B2" s="45">
+        <v>2400000</v>
+      </c>
+      <c r="H2" s="49"/>
+      <c r="I2" s="45">
         <v>3030612</v>
       </c>
-      <c r="D2" s="45">
-        <v>2400000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="50">
+      <c r="B3" s="36">
+        <v>850698.174</v>
+      </c>
+      <c r="H3" s="49">
         <f xml:space="preserve"> 0.935767992*1000000</f>
         <v>935767.99200000009</v>
       </c>
-      <c r="C3" s="36">
+      <c r="I3" s="36">
         <v>882599.35600000003</v>
       </c>
-      <c r="D3" s="36">
-        <v>850698.174</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="B4" s="50">
+      <c r="B4" s="43"/>
+      <c r="H4" s="49">
         <v>1390000</v>
       </c>
-      <c r="C4" s="10">
+      <c r="I4" s="10">
         <v>1280000</v>
       </c>
-      <c r="D4" s="43"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="B5" s="50"/>
-      <c r="C5" s="36">
+      <c r="B5" s="43"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="36">
         <v>3845510</v>
       </c>
-      <c r="D5" s="43"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="36">
+      <c r="B6" s="36">
+        <f>ROUND(2685000*1.002*1.016*1.018*1.014*1.007,0)</f>
+        <v>2841325</v>
+      </c>
+      <c r="H6" s="49"/>
+      <c r="I6" s="36">
         <f>ROUND(2690000*1.002*1.016*1.018*1.014*1.007,0)</f>
         <v>2846616</v>
       </c>
-      <c r="D6" s="36">
-        <f>ROUND(2685000*1.002*1.016*1.018*1.014*1.007,0)</f>
-        <v>2841325</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="50"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44">
+      <c r="B7" s="44">
         <v>730000</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H7" s="49"/>
+      <c r="I7" s="44"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="41" t="s">
         <v>87</v>
       </c>
       <c r="B8" s="36">
+        <v>435982.81438000005</v>
+      </c>
+      <c r="H8" s="36">
         <v>478517.72310000006</v>
       </c>
-      <c r="C8" s="36">
+      <c r="I8" s="36">
         <v>467883.99592000007</v>
       </c>
-      <c r="D8" s="36">
-        <v>435982.81438000005</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="41" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="36">
+        <v>850698.174</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H9" s="36">
         <f xml:space="preserve"> 0.935767992*1000000</f>
         <v>935767.99200000009</v>
       </c>
-      <c r="C9" s="36">
+      <c r="I9" s="36">
         <v>882599.35600000003</v>
       </c>
-      <c r="D9" s="36">
-        <v>850698.174</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="B10" s="50"/>
-      <c r="C10" s="36">
+      <c r="B10" s="36">
+        <f>ROUND(2970000*1.002*1.016*1.018*1.014*1.007,0)</f>
+        <v>3142918</v>
+      </c>
+      <c r="H10" s="49"/>
+      <c r="I10" s="36">
         <f>ROUND(2990000*1.002*1.016*1.018*1.014*1.007,0)</f>
         <v>3164083</v>
       </c>
-      <c r="D10" s="36">
-        <f>ROUND(2970000*1.002*1.016*1.018*1.014*1.007,0)</f>
-        <v>3142918</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="B11" s="50"/>
-      <c r="C11" s="36">
+      <c r="B11" s="43"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="36">
         <v>3845510</v>
       </c>
-      <c r="D11" s="43"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="36">
+      <c r="B12" s="59">
+        <v>223313.99999999997</v>
+      </c>
+      <c r="H12" s="36">
         <v>780535.59999999986</v>
       </c>
-      <c r="C12" s="61">
+      <c r="I12" s="59">
         <v>472149.59999999992</v>
       </c>
-      <c r="D12" s="61">
-        <v>223313.99999999997</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="50"/>
-      <c r="C13" s="36">
-        <f>D13</f>
+      <c r="B13" s="36">
         <v>7940450</v>
       </c>
-      <c r="D13" s="36">
+      <c r="H13" s="49"/>
+      <c r="I13" s="36">
+        <f>B13</f>
         <v>7940450</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="50"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44">
+      <c r="B14" s="44">
         <v>412000</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H14" s="49"/>
+      <c r="I14" s="44"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="50"/>
-      <c r="C15" s="36">
+      <c r="B15" s="44"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="36">
         <v>343000</v>
       </c>
-      <c r="D15" s="44"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="B16" s="50"/>
-      <c r="C16" s="45">
+      <c r="B16" s="45">
+        <f>ROUND(2685000*1.002*1.016*1.018*1.014*1.007,0)+600000</f>
+        <v>3441325</v>
+      </c>
+      <c r="H16" s="49"/>
+      <c r="I16" s="45">
         <f>ROUND(2690000*1.002*1.016*1.018*1.014*1.007,0)+600000</f>
         <v>3446616</v>
       </c>
-      <c r="D16" s="45">
-        <f>ROUND(2685000*1.002*1.016*1.018*1.014*1.007,0)+600000</f>
-        <v>3441325</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="50"/>
-      <c r="C17" s="36">
+      <c r="B17" s="36">
+        <v>290000</v>
+      </c>
+      <c r="H17" s="49"/>
+      <c r="I17" s="36">
         <f>ROUND(580000*0.95/1.092/1.029,0)</f>
         <v>490358</v>
       </c>
-      <c r="D17" s="36">
-        <v>290000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="50"/>
-      <c r="C18" s="36">
+      <c r="B18" s="36">
+        <v>640000</v>
+      </c>
+      <c r="H18" s="49"/>
+      <c r="I18" s="36">
         <v>840000</v>
       </c>
-      <c r="D18" s="36">
-        <v>640000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="36">
+        <v>1640000</v>
+      </c>
+      <c r="H19">
         <v>2120000</v>
       </c>
-      <c r="C19" s="36">
+      <c r="I19" s="36">
         <v>1800000</v>
       </c>
-      <c r="D19" s="36">
-        <v>1640000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="58">
+      <c r="B20" s="18">
+        <v>1090288.1746699999</v>
+      </c>
+      <c r="H20" s="56">
         <v>1105513.87329</v>
       </c>
-      <c r="C20" s="58">
+      <c r="I20" s="56">
         <v>1146644.8996600001</v>
       </c>
-      <c r="D20" s="18">
-        <v>1090288.1746699999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="50"/>
-      <c r="C21" s="45">
+      <c r="B21" s="45">
+        <v>400000</v>
+      </c>
+      <c r="H21" s="49"/>
+      <c r="I21" s="45">
         <v>650000</v>
       </c>
-      <c r="D21" s="45">
-        <v>400000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B22" s="51">
+      <c r="B22" s="44"/>
+      <c r="H22" s="50">
         <v>50000</v>
       </c>
-      <c r="C22" s="43">
-        <f>B22</f>
+      <c r="I22" s="43">
+        <f>H22</f>
         <v>50000</v>
       </c>
-      <c r="D22" s="44"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="52"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H23" s="46"/>
+      <c r="I23" s="46"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H24" s="51"/>
+      <c r="I24" s="46"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="B25" s="57">
+      <c r="B25" s="55">
+        <v>382823.99999999994</v>
+      </c>
+      <c r="H25" s="55">
         <v>1273953.1999999997</v>
       </c>
-      <c r="C25" s="57">
+      <c r="I25" s="55">
         <v>774155.19999999984</v>
       </c>
-      <c r="D25" s="57">
-        <v>382823.99999999994</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="53"/>
-      <c r="C26" s="47"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B28"/>
       <c r="C28"/>
       <c r="D28"/>
-      <c r="E28"/>
-      <c r="F28"/>
-      <c r="G28" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D29" s="46"/>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="46"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D1" xr:uid="{5D7D7B62-0359-4414-8FD2-B8EA37D25C57}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D20">
+  <autoFilter ref="A1:B1" xr:uid="{5D7D7B62-0359-4414-8FD2-B8EA37D25C57}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B20">
       <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>
@@ -2524,298 +2511,309 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCB4739B-0110-4D61-9D8D-66A005DA91D1}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="23.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="23.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B1" s="43">
+        <v>2050</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1" s="43">
         <v>2020</v>
       </c>
-      <c r="C1" s="43">
+      <c r="H1" s="43">
         <v>2030</v>
       </c>
-      <c r="D1" s="43">
-        <v>2050</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="36">
+      <c r="B2" s="36">
+        <v>61676</v>
+      </c>
+      <c r="G2" s="43"/>
+      <c r="H2" s="36">
         <v>66992</v>
       </c>
-      <c r="D2" s="36">
-        <v>61676</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="36">
+      <c r="B3" s="36">
+        <v>27647.69067</v>
+      </c>
+      <c r="G3" s="49"/>
+      <c r="H3" s="36">
         <v>29561.761559999999</v>
       </c>
-      <c r="D3" s="36">
-        <v>27647.69067</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="B4" s="50"/>
-      <c r="C4" s="43">
+      <c r="B4" s="43">
         <v>32000</v>
       </c>
-      <c r="D4" s="10"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="49"/>
+      <c r="H4" s="43">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="B5" s="55"/>
-      <c r="C5" s="36">
+      <c r="B5" s="36">
         <v>61528.160000000003</v>
       </c>
-      <c r="D5" s="36"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="53"/>
+      <c r="H5" s="36">
+        <v>61528.160000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="36">
+      <c r="B6" s="36">
+        <f>ROUND(13425*1.002*1.016*1.018*1.014*1.007,0)</f>
+        <v>14207</v>
+      </c>
+      <c r="G6" s="43"/>
+      <c r="H6" s="36">
         <f>ROUND(13450*1.002*1.016*1.018*1.014*1.007,0)</f>
         <v>14233</v>
       </c>
-      <c r="D6" s="36">
-        <f>ROUND(13425*1.002*1.016*1.018*1.014*1.007,0)</f>
-        <v>14207</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43">
+      <c r="B7" s="43">
         <v>30000</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B8" s="56">
+      <c r="B8" s="54">
+        <v>7892.9478017180809</v>
+      </c>
+      <c r="G8" s="54">
         <v>8579.2910888240003</v>
       </c>
-      <c r="C8" s="56">
+      <c r="H8" s="54">
         <v>8236.1194452710406</v>
       </c>
-      <c r="D8" s="56">
-        <v>7892.9478017180809</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="43"/>
-      <c r="C9" s="36">
+      <c r="B9" s="36">
+        <v>27647</v>
+      </c>
+      <c r="G9" s="43"/>
+      <c r="H9" s="36">
         <v>29561</v>
       </c>
-      <c r="D9" s="36">
-        <v>27647</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="B10" s="50"/>
-      <c r="C10" s="36">
+      <c r="B10" s="36">
+        <f>ROUND(14850*1.002*1.016*1.018*1.014*1.007,0)</f>
+        <v>15715</v>
+      </c>
+      <c r="G10" s="49"/>
+      <c r="H10" s="36">
         <f>ROUND(14950*1.002*1.016*1.018*1.014*1.007,0)</f>
         <v>15820</v>
       </c>
-      <c r="D10" s="36">
-        <f>ROUND(14850*1.002*1.016*1.018*1.014*1.007,0)</f>
-        <v>15715</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="B11" s="55"/>
-      <c r="C11" s="36">
+      <c r="B11" s="36">
+        <f>H11</f>
         <v>61528.160000000003</v>
       </c>
-      <c r="D11" s="36"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" s="53"/>
+      <c r="H11" s="36">
+        <v>61528.160000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="43"/>
-      <c r="C12" s="36">
+      <c r="B12" s="36">
         <v>570</v>
       </c>
-      <c r="D12" s="36">
+      <c r="G12" s="43"/>
+      <c r="H12" s="36">
         <v>570</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="43"/>
-      <c r="C13" s="36">
-        <f>D13</f>
+      <c r="B13" s="36">
         <v>111166.3</v>
       </c>
-      <c r="D13" s="36">
+      <c r="G13" s="43"/>
+      <c r="H13" s="36">
+        <f>B13</f>
         <v>111166.3</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="43"/>
-      <c r="C14" s="43">
+      <c r="B14" s="43">
         <v>7423</v>
       </c>
-      <c r="D14" s="43"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14" s="43"/>
+      <c r="H14" s="43">
+        <v>7423</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="55"/>
-      <c r="C15" s="36">
+      <c r="B15" s="36">
         <v>8815.1</v>
       </c>
-      <c r="D15" s="36"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15" s="53"/>
+      <c r="H15" s="36">
+        <v>8815.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="B16" s="55"/>
-      <c r="C16" s="36">
+      <c r="B16" s="36">
+        <f>ROUND(14850*1.002*1.016*1.018*1.014*1.007,0)+8507</f>
+        <v>24222</v>
+      </c>
+      <c r="G16" s="53"/>
+      <c r="H16" s="36">
         <f>ROUND(14950*1.002*1.016*1.018*1.014*1.007,0)+8507</f>
         <v>24327</v>
       </c>
-      <c r="D16" s="36">
-        <f>ROUND(14850*1.002*1.016*1.018*1.014*1.007,0)+8507</f>
-        <v>24222</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="43"/>
-      <c r="C17" s="36">
+      <c r="B17" s="36">
+        <v>7400</v>
+      </c>
+      <c r="G17" s="43"/>
+      <c r="H17" s="36">
         <v>9500</v>
       </c>
-      <c r="D17" s="36">
-        <v>7400</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="43"/>
-      <c r="C18" s="36">
+      <c r="B18" s="36">
+        <v>8900</v>
+      </c>
+      <c r="G18" s="43"/>
+      <c r="H18" s="36">
         <v>10700</v>
       </c>
-      <c r="D18" s="36">
-        <v>8900</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="62">
+      <c r="B19" s="36">
+        <v>33000</v>
+      </c>
+      <c r="G19" s="60">
         <v>50000</v>
       </c>
-      <c r="C19" s="36">
+      <c r="H19" s="36">
         <v>39000</v>
       </c>
-      <c r="D19" s="36">
-        <v>33000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="60">
+      <c r="B20" s="59">
+        <v>12058.65</v>
+      </c>
+      <c r="D20" s="58">
+        <v>16662.667964091612</v>
+      </c>
+      <c r="E20" s="58">
+        <v>15602.06928231802</v>
+      </c>
+      <c r="G20" s="58">
         <v>16396.952973721294</v>
       </c>
-      <c r="C20" s="61">
+      <c r="H20" s="59">
         <v>13398.5</v>
       </c>
-      <c r="D20" s="61">
-        <v>12058.65</v>
-      </c>
-      <c r="F20" s="60">
-        <v>16662.667964091612</v>
-      </c>
-      <c r="G20" s="60">
-        <v>15602.06928231802</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="43"/>
-      <c r="C21" s="36">
+      <c r="B21" s="36">
+        <v>28000.000000000004</v>
+      </c>
+      <c r="G21" s="43"/>
+      <c r="H21" s="36">
         <v>45500.000000000007</v>
       </c>
-      <c r="D21" s="36">
-        <v>28000.000000000004</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B22" s="43"/>
-      <c r="C22" s="43">
+      <c r="B22" s="43">
         <v>1700</v>
       </c>
-      <c r="D22" s="43">
+      <c r="G22" s="43"/>
+      <c r="H22" s="43">
         <v>1700</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D1" xr:uid="{DCB4739B-0110-4D61-9D8D-66A005DA91D1}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D21">
+  <autoFilter ref="A1:B1" xr:uid="{DCB4739B-0110-4D61-9D8D-66A005DA91D1}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B21">
       <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>
@@ -3102,10 +3100,10 @@
         <v>87</v>
       </c>
       <c r="B8" s="5"/>
-      <c r="C8" s="49">
+      <c r="C8" s="48">
         <v>25</v>
       </c>
-      <c r="D8" s="49">
+      <c r="D8" s="48">
         <v>25</v>
       </c>
       <c r="E8" s="41"/>
@@ -3117,10 +3115,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="5"/>
-      <c r="C9" s="49">
+      <c r="C9" s="48">
         <v>25</v>
       </c>
-      <c r="D9" s="49">
+      <c r="D9" s="48">
         <v>25</v>
       </c>
       <c r="E9" s="41"/>
@@ -3161,13 +3159,13 @@
       <c r="A12" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="59">
+      <c r="B12" s="57">
         <v>20</v>
       </c>
-      <c r="C12" s="59">
+      <c r="C12" s="57">
         <v>25</v>
       </c>
-      <c r="D12" s="59">
+      <c r="D12" s="57">
         <v>30</v>
       </c>
       <c r="E12" s="41"/>
@@ -3268,13 +3266,13 @@
       <c r="A19" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="49">
+      <c r="B19" s="48">
         <v>27</v>
       </c>
-      <c r="C19" s="49">
+      <c r="C19" s="48">
         <v>30</v>
       </c>
-      <c r="D19" s="49">
+      <c r="D19" s="48">
         <v>30</v>
       </c>
       <c r="E19" s="41"/>
@@ -3285,13 +3283,13 @@
       <c r="A20" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="49">
+      <c r="B20" s="48">
         <v>27</v>
       </c>
-      <c r="C20" s="49">
+      <c r="C20" s="48">
         <v>30</v>
       </c>
-      <c r="D20" s="49">
+      <c r="D20" s="48">
         <v>30</v>
       </c>
       <c r="E20" s="41"/>
@@ -3433,22 +3431,22 @@
       <c r="A1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="54" t="s">
+      <c r="D1" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="54" t="s">
+      <c r="E1" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="54" t="s">
+      <c r="F1" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="54" t="s">
+      <c r="G1" s="52" t="s">
         <v>22</v>
       </c>
       <c r="H1" s="1" t="s">

--- a/data/Traderes_data.xlsx
+++ b/data/Traderes_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\toolbox-amiris-emlab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9BCD11B-CDEC-471E-87B9-01FA467861E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{967A073E-5582-485D-B81B-9BC88E97E059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="785" activeTab="4" xr2:uid="{9A6D5CBA-73A9-44EC-81CD-5563DD7C030A}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="785" activeTab="3" xr2:uid="{9A6D5CBA-73A9-44EC-81CD-5563DD7C030A}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="12" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="93">
   <si>
     <t>OCGT</t>
   </si>
@@ -94,9 +94,6 @@
     <t>Lithium ion battery</t>
   </si>
   <si>
-    <t>hydrogen turbine</t>
-  </si>
-  <si>
     <t>hydrogen CHP</t>
   </si>
   <si>
@@ -344,6 +341,15 @@
   </si>
   <si>
     <t>talking</t>
+  </si>
+  <si>
+    <t>BIOMASSRETRO CCS  (retrofit) CAPEX (500 €/kW); FIX O&amp;M(74,8€/kW); VAR O&amp;M(2,8€/MWh); Efficiency (0,3) (Source: Aurora, 2021 Zero-Carbon Dutch power System report)</t>
+  </si>
+  <si>
+    <t>BIOMASS CCS (new)  CAPEX (3840 €/kW); FIX O&amp;M(33,5€/kW); VAR O&amp;M(2,3€/MWh); Efficiency (0,48) (Source: Tsiropoulos I, Tarvydas, D, Zucker, A, (2018). Cost development of low carbon energy technologies)</t>
+  </si>
+  <si>
+    <t>hydrogen CCGT</t>
   </si>
 </sst>
 </file>
@@ -355,7 +361,7 @@
     <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -376,13 +382,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -445,6 +444,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri Light"/>
+      <family val="2"/>
       <scheme val="major"/>
     </font>
     <font>
@@ -458,6 +458,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri Light"/>
+      <family val="2"/>
       <scheme val="major"/>
     </font>
     <font>
@@ -465,13 +466,6 @@
       <color theme="1"/>
       <name val="Segoe UI"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -566,61 +560,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="0" xfId="3" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="11" fillId="6" borderId="1" xfId="5" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="11" fillId="6" borderId="0" xfId="5" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="11" fillId="6" borderId="1" xfId="5" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="5" applyBorder="1"/>
+    <xf numFmtId="2" fontId="10" fillId="6" borderId="1" xfId="5" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="10" fillId="6" borderId="0" xfId="5" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="10" fillId="6" borderId="1" xfId="5" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="6" borderId="1" xfId="5" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="10" fillId="6" borderId="1" xfId="5" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -629,36 +622,38 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="11" fillId="6" borderId="1" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="10" fillId="6" borderId="1" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="11" fillId="6" borderId="1" xfId="5" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="6" borderId="1" xfId="5" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="11" fillId="6" borderId="1" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="10" fillId="6" borderId="1" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="11" fillId="6" borderId="0" xfId="5" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="5"/>
-    <xf numFmtId="2" fontId="11" fillId="6" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="10" fillId="6" borderId="0" xfId="5" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="5"/>
+    <xf numFmtId="2" fontId="10" fillId="6" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="5" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1104,22 +1099,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1147,323 +1142,323 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C1" s="11" t="s">
+      <c r="A1" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>62</v>
       </c>
+      <c r="D1" s="10" t="s">
+        <v>61</v>
+      </c>
       <c r="F1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G1" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="K1" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="M1" s="23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="19">
+        <v>2019</v>
+      </c>
+      <c r="B2" s="11">
+        <v>290.54545454545456</v>
+      </c>
+      <c r="C2" s="11">
+        <v>1821.6363636363637</v>
+      </c>
+      <c r="D2" s="11">
+        <v>1724.3181818181799</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="22">
+        <v>2019</v>
+      </c>
+      <c r="I2" s="10">
+        <v>4236</v>
+      </c>
+      <c r="J2" s="10">
+        <v>962</v>
+      </c>
+      <c r="K2" s="10">
+        <v>6789</v>
+      </c>
+      <c r="M2" t="s">
         <v>57</v>
       </c>
-      <c r="H1" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="I1" s="25" t="s">
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="10">
+        <v>2020</v>
+      </c>
+      <c r="B3" s="11">
+        <v>290.54545454545456</v>
+      </c>
+      <c r="C3" s="11">
+        <v>1821.6363636363637</v>
+      </c>
+      <c r="D3" s="11">
+        <v>1724.3181818181818</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="22">
+        <v>2030</v>
+      </c>
+      <c r="I3" s="10">
+        <v>7432</v>
+      </c>
+      <c r="J3" s="10">
+        <v>21000</v>
+      </c>
+      <c r="K3" s="9">
+        <v>25756.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="19">
+        <v>2021</v>
+      </c>
+      <c r="B4" s="11">
+        <v>290.54545454545456</v>
+      </c>
+      <c r="C4" s="11">
+        <v>1821.6363636363637</v>
+      </c>
+      <c r="D4" s="11">
+        <v>1724.3181818181818</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="22">
+        <v>2050</v>
+      </c>
+      <c r="I4" s="10">
+        <v>12000</v>
+      </c>
+      <c r="J4" s="10">
+        <v>70000</v>
+      </c>
+      <c r="K4" s="10">
+        <v>91733</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
+        <v>2022</v>
+      </c>
+      <c r="B5" s="11">
+        <v>290.54545454545456</v>
+      </c>
+      <c r="C5" s="11">
+        <v>1821.6363636363637</v>
+      </c>
+      <c r="D5" s="11">
+        <v>1724.3181818181818</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="19">
+        <v>2023</v>
+      </c>
+      <c r="B6" s="11">
+        <v>290.54545454545456</v>
+      </c>
+      <c r="C6" s="11">
+        <v>1821.6363636363637</v>
+      </c>
+      <c r="D6" s="11">
+        <v>1724.3181818181818</v>
+      </c>
+      <c r="H6" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="I6" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="K1" s="25" t="s">
+      <c r="J6" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="M1" s="24" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="20">
-        <v>2019</v>
-      </c>
-      <c r="B2" s="12">
+      <c r="K6" s="21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <v>2024</v>
+      </c>
+      <c r="B7" s="11">
         <v>290.54545454545456</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C7" s="11">
         <v>1821.6363636363637</v>
       </c>
-      <c r="D2" s="12">
-        <v>1724.3181818181799</v>
-      </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="23">
-        <v>2019</v>
-      </c>
-      <c r="I2" s="11">
-        <v>4236</v>
-      </c>
-      <c r="J2" s="11">
-        <v>962</v>
-      </c>
-      <c r="K2" s="11">
-        <v>6789</v>
-      </c>
-      <c r="M2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
-        <v>2020</v>
-      </c>
-      <c r="B3" s="12">
+      <c r="D7" s="11">
+        <v>1724.3181818181818</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="I7" s="6">
+        <v>290.54545454545502</v>
+      </c>
+      <c r="J7" s="6">
+        <v>1821.6363636363637</v>
+      </c>
+      <c r="K7" s="6">
+        <v>1724.3181818181818</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="19">
+        <v>2025</v>
+      </c>
+      <c r="B8" s="11">
         <v>290.54545454545456</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C8" s="11">
         <v>1821.6363636363637</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D8" s="11">
         <v>1724.3181818181818</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="23">
+      <c r="H8" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="I8" s="6">
+        <v>228.4</v>
+      </c>
+      <c r="J8" s="6">
+        <v>2450</v>
+      </c>
+      <c r="K8" s="6">
+        <v>3298.8249999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>2026</v>
+      </c>
+      <c r="B9" s="11">
+        <v>290.54545454545456</v>
+      </c>
+      <c r="C9" s="11">
+        <v>1821.6363636363637</v>
+      </c>
+      <c r="D9" s="11">
+        <v>1724.3181818181818</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="I9" s="6">
+        <v>250.45161290322579</v>
+      </c>
+      <c r="J9" s="6">
+        <v>2227.0322580645161</v>
+      </c>
+      <c r="K9" s="6">
+        <v>2740.1290322580644</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="19">
+        <v>2027</v>
+      </c>
+      <c r="B10" s="11">
+        <v>290.54545454545456</v>
+      </c>
+      <c r="C10" s="11">
+        <v>1821.6363636363637</v>
+      </c>
+      <c r="D10" s="11">
+        <v>1724.3181818181818</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
+        <v>2028</v>
+      </c>
+      <c r="B11" s="11">
+        <v>290.54545454545456</v>
+      </c>
+      <c r="C11" s="11">
+        <v>1821.6363636363637</v>
+      </c>
+      <c r="D11" s="11">
+        <v>1724.3181818181818</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
+        <v>2029</v>
+      </c>
+      <c r="B12" s="11">
+        <v>290.54545454545456</v>
+      </c>
+      <c r="C12" s="11">
+        <v>1821.6363636363637</v>
+      </c>
+      <c r="D12" s="11">
+        <v>1724.3181818181818</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="19">
         <v>2030</v>
       </c>
-      <c r="I3" s="11">
-        <v>7432</v>
-      </c>
-      <c r="J3" s="11">
-        <v>21000</v>
-      </c>
-      <c r="K3" s="10">
-        <v>25756.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="20">
-        <v>2021</v>
-      </c>
-      <c r="B4" s="12">
-        <v>290.54545454545456</v>
-      </c>
-      <c r="C4" s="12">
-        <v>1821.6363636363637</v>
-      </c>
-      <c r="D4" s="12">
-        <v>1724.3181818181818</v>
-      </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="23">
-        <v>2050</v>
-      </c>
-      <c r="I4" s="11">
-        <v>12000</v>
-      </c>
-      <c r="J4" s="11">
-        <v>70000</v>
-      </c>
-      <c r="K4" s="11">
-        <v>91733</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
-        <v>2022</v>
-      </c>
-      <c r="B5" s="12">
-        <v>290.54545454545456</v>
-      </c>
-      <c r="C5" s="12">
-        <v>1821.6363636363637</v>
-      </c>
-      <c r="D5" s="12">
-        <v>1724.3181818181818</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="20">
-        <v>2023</v>
-      </c>
-      <c r="B6" s="12">
-        <v>290.54545454545456</v>
-      </c>
-      <c r="C6" s="12">
-        <v>1821.6363636363637</v>
-      </c>
-      <c r="D6" s="12">
-        <v>1724.3181818181818</v>
-      </c>
-      <c r="H6" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="I6" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="J6" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="K6" s="22" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
-        <v>2024</v>
-      </c>
-      <c r="B7" s="12">
-        <v>290.54545454545456</v>
-      </c>
-      <c r="C7" s="12">
-        <v>1821.6363636363637</v>
-      </c>
-      <c r="D7" s="12">
-        <v>1724.3181818181818</v>
-      </c>
-      <c r="H7" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="I7" s="7">
-        <v>290.54545454545502</v>
-      </c>
-      <c r="J7" s="7">
-        <v>1821.6363636363637</v>
-      </c>
-      <c r="K7" s="7">
-        <v>1724.3181818181818</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="20">
-        <v>2025</v>
-      </c>
-      <c r="B8" s="12">
-        <v>290.54545454545456</v>
-      </c>
-      <c r="C8" s="12">
-        <v>1821.6363636363637</v>
-      </c>
-      <c r="D8" s="12">
-        <v>1724.3181818181818</v>
-      </c>
-      <c r="H8" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="I8" s="7">
+      <c r="B13" s="11">
         <v>228.4</v>
       </c>
-      <c r="J8" s="7">
+      <c r="C13" s="11">
         <v>2450</v>
       </c>
-      <c r="K8" s="7">
+      <c r="D13" s="11">
         <v>3298.8249999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
-        <v>2026</v>
-      </c>
-      <c r="B9" s="12">
-        <v>290.54545454545456</v>
-      </c>
-      <c r="C9" s="12">
-        <v>1821.6363636363637</v>
-      </c>
-      <c r="D9" s="12">
-        <v>1724.3181818181818</v>
-      </c>
-      <c r="H9" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="I9" s="7">
-        <v>250.45161290322579</v>
-      </c>
-      <c r="J9" s="7">
-        <v>2227.0322580645161</v>
-      </c>
-      <c r="K9" s="7">
-        <v>2740.1290322580644</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="20">
-        <v>2027</v>
-      </c>
-      <c r="B10" s="12">
-        <v>290.54545454545456</v>
-      </c>
-      <c r="C10" s="12">
-        <v>1821.6363636363637</v>
-      </c>
-      <c r="D10" s="12">
-        <v>1724.3181818181818</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="11">
-        <v>2028</v>
-      </c>
-      <c r="B11" s="12">
-        <v>290.54545454545456</v>
-      </c>
-      <c r="C11" s="12">
-        <v>1821.6363636363637</v>
-      </c>
-      <c r="D11" s="12">
-        <v>1724.3181818181818</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="11">
-        <v>2029</v>
-      </c>
-      <c r="B12" s="12">
-        <v>290.54545454545456</v>
-      </c>
-      <c r="C12" s="12">
-        <v>1821.6363636363637</v>
-      </c>
-      <c r="D12" s="12">
-        <v>1724.3181818181818</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="20">
-        <v>2030</v>
-      </c>
-      <c r="B13" s="12">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="19">
+        <v>2031</v>
+      </c>
+      <c r="B14" s="11">
         <v>228.4</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C14" s="11">
         <v>2450</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D14" s="11">
         <v>3298.8249999999998</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="20">
-        <v>2031</v>
-      </c>
-      <c r="B14" s="12">
-        <v>228.4</v>
-      </c>
-      <c r="C14" s="12">
-        <v>2450</v>
-      </c>
-      <c r="D14" s="12">
-        <v>3298.8249999999998</v>
-      </c>
-      <c r="G14" s="21"/>
+      <c r="G14" s="20"/>
       <c r="H14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J14" t="b">
         <v>1</v>
@@ -1473,24 +1468,24 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="11">
+      <c r="A15" s="10">
         <v>2032</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15" s="11">
         <v>228.4</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="11">
         <v>2450</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="11">
         <v>3298.8249999999998</v>
       </c>
-      <c r="G15" s="21"/>
+      <c r="G15" s="20"/>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J15" t="b">
         <v>1</v>
@@ -1500,266 +1495,266 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="11">
+      <c r="A16" s="10">
         <v>2033</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16" s="11">
         <v>228.4</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="11">
         <v>2450</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="11">
         <v>3298.8249999999998</v>
       </c>
       <c r="H16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J16" t="b">
         <v>1</v>
       </c>
-      <c r="K16" s="7">
+      <c r="K16" s="6">
         <v>300</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="20">
+      <c r="A17" s="19">
         <v>2034</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B17" s="11">
         <v>228.4</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="11">
         <v>2450</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="11">
         <v>3298.8249999999998</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="20">
+      <c r="A18" s="19">
         <v>2035</v>
       </c>
-      <c r="B18" s="12">
+      <c r="B18" s="11">
         <v>228.4</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="11">
         <v>2450</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="11">
         <v>3298.8249999999998</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="11">
+      <c r="A19" s="10">
         <v>2036</v>
       </c>
-      <c r="B19" s="12">
+      <c r="B19" s="11">
         <v>228.4</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="11">
         <v>2450</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="11">
         <v>3298.8249999999998</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="11">
+      <c r="A20" s="10">
         <v>2037</v>
       </c>
-      <c r="B20" s="12">
+      <c r="B20" s="11">
         <v>228.4</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="11">
         <v>2450</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="11">
         <v>3298.8249999999998</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="20">
+      <c r="A21" s="19">
         <v>2038</v>
       </c>
-      <c r="B21" s="12">
+      <c r="B21" s="11">
         <v>228.4</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21" s="11">
         <v>2450</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D21" s="11">
         <v>3298.8249999999998</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="20">
+      <c r="A22" s="19">
         <v>2039</v>
       </c>
-      <c r="B22" s="12">
+      <c r="B22" s="11">
         <v>228.4</v>
       </c>
-      <c r="C22" s="12">
+      <c r="C22" s="11">
         <v>2450</v>
       </c>
-      <c r="D22" s="12">
+      <c r="D22" s="11">
         <v>3298.8249999999998</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="11">
+      <c r="A23" s="10">
         <v>2040</v>
       </c>
-      <c r="B23" s="12">
+      <c r="B23" s="11">
         <v>228.4</v>
       </c>
-      <c r="C23" s="12">
+      <c r="C23" s="11">
         <v>2450</v>
       </c>
-      <c r="D23" s="12">
+      <c r="D23" s="11">
         <v>3298.8249999999998</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="11">
+      <c r="A24" s="10">
         <v>2041</v>
       </c>
-      <c r="B24" s="12">
+      <c r="B24" s="11">
         <v>228.4</v>
       </c>
-      <c r="C24" s="12">
+      <c r="C24" s="11">
         <v>2450</v>
       </c>
-      <c r="D24" s="12">
+      <c r="D24" s="11">
         <v>3298.8249999999998</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="20">
+      <c r="A25" s="19">
         <v>2042</v>
       </c>
-      <c r="B25" s="12">
+      <c r="B25" s="11">
         <v>228.4</v>
       </c>
-      <c r="C25" s="12">
+      <c r="C25" s="11">
         <v>2450</v>
       </c>
-      <c r="D25" s="12">
+      <c r="D25" s="11">
         <v>3298.8249999999998</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="20">
+      <c r="A26" s="19">
         <v>2043</v>
       </c>
-      <c r="B26" s="12">
+      <c r="B26" s="11">
         <v>228.4</v>
       </c>
-      <c r="C26" s="12">
+      <c r="C26" s="11">
         <v>2450</v>
       </c>
-      <c r="D26" s="12">
+      <c r="D26" s="11">
         <v>3298.8249999999998</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="11">
+      <c r="A27" s="10">
         <v>2044</v>
       </c>
-      <c r="B27" s="12">
+      <c r="B27" s="11">
         <v>228.4</v>
       </c>
-      <c r="C27" s="12">
+      <c r="C27" s="11">
         <v>2450</v>
       </c>
-      <c r="D27" s="12">
+      <c r="D27" s="11">
         <v>3298.8249999999998</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="11">
+      <c r="A28" s="10">
         <v>2045</v>
       </c>
-      <c r="B28" s="12">
+      <c r="B28" s="11">
         <v>228.4</v>
       </c>
-      <c r="C28" s="12">
+      <c r="C28" s="11">
         <v>2450</v>
       </c>
-      <c r="D28" s="12">
+      <c r="D28" s="11">
         <v>3298.8249999999998</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="20">
+      <c r="A29" s="19">
         <v>2046</v>
       </c>
-      <c r="B29" s="12">
+      <c r="B29" s="11">
         <v>228.4</v>
       </c>
-      <c r="C29" s="12">
+      <c r="C29" s="11">
         <v>2450</v>
       </c>
-      <c r="D29" s="12">
+      <c r="D29" s="11">
         <v>3298.8249999999998</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="20">
+      <c r="A30" s="19">
         <v>2047</v>
       </c>
-      <c r="B30" s="12">
+      <c r="B30" s="11">
         <v>228.4</v>
       </c>
-      <c r="C30" s="12">
+      <c r="C30" s="11">
         <v>2450</v>
       </c>
-      <c r="D30" s="12">
+      <c r="D30" s="11">
         <v>3298.8249999999998</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="11">
+      <c r="A31" s="10">
         <v>2048</v>
       </c>
-      <c r="B31" s="12">
+      <c r="B31" s="11">
         <v>228.4</v>
       </c>
-      <c r="C31" s="12">
+      <c r="C31" s="11">
         <v>2450</v>
       </c>
-      <c r="D31" s="12">
+      <c r="D31" s="11">
         <v>3298.8249999999998</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="11">
+      <c r="A32" s="10">
         <v>2049</v>
       </c>
-      <c r="B32" s="12">
+      <c r="B32" s="11">
         <v>228.4</v>
       </c>
-      <c r="C32" s="12">
+      <c r="C32" s="11">
         <v>2450</v>
       </c>
-      <c r="D32" s="12">
+      <c r="D32" s="11">
         <v>3298.8249999999998</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="20">
+      <c r="A33" s="19">
         <v>2050</v>
       </c>
-      <c r="B33" s="12">
+      <c r="B33" s="11">
         <v>228.4</v>
       </c>
-      <c r="C33" s="12">
+      <c r="C33" s="11">
         <v>2450</v>
       </c>
-      <c r="D33" s="12">
+      <c r="D33" s="11">
         <v>3298.8249999999998</v>
       </c>
     </row>
@@ -1780,12 +1775,12 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1810,120 +1805,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>48</v>
       </c>
+      <c r="B1" s="10" t="s">
+        <v>47</v>
+      </c>
       <c r="F1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="9">
         <v>42191.125290999997</v>
       </c>
-      <c r="C2" s="14"/>
+      <c r="C2" s="13"/>
     </row>
     <row r="3" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="9">
         <v>27840</v>
       </c>
-      <c r="D3" s="42" t="s">
-        <v>77</v>
+      <c r="D3" s="41" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="9">
         <v>796910.69999999984</v>
       </c>
-      <c r="C4" s="14"/>
+      <c r="C4" s="13"/>
     </row>
     <row r="5" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="C8" s="14"/>
+      <c r="A8" s="7"/>
+      <c r="C8" s="13"/>
     </row>
     <row r="9" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
     </row>
     <row r="10" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
     </row>
     <row r="11" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="14"/>
+      <c r="C11" s="13"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
     </row>
     <row r="17" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
     </row>
     <row r="18" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
     </row>
     <row r="19" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
     </row>
     <row r="20" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
     </row>
     <row r="21" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1936,7 +1931,7 @@
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1947,220 +1942,220 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>48</v>
       </c>
+      <c r="B1" s="10" t="s">
+        <v>47</v>
+      </c>
       <c r="F1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="9">
         <v>12000</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="F2" s="8">
+      <c r="C2" s="7"/>
+      <c r="F2" s="7">
         <v>43336.125918999998</v>
       </c>
       <c r="G2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="18">
+        <v>26964</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="F3" s="7">
+        <v>96145.2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="18">
+        <v>82099</v>
+      </c>
+      <c r="D4" t="s">
         <v>42</v>
       </c>
-      <c r="H2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="19">
+      <c r="F4" s="17">
+        <v>47745</v>
+      </c>
+      <c r="G4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="9">
+        <v>70000</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="F5" s="16">
+        <v>134820</v>
+      </c>
+      <c r="H5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="9">
+        <v>12040</v>
+      </c>
+      <c r="F6" s="15">
+        <v>82099</v>
+      </c>
+      <c r="G6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="9">
+        <v>2700</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" s="15">
         <v>26964</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="F3" s="8">
-        <v>96145.2</v>
-      </c>
-      <c r="G3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="19">
-        <v>82099</v>
-      </c>
-      <c r="D4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F4" s="18">
-        <v>47745</v>
-      </c>
-      <c r="G4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="10">
-        <v>70000</v>
-      </c>
-      <c r="C5" s="8"/>
-      <c r="F5" s="17">
-        <v>134820</v>
-      </c>
-      <c r="H5" t="s">
-        <v>40</v>
-      </c>
-      <c r="I5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="10">
-        <v>12040</v>
-      </c>
-      <c r="F6" s="16">
-        <v>82099</v>
-      </c>
-      <c r="G6" t="s">
-        <v>37</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="10">
-        <v>2700</v>
-      </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="F7" s="16">
-        <v>26964</v>
-      </c>
       <c r="G7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H7" s="15" t="s">
         <v>36</v>
       </c>
+      <c r="H7" s="14" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="8" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="14"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="13"/>
     </row>
     <row r="9" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-      <c r="B9" s="10"/>
-      <c r="D9" s="42" t="s">
-        <v>77</v>
+      <c r="A9" s="10"/>
+      <c r="B9" s="9"/>
+      <c r="D9" s="41" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="14"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="13"/>
     </row>
     <row r="11" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="C14" s="14"/>
+      <c r="A14" s="7"/>
+      <c r="C14" s="13"/>
     </row>
     <row r="15" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
     </row>
     <row r="16" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
     </row>
     <row r="17" spans="2:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="14"/>
+      <c r="C17" s="13"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2172,332 +2167,348 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D7D7B62-0359-4414-8FD2-B8EA37D25C57}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" style="47" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" style="46" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="44">
+      <c r="A1" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="43">
         <v>2050</v>
       </c>
-      <c r="H1" s="43">
+      <c r="H1" s="42">
         <v>2020</v>
       </c>
-      <c r="I1" s="43">
+      <c r="I1" s="42">
         <v>2030</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="45">
+      <c r="A2" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="44">
         <v>2400000</v>
       </c>
-      <c r="H2" s="49"/>
-      <c r="I2" s="45">
+      <c r="C2" s="45"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="44">
         <v>3030612</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="41" t="s">
-        <v>78</v>
-      </c>
-      <c r="B3" s="36">
+      <c r="A3" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="35">
         <v>850698.174</v>
       </c>
-      <c r="H3" s="49">
+      <c r="C3" s="45"/>
+      <c r="H3" s="48">
         <f xml:space="preserve"> 0.935767992*1000000</f>
         <v>935767.99200000009</v>
       </c>
-      <c r="I3" s="36">
+      <c r="I3" s="35">
         <v>882599.35600000003</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="41" t="s">
-        <v>76</v>
-      </c>
-      <c r="B4" s="43"/>
-      <c r="H4" s="49">
+      <c r="A4" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="42"/>
+      <c r="C4" s="45"/>
+      <c r="H4" s="48">
         <v>1390000</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="9">
         <v>1280000</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="41" t="s">
-        <v>66</v>
-      </c>
-      <c r="B5" s="43"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="36">
+      <c r="A5" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="42"/>
+      <c r="C5" s="45"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="35">
         <v>3845510</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="B6" s="36">
+      <c r="A6" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="35">
         <f>ROUND(2685000*1.002*1.016*1.018*1.014*1.007,0)</f>
         <v>2841325</v>
       </c>
-      <c r="H6" s="49"/>
-      <c r="I6" s="36">
+      <c r="C6" s="45"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="35">
         <f>ROUND(2690000*1.002*1.016*1.018*1.014*1.007,0)</f>
         <v>2846616</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="44">
+      <c r="A7" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="43">
         <v>730000</v>
       </c>
-      <c r="H7" s="49"/>
-      <c r="I7" s="44"/>
+      <c r="C7" s="45"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="43"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="41" t="s">
-        <v>87</v>
-      </c>
-      <c r="B8" s="36">
+      <c r="A8" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" s="35">
         <v>435982.81438000005</v>
       </c>
-      <c r="H8" s="36">
+      <c r="C8" s="45"/>
+      <c r="H8" s="35">
         <v>478517.72310000006</v>
       </c>
-      <c r="I8" s="36">
+      <c r="I8" s="35">
         <v>467883.99592000007</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="36">
+      <c r="A9" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="B9" s="35">
         <v>850698.174</v>
       </c>
-      <c r="C9" s="3"/>
+      <c r="C9" s="45"/>
       <c r="D9" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H9" s="36">
+        <v>73</v>
+      </c>
+      <c r="H9" s="35">
         <f xml:space="preserve"> 0.935767992*1000000</f>
         <v>935767.99200000009</v>
       </c>
-      <c r="I9" s="36">
+      <c r="I9" s="35">
         <v>882599.35600000003</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="B10" s="36">
+      <c r="A10" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="35">
         <f>ROUND(2970000*1.002*1.016*1.018*1.014*1.007,0)</f>
         <v>3142918</v>
       </c>
-      <c r="H10" s="49"/>
-      <c r="I10" s="36">
+      <c r="C10" s="45"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="35">
         <f>ROUND(2990000*1.002*1.016*1.018*1.014*1.007,0)</f>
         <v>3164083</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="41" t="s">
-        <v>67</v>
-      </c>
-      <c r="B11" s="43"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="36">
+      <c r="A11" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="42"/>
+      <c r="C11" s="45"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="35">
         <v>3845510</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="59">
-        <v>223313.99999999997</v>
-      </c>
-      <c r="H12" s="36">
-        <v>780535.59999999986</v>
-      </c>
-      <c r="I12" s="59">
-        <v>472149.59999999992</v>
+      <c r="B12" s="35">
+        <v>22000</v>
+      </c>
+      <c r="C12" s="45"/>
+      <c r="H12" s="55">
+        <v>734000</v>
+      </c>
+      <c r="I12" s="55">
+        <v>490000</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="36">
+      <c r="B13" s="35">
         <v>7940450</v>
       </c>
-      <c r="H13" s="49"/>
-      <c r="I13" s="36">
+      <c r="C13" s="45"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="35">
         <f>B13</f>
         <v>7940450</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="44">
+      <c r="A14" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="43">
         <v>412000</v>
       </c>
-      <c r="H14" s="49"/>
-      <c r="I14" s="44"/>
+      <c r="C14" s="45"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="43"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="44"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="36">
+      <c r="A15" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="43"/>
+      <c r="C15" s="45"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="35">
         <v>343000</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="41" t="s">
-        <v>71</v>
-      </c>
-      <c r="B16" s="45">
+      <c r="A16" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="44">
         <f>ROUND(2685000*1.002*1.016*1.018*1.014*1.007,0)+600000</f>
         <v>3441325</v>
       </c>
-      <c r="H16" s="49"/>
-      <c r="I16" s="45">
+      <c r="C16" s="45"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="44">
         <f>ROUND(2690000*1.002*1.016*1.018*1.014*1.007,0)+600000</f>
         <v>3446616</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="41" t="s">
+      <c r="A17" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="36">
+      <c r="B17" s="35">
         <v>290000</v>
       </c>
-      <c r="H17" s="49"/>
-      <c r="I17" s="36">
+      <c r="C17" s="45"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="35">
         <f>ROUND(580000*0.95/1.092/1.029,0)</f>
         <v>490358</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="41" t="s">
+      <c r="A18" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="36">
+      <c r="B18" s="35">
         <v>640000</v>
       </c>
-      <c r="H18" s="49"/>
-      <c r="I18" s="36">
+      <c r="C18" s="45"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="35">
         <v>840000</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="41" t="s">
+      <c r="A19" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="36">
+      <c r="B19" s="35">
         <v>1640000</v>
       </c>
+      <c r="C19" s="45"/>
       <c r="H19">
         <v>2120000</v>
       </c>
-      <c r="I19" s="36">
+      <c r="I19" s="35">
         <v>1800000</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="41" t="s">
+      <c r="A20" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="18">
+      <c r="B20" s="17">
         <v>1090288.1746699999</v>
       </c>
-      <c r="H20" s="56">
+      <c r="C20" s="45"/>
+      <c r="H20" s="54">
         <v>1105513.87329</v>
       </c>
-      <c r="I20" s="56">
+      <c r="I20" s="54">
         <v>1146644.8996600001</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" s="45">
+      <c r="A21" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="44">
         <v>400000</v>
       </c>
-      <c r="H21" s="49"/>
-      <c r="I21" s="45">
+      <c r="C21" s="45"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="44">
         <v>650000</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B22" s="44"/>
-      <c r="H22" s="50">
+        <v>79</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="45"/>
+      <c r="H22" s="49">
         <v>50000</v>
       </c>
-      <c r="I22" s="43">
+      <c r="I22" s="42">
         <f>H22</f>
         <v>50000</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H23" s="46"/>
-      <c r="I23" s="46"/>
+      <c r="A23" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B23" s="31">
+        <v>380000</v>
+      </c>
+      <c r="H23" s="55">
+        <v>1198000</v>
+      </c>
+      <c r="I23" s="55">
+        <v>728000</v>
+      </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H24" s="51"/>
-      <c r="I24" s="46"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="41" t="s">
-        <v>88</v>
-      </c>
-      <c r="B25" s="55">
-        <v>382823.99999999994</v>
-      </c>
-      <c r="H25" s="55">
-        <v>1273953.1999999997</v>
-      </c>
-      <c r="I25" s="55">
-        <v>774155.19999999984</v>
-      </c>
+      <c r="H24" s="50"/>
+      <c r="I24" s="45"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B28"/>
       <c r="C28"/>
       <c r="D28"/>
       <c r="E28" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="46"/>
+      <c r="B29" s="45"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:B1" xr:uid="{5D7D7B62-0359-4414-8FD2-B8EA37D25C57}">
@@ -2511,10 +2522,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCB4739B-0110-4D61-9D8D-66A005DA91D1}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2526,289 +2537,308 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="43">
+        <v>28</v>
+      </c>
+      <c r="B1" s="42">
         <v>2050</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G1" s="43">
+        <v>88</v>
+      </c>
+      <c r="G1" s="42">
         <v>2020</v>
       </c>
-      <c r="H1" s="43">
+      <c r="H1" s="42">
         <v>2030</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="36">
+        <v>9</v>
+      </c>
+      <c r="B2" s="35">
         <v>61676</v>
       </c>
-      <c r="G2" s="43"/>
-      <c r="H2" s="36">
+      <c r="G2" s="42"/>
+      <c r="H2" s="35">
         <v>66992</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="41" t="s">
-        <v>78</v>
-      </c>
-      <c r="B3" s="36">
+      <c r="A3" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="35">
         <v>27647.69067</v>
       </c>
-      <c r="G3" s="49"/>
-      <c r="H3" s="36">
+      <c r="G3" s="48"/>
+      <c r="H3" s="35">
         <v>29561.761559999999</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="41" t="s">
-        <v>76</v>
-      </c>
-      <c r="B4" s="43">
+      <c r="A4" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="42">
         <v>32000</v>
       </c>
-      <c r="G4" s="49"/>
-      <c r="H4" s="43">
+      <c r="G4" s="48"/>
+      <c r="H4" s="42">
         <v>32000</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="B5" s="36">
+      <c r="A5" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="35">
         <v>61528.160000000003</v>
       </c>
-      <c r="G5" s="53"/>
-      <c r="H5" s="36">
+      <c r="G5" s="52"/>
+      <c r="H5" s="35">
         <v>61528.160000000003</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B6" s="36">
+      <c r="A6" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="35">
         <f>ROUND(13425*1.002*1.016*1.018*1.014*1.007,0)</f>
         <v>14207</v>
       </c>
-      <c r="G6" s="43"/>
-      <c r="H6" s="36">
+      <c r="G6" s="42"/>
+      <c r="H6" s="35">
         <f>ROUND(13450*1.002*1.016*1.018*1.014*1.007,0)</f>
         <v>14233</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="43">
+      <c r="A7" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="42">
         <v>30000</v>
       </c>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B8" s="54">
+      <c r="A8" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" s="53">
         <v>7892.9478017180809</v>
       </c>
-      <c r="G8" s="54">
+      <c r="G8" s="53">
         <v>8579.2910888240003</v>
       </c>
-      <c r="H8" s="54">
+      <c r="H8" s="53">
         <v>8236.1194452710406</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="36">
+      <c r="A9" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="B9" s="35">
         <v>27647</v>
       </c>
-      <c r="G9" s="43"/>
-      <c r="H9" s="36">
+      <c r="G9" s="42"/>
+      <c r="H9" s="35">
         <v>29561</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="B10" s="36">
+      <c r="A10" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="35">
         <f>ROUND(14850*1.002*1.016*1.018*1.014*1.007,0)</f>
         <v>15715</v>
       </c>
-      <c r="G10" s="49"/>
-      <c r="H10" s="36">
+      <c r="G10" s="48"/>
+      <c r="H10" s="35">
         <f>ROUND(14950*1.002*1.016*1.018*1.014*1.007,0)</f>
         <v>15820</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="B11" s="36">
+      <c r="A11" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="35">
         <f>H11</f>
         <v>61528.160000000003</v>
       </c>
-      <c r="G11" s="53"/>
-      <c r="H11" s="36">
+      <c r="G11" s="52"/>
+      <c r="H11" s="35">
         <v>61528.160000000003</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="36">
+      <c r="B12" s="35">
         <v>570</v>
       </c>
-      <c r="G12" s="43"/>
-      <c r="H12" s="36">
+      <c r="G12" s="42"/>
+      <c r="H12" s="35">
         <v>570</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="36">
+      <c r="B13" s="35">
         <v>111166.3</v>
       </c>
-      <c r="G13" s="43"/>
-      <c r="H13" s="36">
+      <c r="G13" s="42"/>
+      <c r="H13" s="35">
         <f>B13</f>
         <v>111166.3</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="43">
+      <c r="A14" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="42">
         <v>7423</v>
       </c>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43">
+      <c r="G14" s="42"/>
+      <c r="H14" s="42">
         <v>7423</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="36">
+      <c r="A15" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="35">
         <v>8815.1</v>
       </c>
-      <c r="G15" s="53"/>
-      <c r="H15" s="36">
+      <c r="G15" s="52"/>
+      <c r="H15" s="35">
         <v>8815.1</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="B16" s="36">
+      <c r="A16" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="35">
         <f>ROUND(14850*1.002*1.016*1.018*1.014*1.007,0)+8507</f>
         <v>24222</v>
       </c>
-      <c r="G16" s="53"/>
-      <c r="H16" s="36">
+      <c r="G16" s="52"/>
+      <c r="H16" s="35">
         <f>ROUND(14950*1.002*1.016*1.018*1.014*1.007,0)+8507</f>
         <v>24327</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="36">
+      <c r="B17" s="35">
         <v>7400</v>
       </c>
-      <c r="G17" s="43"/>
-      <c r="H17" s="36">
+      <c r="G17" s="42"/>
+      <c r="H17" s="35">
         <v>9500</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="36">
+      <c r="B18" s="35">
         <v>8900</v>
       </c>
-      <c r="G18" s="43"/>
-      <c r="H18" s="36">
+      <c r="G18" s="42"/>
+      <c r="H18" s="35">
         <v>10700</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="36">
+      <c r="B19" s="35">
         <v>33000</v>
       </c>
-      <c r="G19" s="60">
+      <c r="G19" s="58">
         <v>50000</v>
       </c>
-      <c r="H19" s="36">
+      <c r="H19" s="35">
         <v>39000</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="59">
+      <c r="B20" s="57">
         <v>12058.65</v>
       </c>
-      <c r="D20" s="58">
+      <c r="D20" s="56">
         <v>16662.667964091612</v>
       </c>
-      <c r="E20" s="58">
+      <c r="E20" s="56">
         <v>15602.06928231802</v>
       </c>
-      <c r="G20" s="58">
+      <c r="G20" s="56">
         <v>16396.952973721294</v>
       </c>
-      <c r="H20" s="59">
+      <c r="H20" s="57">
         <v>13398.5</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" s="36">
+      <c r="A21" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="35">
         <v>28000.000000000004</v>
       </c>
-      <c r="G21" s="43"/>
-      <c r="H21" s="36">
+      <c r="G21" s="42"/>
+      <c r="H21" s="35">
         <v>45500.000000000007</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B22" s="43">
+      <c r="A22" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="B22" s="42">
         <v>1700</v>
       </c>
-      <c r="G22" s="43"/>
-      <c r="H22" s="43">
+      <c r="G22" s="42"/>
+      <c r="H22" s="42">
         <v>1700</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B23" s="45">
+        <f>B12</f>
+        <v>570</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="59" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="59" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -2833,13 +2863,13 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="21.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="28"/>
+    <col min="4" max="4" width="9.140625" style="27"/>
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B1" s="1">
         <v>2020</v>
@@ -2847,128 +2877,128 @@
       <c r="C1" s="1">
         <v>2030</v>
       </c>
-      <c r="D1" s="27">
+      <c r="D1" s="26">
         <v>2050</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="29">
+      <c r="A2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="28">
         <v>26.81</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="29">
+      <c r="A3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="28">
         <v>8.93</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="29">
+      <c r="A4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="28">
         <v>6.48</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="29">
+      <c r="A5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="28">
         <v>1.69</v>
       </c>
-      <c r="D5" s="29">
+      <c r="D5" s="28">
         <v>1.69</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="29">
+      <c r="A6" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="28">
         <v>40.68</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="29">
+      <c r="A7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="28">
         <v>74.66</v>
       </c>
-      <c r="D7" s="30">
+      <c r="D7" s="29">
         <v>50.29</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="28">
         <v>15</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="29">
+      <c r="D8" s="28">
         <v>15</v>
       </c>
-      <c r="D8" s="29">
-        <v>15</v>
-      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="30">
+        <v>74.27</v>
+      </c>
+      <c r="D9" s="28">
+        <v>45.07</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="30">
+        <v>100</v>
+      </c>
+      <c r="D10" s="28">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="31">
-        <v>74.27</v>
-      </c>
-      <c r="D9" s="29">
-        <v>45.07</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="31">
-        <v>100</v>
-      </c>
-      <c r="D10" s="29">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3">
         <v>1</v>
       </c>
-      <c r="D11" s="27">
+      <c r="D11" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="D12" s="3">
+        <v>48.579252851200003</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="B12" s="4"/>
-      <c r="D12" s="4">
-        <v>48.579252851200003</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2981,7 +3011,7 @@
   <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2992,7 +3022,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" s="2">
         <v>2020</v>
@@ -3000,408 +3030,421 @@
       <c r="C1" s="2">
         <v>2030</v>
       </c>
-      <c r="D1" s="26">
+      <c r="D1" s="25">
         <v>2050</v>
       </c>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5">
+        <v>9</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4">
         <v>25</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>25</v>
       </c>
-      <c r="E2" s="41"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
+      <c r="E2" s="40"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="41" t="s">
-        <v>78</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5">
+      <c r="A3" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4">
         <v>25</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>25</v>
       </c>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="41" t="s">
-        <v>76</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5">
+      <c r="A4" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4">
         <v>40</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>40</v>
       </c>
-      <c r="E4" s="41"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="35"/>
+      <c r="E4" s="40"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="34"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4">
+        <v>40</v>
+      </c>
+      <c r="D5" s="4">
+        <v>40</v>
+      </c>
+      <c r="E5" s="40"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="34"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4">
+        <v>60</v>
+      </c>
+      <c r="D6" s="4">
+        <v>60</v>
+      </c>
+      <c r="E6" s="40"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4">
+        <v>30</v>
+      </c>
+      <c r="D7" s="4">
+        <v>30</v>
+      </c>
+      <c r="E7" s="40"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="47">
+        <v>25</v>
+      </c>
+      <c r="D8" s="47">
+        <v>25</v>
+      </c>
+      <c r="E8" s="40"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="34"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="47">
+        <v>25</v>
+      </c>
+      <c r="D9" s="47">
+        <v>25</v>
+      </c>
+      <c r="E9" s="40"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4">
+        <v>60</v>
+      </c>
+      <c r="D10" s="4">
+        <v>60</v>
+      </c>
+      <c r="E10" s="40"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4">
         <v>40</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D11" s="4">
         <v>40</v>
       </c>
-      <c r="E5" s="41"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="35"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5">
-        <v>60</v>
-      </c>
-      <c r="D6" s="5">
-        <v>60</v>
-      </c>
-      <c r="E6" s="41"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5">
+      <c r="E11" s="40"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="55">
+        <v>20</v>
+      </c>
+      <c r="C12" s="55">
+        <v>25</v>
+      </c>
+      <c r="D12" s="55">
         <v>30</v>
       </c>
-      <c r="D7" s="5">
-        <v>30</v>
-      </c>
-      <c r="E7" s="41"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="38" t="s">
-        <v>87</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="48">
-        <v>25</v>
-      </c>
-      <c r="D8" s="48">
-        <v>25</v>
-      </c>
-      <c r="E8" s="41"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="35"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="48">
-        <v>25</v>
-      </c>
-      <c r="D9" s="48">
-        <v>25</v>
-      </c>
-      <c r="E9" s="41"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5">
-        <v>60</v>
-      </c>
-      <c r="D10" s="5">
-        <v>60</v>
-      </c>
-      <c r="E10" s="41"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5">
+      <c r="E12" s="40"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4">
         <v>40</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D13" s="4">
         <v>40</v>
       </c>
-      <c r="E11" s="41"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="57">
-        <v>20</v>
-      </c>
-      <c r="C12" s="57">
-        <v>25</v>
-      </c>
-      <c r="D12" s="57">
-        <v>30</v>
-      </c>
-      <c r="E12" s="41"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="34"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5">
-        <v>40</v>
-      </c>
-      <c r="D13" s="5">
-        <v>40</v>
-      </c>
-      <c r="E13" s="41"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
+      <c r="E13" s="40"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4">
         <v>25</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="4">
         <v>25</v>
       </c>
-      <c r="E14" s="41"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
+      <c r="E14" s="40"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5">
+      <c r="A15" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4">
         <v>25</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="4">
         <v>25</v>
       </c>
-      <c r="E15" s="41"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="34"/>
+      <c r="E15" s="40"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5">
+      <c r="A16" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4">
         <v>50</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="4">
         <v>50</v>
       </c>
-      <c r="E16" s="41"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="34"/>
+      <c r="E16" s="40"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5">
+      <c r="B17" s="4"/>
+      <c r="C17" s="4">
         <v>25</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="4">
         <v>40</v>
       </c>
-      <c r="E17" s="41"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="34"/>
+      <c r="E17" s="40"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5">
+      <c r="B18" s="4"/>
+      <c r="C18" s="4">
         <v>25</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="4">
         <v>40</v>
       </c>
-      <c r="E18" s="41"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="34"/>
+      <c r="E18" s="40"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="48">
+      <c r="B19" s="47">
         <v>27</v>
       </c>
-      <c r="C19" s="48">
+      <c r="C19" s="47">
         <v>30</v>
       </c>
-      <c r="D19" s="48">
+      <c r="D19" s="47">
         <v>30</v>
       </c>
-      <c r="E19" s="41"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="34"/>
+      <c r="E19" s="40"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="33"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="48">
+      <c r="B20" s="47">
         <v>27</v>
       </c>
-      <c r="C20" s="48">
+      <c r="C20" s="47">
         <v>30</v>
       </c>
-      <c r="D20" s="48">
+      <c r="D20" s="47">
         <v>30</v>
       </c>
-      <c r="E20" s="41"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="34"/>
+      <c r="E20" s="40"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="33"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5">
+        <v>8</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4">
         <v>25</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="4">
         <v>30</v>
       </c>
-      <c r="E21" s="41"/>
-      <c r="J21" s="34"/>
-      <c r="K21" s="34"/>
+      <c r="E21" s="40"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="33"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J22" s="34"/>
-      <c r="K22" s="34"/>
+      <c r="A22" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B22" s="55">
+        <v>20</v>
+      </c>
+      <c r="C22" s="55">
+        <v>25</v>
+      </c>
+      <c r="D22" s="55">
+        <v>30</v>
+      </c>
+      <c r="E22" s="40"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="33"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J23" s="34"/>
-      <c r="K23" s="34"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="33"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J24" s="34"/>
-      <c r="K24" s="34"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J25" s="34"/>
-      <c r="K25" s="34"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J26" s="34"/>
-      <c r="K26" s="34"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="33"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J27" s="34"/>
-      <c r="K27" s="34"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="33"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J28" s="34"/>
-      <c r="K28" s="34"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="33"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J29" s="34"/>
-      <c r="K29" s="34"/>
+      <c r="J29" s="33"/>
+      <c r="K29" s="33"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J30" s="34"/>
-      <c r="K30" s="34"/>
+      <c r="J30" s="33"/>
+      <c r="K30" s="33"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J31" s="34"/>
-      <c r="K31" s="34"/>
+      <c r="J31" s="33"/>
+      <c r="K31" s="33"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J32" s="34"/>
-      <c r="K32" s="34"/>
+      <c r="J32" s="33"/>
+      <c r="K32" s="33"/>
     </row>
     <row r="33" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J33" s="34"/>
-      <c r="K33" s="34"/>
+      <c r="J33" s="33"/>
+      <c r="K33" s="33"/>
     </row>
     <row r="34" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J34" s="34"/>
-      <c r="K34" s="34"/>
+      <c r="J34" s="33"/>
+      <c r="K34" s="33"/>
     </row>
     <row r="35" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J35" s="34"/>
-      <c r="K35" s="34"/>
+      <c r="J35" s="33"/>
+      <c r="K35" s="33"/>
     </row>
     <row r="36" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J36" s="34"/>
-      <c r="K36" s="34"/>
+      <c r="J36" s="33"/>
+      <c r="K36" s="33"/>
     </row>
     <row r="37" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J37" s="34"/>
-      <c r="K37" s="34"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="33"/>
     </row>
     <row r="38" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J38" s="34"/>
+      <c r="J38" s="33"/>
     </row>
     <row r="39" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J39" s="34"/>
+      <c r="J39" s="33"/>
     </row>
     <row r="40" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J40" s="33"/>
+      <c r="J40" s="32"/>
     </row>
     <row r="41" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J41" s="33"/>
+      <c r="J41" s="32"/>
     </row>
     <row r="42" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J42" s="33"/>
-      <c r="K42" s="33"/>
+      <c r="J42" s="32"/>
+      <c r="K42" s="32"/>
     </row>
     <row r="43" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J43" s="33"/>
-      <c r="K43" s="33"/>
+      <c r="J43" s="32"/>
+      <c r="K43" s="32"/>
     </row>
     <row r="44" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J44" s="33"/>
-      <c r="K44" s="33"/>
+      <c r="J44" s="32"/>
+      <c r="K44" s="32"/>
     </row>
     <row r="45" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J45" s="33"/>
-      <c r="K45" s="33"/>
+      <c r="J45" s="32"/>
+      <c r="K45" s="32"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D1" xr:uid="{A82A2359-E2A1-427E-8CA6-7C7CC9CE7402}">
@@ -3415,10 +3458,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40331877-1BEF-474F-BDAB-D1A166D0FBFC}">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3427,38 +3470,35 @@
     <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="B1" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="52" t="s">
+      <c r="C1" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="52" t="s">
+      <c r="D1" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="52" t="s">
+      <c r="E1" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="52" t="s">
+      <c r="F1" s="51" t="s">
         <v>22</v>
       </c>
+      <c r="G1" s="51" t="s">
+        <v>21</v>
+      </c>
       <c r="H1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="2">
         <v>2.6</v>
@@ -3482,35 +3522,35 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="B3" s="32">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="31">
         <v>4.4000000000000004</v>
       </c>
-      <c r="C3" s="32">
+      <c r="C3" s="31">
         <v>0.6</v>
       </c>
-      <c r="D3" s="32">
-        <v>0</v>
-      </c>
-      <c r="E3" s="32">
-        <v>0</v>
-      </c>
-      <c r="F3" s="32">
-        <v>0</v>
-      </c>
-      <c r="G3" s="32">
+      <c r="D3" s="31">
+        <v>0</v>
+      </c>
+      <c r="E3" s="31">
+        <v>0</v>
+      </c>
+      <c r="F3" s="31">
+        <v>0</v>
+      </c>
+      <c r="G3" s="31">
         <v>0</v>
       </c>
       <c r="H3" s="2">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="41" t="s">
-        <v>76</v>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="40" t="s">
+        <v>75</v>
       </c>
       <c r="B4" s="2">
         <v>3</v>
@@ -3534,35 +3574,35 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="B5" s="32">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="31">
         <v>3.5</v>
       </c>
-      <c r="C5" s="32">
+      <c r="C5" s="31">
         <v>0.43</v>
       </c>
-      <c r="D5" s="32">
-        <v>0</v>
-      </c>
-      <c r="E5" s="32">
-        <v>0</v>
-      </c>
-      <c r="F5" s="32">
-        <v>0</v>
-      </c>
-      <c r="G5" s="32">
+      <c r="D5" s="31">
+        <v>0</v>
+      </c>
+      <c r="E5" s="31">
+        <v>0</v>
+      </c>
+      <c r="F5" s="31">
+        <v>0</v>
+      </c>
+      <c r="G5" s="31">
         <v>0</v>
       </c>
       <c r="H5" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B6" s="2">
         <v>1</v>
@@ -3586,9 +3626,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="2">
         <v>2.7</v>
@@ -3612,61 +3652,61 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B8" s="32">
+        <v>86</v>
+      </c>
+      <c r="B8" s="31">
         <v>4.79</v>
       </c>
-      <c r="C8" s="32">
+      <c r="C8" s="31">
         <v>0.43</v>
       </c>
-      <c r="D8" s="32">
-        <v>0</v>
-      </c>
-      <c r="E8" s="32">
-        <v>0</v>
-      </c>
-      <c r="F8" s="32">
-        <v>0</v>
-      </c>
-      <c r="G8" s="32">
-        <v>0</v>
-      </c>
-      <c r="H8" s="32">
+      <c r="D8" s="31">
+        <v>0</v>
+      </c>
+      <c r="E8" s="31">
+        <v>0</v>
+      </c>
+      <c r="F8" s="31">
+        <v>0</v>
+      </c>
+      <c r="G8" s="31">
+        <v>0</v>
+      </c>
+      <c r="H8" s="31">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="32">
+        <v>92</v>
+      </c>
+      <c r="B9" s="31">
         <v>4.24</v>
       </c>
-      <c r="C9" s="32">
+      <c r="C9" s="31">
         <v>0.6</v>
       </c>
-      <c r="D9" s="32">
-        <v>0</v>
-      </c>
-      <c r="E9" s="32">
-        <v>0</v>
-      </c>
-      <c r="F9" s="32">
-        <v>0</v>
-      </c>
-      <c r="G9" s="32">
-        <v>0</v>
-      </c>
-      <c r="H9" s="32">
+      <c r="D9" s="31">
+        <v>0</v>
+      </c>
+      <c r="E9" s="31">
+        <v>0</v>
+      </c>
+      <c r="F9" s="31">
+        <v>0</v>
+      </c>
+      <c r="G9" s="31">
+        <v>0</v>
+      </c>
+      <c r="H9" s="31">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="41" t="s">
-        <v>70</v>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="40" t="s">
+        <v>69</v>
       </c>
       <c r="B10" s="2">
         <v>0</v>
@@ -3690,59 +3730,59 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="B11" s="32">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="31">
         <v>3.5</v>
       </c>
-      <c r="C11" s="32">
+      <c r="C11" s="31">
         <v>0.43</v>
       </c>
-      <c r="D11" s="32">
-        <v>0</v>
-      </c>
-      <c r="E11" s="32">
-        <v>0</v>
-      </c>
-      <c r="F11" s="32">
-        <v>0</v>
-      </c>
-      <c r="G11" s="32">
+      <c r="D11" s="31">
+        <v>0</v>
+      </c>
+      <c r="E11" s="31">
+        <v>0</v>
+      </c>
+      <c r="F11" s="31">
+        <v>0</v>
+      </c>
+      <c r="G11" s="31">
         <v>0</v>
       </c>
       <c r="H11" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="32">
+      <c r="B12" s="31">
         <v>1.8</v>
       </c>
-      <c r="C12" s="32">
+      <c r="C12" s="31">
         <v>0.92</v>
       </c>
-      <c r="D12" s="32">
+      <c r="D12" s="31">
         <v>0.92</v>
       </c>
-      <c r="E12" s="32">
+      <c r="E12" s="31">
         <v>2</v>
       </c>
-      <c r="F12" s="32">
+      <c r="F12" s="31">
         <v>0.92</v>
       </c>
-      <c r="G12" s="32">
+      <c r="G12" s="31">
         <v>0.92</v>
       </c>
       <c r="H12" s="2">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>5</v>
       </c>
@@ -3768,7 +3808,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>0</v>
       </c>
@@ -3794,35 +3834,35 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="32">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="31">
         <v>3.5</v>
       </c>
-      <c r="C15" s="32">
+      <c r="C15" s="31">
         <v>0.43</v>
       </c>
-      <c r="D15" s="32">
-        <v>0</v>
-      </c>
-      <c r="E15" s="32">
-        <v>0</v>
-      </c>
-      <c r="F15" s="32">
-        <v>0</v>
-      </c>
-      <c r="G15" s="32">
+      <c r="D15" s="31">
+        <v>0</v>
+      </c>
+      <c r="E15" s="31">
+        <v>0</v>
+      </c>
+      <c r="F15" s="31">
+        <v>0</v>
+      </c>
+      <c r="G15" s="31">
         <v>0</v>
       </c>
       <c r="H15" s="2">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>71</v>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>70</v>
       </c>
       <c r="B16" s="2">
         <v>1</v>
@@ -3928,7 +3968,7 @@
       <c r="A20" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="32">
+      <c r="B20" s="31">
         <v>2</v>
       </c>
       <c r="C20" s="2">
@@ -3952,7 +3992,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B21" s="2">
         <v>0</v>
@@ -3978,7 +4018,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B22" s="2">
         <v>1</v>
@@ -3999,6 +4039,32 @@
         <v>0</v>
       </c>
       <c r="H22" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B23" s="31">
+        <v>1.8</v>
+      </c>
+      <c r="C23" s="31">
+        <v>0.92</v>
+      </c>
+      <c r="D23" s="31">
+        <v>0.92</v>
+      </c>
+      <c r="E23" s="31">
+        <v>4</v>
+      </c>
+      <c r="F23" s="31">
+        <v>0.92</v>
+      </c>
+      <c r="G23" s="31">
+        <v>0.92</v>
+      </c>
+      <c r="H23" s="2">
         <v>25</v>
       </c>
     </row>
@@ -4027,108 +4093,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="10" t="s">
+      <c r="A1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>33</v>
       </c>
+      <c r="C1" s="9" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="13">
+      <c r="A2" s="12">
         <v>2010</v>
       </c>
-      <c r="B2" s="13">
+      <c r="B2" s="12">
         <v>14.3538679245283</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="12">
         <f t="shared" ref="C2:C10" si="0">B2</f>
         <v>14.3538679245283</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>32</v>
+        <v>34</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="13">
+      <c r="A3" s="12">
         <v>2011</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="12">
         <v>13.2143027888446</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="12">
         <f t="shared" si="0"/>
         <v>13.2143027888446</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
+      <c r="A4" s="12">
         <v>2012</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="12">
         <v>7.4974103585657303</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="12">
         <f t="shared" si="0"/>
         <v>7.4974103585657303</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="13">
+      <c r="A5" s="12">
         <v>2013</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="12">
         <v>4.9400000000000004</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="12">
         <f t="shared" si="0"/>
         <v>4.9400000000000004</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="13">
+      <c r="A6" s="12">
         <v>2014</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="12">
         <v>9.5500000000000007</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="12">
         <f t="shared" si="0"/>
         <v>9.5500000000000007</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="13">
+      <c r="A7" s="12">
         <v>2015</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="12">
         <v>18.079999999999998</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="12">
         <f t="shared" si="0"/>
         <v>18.079999999999998</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="13">
+      <c r="A8" s="12">
         <v>2016</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="12">
         <v>18.079999999999998</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="12">
         <f t="shared" si="0"/>
         <v>18.079999999999998</v>
       </c>
@@ -4138,18 +4204,18 @@
       <c r="F8">
         <v>1</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="7">
         <v>21.7845449890137</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="13">
+      <c r="A9" s="12">
         <v>2017</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="12">
         <v>18.079999999999998</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="12">
         <f t="shared" si="0"/>
         <v>18.079999999999998</v>
       </c>
@@ -4159,18 +4225,18 @@
       <c r="F9">
         <v>2</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="7">
         <v>21.732001069450401</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="13">
+      <c r="A10" s="12">
         <v>2018</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="12">
         <v>18.079999999999998</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="12">
         <f t="shared" si="0"/>
         <v>18.079999999999998</v>
       </c>
@@ -4180,154 +4246,154 @@
       <c r="F10">
         <v>3</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="7">
         <v>45.310069289016702</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="11">
+      <c r="A11" s="10">
         <v>2019</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="9">
         <v>21.7845449890137</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="11">
         <v>19.7</v>
       </c>
       <c r="F11">
         <v>4</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="7">
         <v>63.1633059127807</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="11">
+      <c r="A12" s="10">
         <v>2020</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="9">
         <v>21.732001069450401</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="11">
         <v>20.399999999999999</v>
       </c>
       <c r="F12">
         <v>5</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="7">
         <v>66.373634433746304</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="11">
+      <c r="A13" s="10">
         <v>2021</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="9">
         <v>45.310069289016702</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="11">
         <v>21.7</v>
       </c>
       <c r="F13">
         <v>6</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="7">
         <v>69.664229811859101</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="11">
+      <c r="A14" s="10">
         <v>2022</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="9">
         <v>63.1633059127807</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="11">
         <v>25.177777777777777</v>
       </c>
       <c r="F14">
         <v>7</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="7">
         <v>73.115337734985303</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="11">
+      <c r="A15" s="10">
         <v>2023</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="9">
         <v>66.373634433746304</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="11">
         <v>28.655555555555559</v>
       </c>
       <c r="F15">
         <v>8</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="7">
         <v>76.807218003845193</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="11">
+      <c r="A16" s="10">
         <v>2024</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="9">
         <v>69.664229811859101</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="11">
         <v>32.13333333333334</v>
       </c>
       <c r="F16">
         <v>9</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16" s="7">
         <v>80.659617874145496</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="11">
+      <c r="A17" s="10">
         <v>2025</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="9">
         <v>73.115337734985303</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="11">
         <v>35.611111111111114</v>
       </c>
       <c r="F17">
         <v>10</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G17" s="7">
         <v>84.672537345886198</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="11">
+      <c r="A18" s="10">
         <v>2026</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18" s="9">
         <v>76.807218003845193</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="11">
         <v>39.088888888888889</v>
       </c>
       <c r="F18">
         <v>11</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G18" s="7">
         <v>88.926222106933594</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="11">
+      <c r="A19" s="10">
         <v>2027</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19" s="9">
         <v>80.659617874145496</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="11">
         <v>42.56666666666667</v>
       </c>
       <c r="E19">
@@ -4336,171 +4402,171 @@
       <c r="F19">
         <v>12</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G19" s="7">
         <v>93.340433525848397</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="11">
+      <c r="A20" s="10">
         <v>2028</v>
       </c>
-      <c r="B20" s="10">
+      <c r="B20" s="9">
         <v>84.672537345886198</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="11">
         <v>46.044444444444451</v>
       </c>
       <c r="F20">
         <v>13</v>
       </c>
-      <c r="G20" s="8">
+      <c r="G20" s="7">
         <v>97.995417290496803</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="11">
+      <c r="A21" s="10">
         <v>2029</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B21" s="9">
         <v>88.926222106933594</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21" s="11">
         <v>49.522222222222226</v>
       </c>
       <c r="F21">
         <v>14</v>
       </c>
-      <c r="G21" s="8">
+      <c r="G21" s="7">
         <v>102.891173400879</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="11">
+      <c r="A22" s="10">
         <v>2030</v>
       </c>
-      <c r="B22" s="10">
+      <c r="B22" s="9">
         <v>93.340433525848397</v>
       </c>
-      <c r="C22" s="12">
+      <c r="C22" s="11">
         <v>53</v>
       </c>
       <c r="F22">
         <v>15</v>
       </c>
-      <c r="G22" s="8">
+      <c r="G22" s="7">
         <v>108.107968714142</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="11">
+      <c r="A23" s="10">
         <v>2031</v>
       </c>
-      <c r="B23" s="10">
+      <c r="B23" s="9">
         <v>97.995417290496803</v>
       </c>
-      <c r="C23" s="12">
+      <c r="C23" s="11">
         <v>57.699999999999996</v>
       </c>
       <c r="F23">
         <v>16</v>
       </c>
-      <c r="G23" s="8">
+      <c r="G23" s="7">
         <v>113.485276572418</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="11">
+      <c r="A24" s="10">
         <v>2032</v>
       </c>
-      <c r="B24" s="10">
+      <c r="B24" s="9">
         <v>102.891173400879</v>
       </c>
-      <c r="C24" s="12">
+      <c r="C24" s="11">
         <v>62.399999999999991</v>
       </c>
       <c r="F24">
         <v>17</v>
       </c>
-      <c r="G24" s="8">
+      <c r="G24" s="7">
         <v>119.183616577148</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="11">
+      <c r="A25" s="10">
         <v>2033</v>
       </c>
-      <c r="B25" s="10">
+      <c r="B25" s="9">
         <v>108.107968714142</v>
       </c>
-      <c r="C25" s="12">
+      <c r="C25" s="11">
         <v>67.099999999999994</v>
       </c>
       <c r="F25">
         <v>18</v>
       </c>
-      <c r="G25" s="8">
+      <c r="G25" s="7">
         <v>125.122728927612</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="11">
+      <c r="A26" s="10">
         <v>2034</v>
       </c>
-      <c r="B26" s="10">
+      <c r="B26" s="9">
         <v>113.485276572418</v>
       </c>
-      <c r="C26" s="12">
+      <c r="C26" s="11">
         <v>71.8</v>
       </c>
       <c r="F26">
         <v>19</v>
       </c>
-      <c r="G26" s="8">
+      <c r="G26" s="7">
         <v>131.382880480957</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="11">
+      <c r="A27" s="10">
         <v>2035</v>
       </c>
-      <c r="B27" s="10">
+      <c r="B27" s="9">
         <v>119.183616577148</v>
       </c>
-      <c r="C27" s="12">
+      <c r="C27" s="11">
         <v>76.5</v>
       </c>
       <c r="F27">
         <v>20</v>
       </c>
-      <c r="G27" s="8">
+      <c r="G27" s="7">
         <v>137.964057124329</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="11">
+      <c r="A28" s="10">
         <v>2036</v>
       </c>
-      <c r="B28" s="10">
+      <c r="B28" s="9">
         <v>125.122728927612</v>
       </c>
-      <c r="C28" s="12">
+      <c r="C28" s="11">
         <v>81.2</v>
       </c>
       <c r="F28">
         <v>21</v>
       </c>
-      <c r="G28" s="8">
+      <c r="G28" s="7">
         <v>144.86627297058101</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="11">
+      <c r="A29" s="10">
         <v>2037</v>
       </c>
-      <c r="B29" s="10">
+      <c r="B29" s="9">
         <v>131.382880480957</v>
       </c>
-      <c r="C29" s="12">
+      <c r="C29" s="11">
         <v>85.899999999999991</v>
       </c>
       <c r="E29">
@@ -4509,180 +4575,180 @@
       <c r="F29">
         <v>22</v>
       </c>
-      <c r="G29" s="8">
+      <c r="G29" s="7">
         <v>152.08952801971401</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="11">
+      <c r="A30" s="10">
         <v>2038</v>
       </c>
-      <c r="B30" s="10">
+      <c r="B30" s="9">
         <v>137.964057124329</v>
       </c>
-      <c r="C30" s="12">
+      <c r="C30" s="11">
         <v>90.6</v>
       </c>
       <c r="F30">
         <v>23</v>
       </c>
-      <c r="G30" s="8">
+      <c r="G30" s="7">
         <f t="shared" ref="G30:G43" si="1">_xlfn.FORECAST.LINEAR(F30,$G$8:$G$29,$F$8:$F$29)</f>
         <v>154.87831521398357</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="11">
+      <c r="A31" s="10">
         <v>2039</v>
       </c>
-      <c r="B31" s="10">
+      <c r="B31" s="9">
         <v>144.86627297058101</v>
       </c>
-      <c r="C31" s="12">
+      <c r="C31" s="11">
         <v>95.3</v>
       </c>
       <c r="F31">
         <v>24</v>
       </c>
-      <c r="G31" s="8">
+      <c r="G31" s="7">
         <f t="shared" si="1"/>
         <v>160.36718818841777</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="11">
+      <c r="A32" s="10">
         <v>2040</v>
       </c>
-      <c r="B32" s="10">
+      <c r="B32" s="9">
         <v>152.08952801971401</v>
       </c>
-      <c r="C32" s="12">
+      <c r="C32" s="11">
         <v>100</v>
       </c>
       <c r="F32">
         <v>25</v>
       </c>
-      <c r="G32" s="8">
+      <c r="G32" s="7">
         <f t="shared" si="1"/>
         <v>165.85606116285197</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="11">
+      <c r="A33" s="10">
         <v>2041</v>
       </c>
-      <c r="B33" s="10">
+      <c r="B33" s="9">
         <v>154.87831521398357</v>
       </c>
-      <c r="C33" s="12">
+      <c r="C33" s="11">
         <v>102</v>
       </c>
       <c r="F33">
         <v>26</v>
       </c>
-      <c r="G33" s="8">
+      <c r="G33" s="7">
         <f t="shared" si="1"/>
         <v>171.34493413728617</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="11">
+      <c r="A34" s="10">
         <v>2042</v>
       </c>
-      <c r="B34" s="10">
+      <c r="B34" s="9">
         <v>160.36718818841777</v>
       </c>
-      <c r="C34" s="12">
+      <c r="C34" s="11">
         <v>104</v>
       </c>
       <c r="F34">
         <v>27</v>
       </c>
-      <c r="G34" s="8">
+      <c r="G34" s="7">
         <f t="shared" si="1"/>
         <v>176.83380711172035</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="11">
+      <c r="A35" s="10">
         <v>2043</v>
       </c>
-      <c r="B35" s="10">
+      <c r="B35" s="9">
         <v>165.85606116285197</v>
       </c>
-      <c r="C35" s="12">
+      <c r="C35" s="11">
         <v>106</v>
       </c>
       <c r="F35">
         <v>28</v>
       </c>
-      <c r="G35" s="8">
+      <c r="G35" s="7">
         <f t="shared" si="1"/>
         <v>182.32268008615455</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="11">
+      <c r="A36" s="10">
         <v>2044</v>
       </c>
-      <c r="B36" s="10">
+      <c r="B36" s="9">
         <v>171.34493413728617</v>
       </c>
-      <c r="C36" s="12">
+      <c r="C36" s="11">
         <v>108</v>
       </c>
       <c r="F36">
         <v>29</v>
       </c>
-      <c r="G36" s="8">
+      <c r="G36" s="7">
         <f t="shared" si="1"/>
         <v>187.81155306058875</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="11">
+      <c r="A37" s="10">
         <v>2045</v>
       </c>
-      <c r="B37" s="10">
+      <c r="B37" s="9">
         <v>176.83380711172035</v>
       </c>
-      <c r="C37" s="12">
+      <c r="C37" s="11">
         <v>110</v>
       </c>
       <c r="F37">
         <v>30</v>
       </c>
-      <c r="G37" s="8">
+      <c r="G37" s="7">
         <f t="shared" si="1"/>
         <v>193.30042603502292</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="11">
+      <c r="A38" s="10">
         <v>2046</v>
       </c>
-      <c r="B38" s="10">
+      <c r="B38" s="9">
         <v>182.32268008615455</v>
       </c>
-      <c r="C38" s="12">
+      <c r="C38" s="11">
         <v>112</v>
       </c>
       <c r="F38">
         <v>31</v>
       </c>
-      <c r="G38" s="8">
+      <c r="G38" s="7">
         <f t="shared" si="1"/>
         <v>198.78929900945712</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="11">
+      <c r="A39" s="10">
         <v>2047</v>
       </c>
-      <c r="B39" s="10">
+      <c r="B39" s="9">
         <v>187.81155306058875</v>
       </c>
-      <c r="C39" s="12">
+      <c r="C39" s="11">
         <v>114</v>
       </c>
       <c r="E39">
@@ -4691,116 +4757,116 @@
       <c r="F39">
         <v>32</v>
       </c>
-      <c r="G39" s="8">
+      <c r="G39" s="7">
         <f t="shared" si="1"/>
         <v>204.27817198389133</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="11">
+      <c r="A40" s="10">
         <v>2048</v>
       </c>
-      <c r="B40" s="10">
+      <c r="B40" s="9">
         <v>193.30042603502292</v>
       </c>
-      <c r="C40" s="12">
+      <c r="C40" s="11">
         <v>116</v>
       </c>
       <c r="F40">
         <v>33</v>
       </c>
-      <c r="G40" s="8">
+      <c r="G40" s="7">
         <f t="shared" si="1"/>
         <v>209.76704495832553</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="11">
+      <c r="A41" s="10">
         <v>2049</v>
       </c>
-      <c r="B41" s="10">
+      <c r="B41" s="9">
         <v>198.78929900945712</v>
       </c>
-      <c r="C41" s="12">
+      <c r="C41" s="11">
         <v>118</v>
       </c>
       <c r="F41">
         <v>34</v>
       </c>
-      <c r="G41" s="8">
+      <c r="G41" s="7">
         <f t="shared" si="1"/>
         <v>215.25591793275973</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="11">
+      <c r="A42" s="10">
         <v>2050</v>
       </c>
-      <c r="B42" s="10">
+      <c r="B42" s="9">
         <v>204.27817198389133</v>
       </c>
-      <c r="C42" s="12">
+      <c r="C42" s="11">
         <v>120</v>
       </c>
       <c r="F42">
         <v>35</v>
       </c>
-      <c r="G42" s="8">
+      <c r="G42" s="7">
         <f t="shared" si="1"/>
         <v>220.7447909071939</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="11">
+      <c r="A43" s="10">
         <v>2051</v>
       </c>
-      <c r="B43" s="10">
+      <c r="B43" s="9">
         <v>209.76704495832553</v>
       </c>
-      <c r="C43" s="12">
+      <c r="C43" s="11">
         <f>_xlfn.FORECAST.LINEAR(yearlyCO2!F40,$C$11:$C$42,yearlyCO2!$F$8:$F$39)</f>
         <v>131.9840725806452</v>
       </c>
       <c r="F43">
         <v>36</v>
       </c>
-      <c r="G43" s="8">
+      <c r="G43" s="7">
         <f t="shared" si="1"/>
         <v>226.2336638816281</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="11">
+      <c r="A44" s="10">
         <v>2052</v>
       </c>
-      <c r="B44" s="10">
+      <c r="B44" s="9">
         <v>215.25591793275973</v>
       </c>
-      <c r="C44" s="12">
+      <c r="C44" s="11">
         <f>_xlfn.FORECAST.LINEAR(yearlyCO2!F41,$C$11:$C$42,yearlyCO2!$F$8:$F$39)</f>
         <v>135.60413000977522</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="11">
+      <c r="A45" s="10">
         <v>2053</v>
       </c>
-      <c r="B45" s="10">
+      <c r="B45" s="9">
         <v>220.7447909071939</v>
       </c>
-      <c r="C45" s="12">
+      <c r="C45" s="11">
         <f>_xlfn.FORECAST.LINEAR(yearlyCO2!F42,$C$11:$C$42,yearlyCO2!$F$8:$F$39)</f>
         <v>139.2241874389052</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="11">
+      <c r="A46" s="10">
         <v>2054</v>
       </c>
-      <c r="B46" s="10">
+      <c r="B46" s="9">
         <v>226.2336638816281</v>
       </c>
-      <c r="C46" s="12">
+      <c r="C46" s="11">
         <f>_xlfn.FORECAST.LINEAR(yearlyCO2!F43,$C$11:$C$42,yearlyCO2!$F$8:$F$39)</f>
         <v>142.84424486803522</v>
       </c>

--- a/data/Traderes_data.xlsx
+++ b/data/Traderes_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\toolbox-amiris-emlab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{967A073E-5582-485D-B81B-9BC88E97E059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BDB28D6-13BD-4775-903F-40B9B512DBD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="785" activeTab="3" xr2:uid="{9A6D5CBA-73A9-44EC-81CD-5563DD7C030A}"/>
+    <workbookView xWindow="-28920" yWindow="-3405" windowWidth="29040" windowHeight="15840" tabRatio="785" activeTab="10" xr2:uid="{9A6D5CBA-73A9-44EC-81CD-5563DD7C030A}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="12" r:id="rId1"/>
@@ -1767,8 +1767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7B6706D-91F6-4F7E-841A-03D37A556D1E}">
   <dimension ref="A2:A34"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="V17" sqref="V17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="P34" sqref="P34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2167,8 +2167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D7D7B62-0359-4414-8FD2-B8EA37D25C57}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2525,7 +2525,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3461,7 +3461,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/Traderes_data.xlsx
+++ b/data/Traderes_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\toolbox-amiris-emlab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BDB28D6-13BD-4775-903F-40B9B512DBD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B44EC16-39D2-42D2-88B9-8A7A466B4420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-3405" windowWidth="29040" windowHeight="15840" tabRatio="785" activeTab="10" xr2:uid="{9A6D5CBA-73A9-44EC-81CD-5563DD7C030A}"/>
+    <workbookView xWindow="-7485" yWindow="3405" windowWidth="23040" windowHeight="12195" tabRatio="785" activeTab="7" xr2:uid="{9A6D5CBA-73A9-44EC-81CD-5563DD7C030A}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="12" r:id="rId1"/>
@@ -1767,7 +1767,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7B6706D-91F6-4F7E-841A-03D37A556D1E}">
   <dimension ref="A2:A34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="P34" sqref="P34"/>
     </sheetView>
   </sheetViews>
@@ -2168,7 +2168,7 @@
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2336,7 +2336,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="35">
-        <v>22000</v>
+        <v>220000</v>
       </c>
       <c r="C12" s="45"/>
       <c r="H12" s="55">
@@ -2487,6 +2487,10 @@
       </c>
       <c r="B23" s="31">
         <v>380000</v>
+      </c>
+      <c r="C23" s="1">
+        <f>B23/B12</f>
+        <v>1.7272727272727273</v>
       </c>
       <c r="H23" s="55">
         <v>1198000</v>
@@ -3460,8 +3464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40331877-1BEF-474F-BDAB-D1A166D0FBFC}">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M33" sqref="M33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/Traderes_data.xlsx
+++ b/data/Traderes_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\toolbox-amiris-emlab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B44EC16-39D2-42D2-88B9-8A7A466B4420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{671154B9-C6CA-4A5D-B8BA-7A15F7FA9EAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-7485" yWindow="3405" windowWidth="23040" windowHeight="12195" tabRatio="785" activeTab="7" xr2:uid="{9A6D5CBA-73A9-44EC-81CD-5563DD7C030A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="785" activeTab="7" xr2:uid="{9A6D5CBA-73A9-44EC-81CD-5563DD7C030A}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="12" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="94">
   <si>
     <t>OCGT</t>
   </si>
@@ -350,6 +350,9 @@
   </si>
   <si>
     <t>hydrogen CCGT</t>
+  </si>
+  <si>
+    <t>&lt;4E-P</t>
   </si>
 </sst>
 </file>
@@ -3462,10 +3465,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40331877-1BEF-474F-BDAB-D1A166D0FBFC}">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3890,7 +3893,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>4</v>
       </c>
@@ -3916,7 +3919,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>3</v>
       </c>
@@ -3942,7 +3945,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>2</v>
       </c>
@@ -3968,7 +3971,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>1</v>
       </c>
@@ -3994,7 +3997,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>8</v>
       </c>
@@ -4020,7 +4023,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>79</v>
       </c>
@@ -4046,7 +4049,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>87</v>
       </c>
@@ -4070,6 +4073,9 @@
       </c>
       <c r="H23" s="2">
         <v>25</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/data/Traderes_data.xlsx
+++ b/data/Traderes_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\toolbox-amiris-emlab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{671154B9-C6CA-4A5D-B8BA-7A15F7FA9EAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF1A8821-0B8D-451D-B57A-31C8CB013E08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="785" activeTab="7" xr2:uid="{9A6D5CBA-73A9-44EC-81CD-5563DD7C030A}"/>
+    <workbookView xWindow="-21810" yWindow="17250" windowWidth="29040" windowHeight="17640" tabRatio="785" activeTab="7" xr2:uid="{9A6D5CBA-73A9-44EC-81CD-5563DD7C030A}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="12" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">fixedCosts!$A$1:$B$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">investmentCosts!$A$1:$B$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">lifetime_technical!$A$1:$D$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">techspecs!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">techspecs!$A$1:$I$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -364,7 +364,7 @@
     <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -470,6 +470,13 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -569,7 +576,7 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -658,6 +665,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -787,9 +795,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -827,7 +835,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -933,7 +941,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1075,7 +1083,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1770,8 +1778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7B6706D-91F6-4F7E-841A-03D37A556D1E}">
   <dimension ref="A2:A34"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="P34" sqref="P34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1934,7 +1942,7 @@
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2171,7 +2179,7 @@
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2532,13 +2540,13 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="G40" sqref="G40:G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -2637,6 +2645,10 @@
       </c>
       <c r="B8" s="53">
         <v>7892.9478017180809</v>
+      </c>
+      <c r="D8" s="1">
+        <f>9000/B8</f>
+        <v>1.1402583959874844</v>
       </c>
       <c r="G8" s="53">
         <v>8579.2910888240003</v>
@@ -2864,7 +2876,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3018,7 +3030,7 @@
   <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3467,8 +3479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40331877-1BEF-474F-BDAB-D1A166D0FBFC}">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3477,7 +3489,7 @@
     <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>27</v>
       </c>
@@ -3496,19 +3508,19 @@
       <c r="F1" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="51" t="s">
+      <c r="G1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I1" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2">
-        <v>2.6</v>
+      <c r="B2" s="31">
+        <v>1.83</v>
       </c>
       <c r="C2" s="2">
         <v>0.309</v>
@@ -3523,13 +3535,13 @@
         <v>0</v>
       </c>
       <c r="G2" s="2">
-        <v>0</v>
-      </c>
-      <c r="H2" s="2">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>77</v>
       </c>
@@ -3548,14 +3560,14 @@
       <c r="F3" s="31">
         <v>0</v>
       </c>
-      <c r="G3" s="31">
-        <v>0</v>
-      </c>
-      <c r="H3" s="2">
+      <c r="G3" s="2">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="40" t="s">
         <v>75</v>
       </c>
@@ -3575,13 +3587,13 @@
         <v>0</v>
       </c>
       <c r="G4" s="2">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2">
         <v>40</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="36" t="s">
         <v>65</v>
       </c>
@@ -3600,14 +3612,14 @@
       <c r="F5" s="31">
         <v>0</v>
       </c>
-      <c r="G5" s="31">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2">
+      <c r="G5" s="2">
         <v>40</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>68</v>
       </c>
@@ -3627,13 +3639,13 @@
         <v>0</v>
       </c>
       <c r="G6" s="2">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2">
         <v>60</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -3653,14 +3665,14 @@
         <v>0</v>
       </c>
       <c r="G7" s="2">
-        <v>0</v>
-      </c>
-      <c r="H7" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="60" t="s">
         <v>86</v>
       </c>
       <c r="B8" s="31">
@@ -3679,14 +3691,14 @@
         <v>0</v>
       </c>
       <c r="G8" s="31">
-        <v>0</v>
-      </c>
-      <c r="H8" s="31">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="I8" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="60" t="s">
         <v>92</v>
       </c>
       <c r="B9" s="31">
@@ -3705,13 +3717,13 @@
         <v>0</v>
       </c>
       <c r="G9" s="31">
-        <v>0</v>
-      </c>
-      <c r="H9" s="31">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="40" t="s">
         <v>69</v>
       </c>
@@ -3731,13 +3743,13 @@
         <v>0</v>
       </c>
       <c r="G10" s="2">
-        <v>0</v>
-      </c>
-      <c r="H10" s="2">
         <v>60</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="36" t="s">
         <v>66</v>
       </c>
@@ -3756,15 +3768,15 @@
       <c r="F11" s="31">
         <v>0</v>
       </c>
-      <c r="G11" s="31">
-        <v>0</v>
-      </c>
-      <c r="H11" s="2">
+      <c r="G11" s="2">
         <v>40</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="I11" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="60" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="31">
@@ -3782,21 +3794,21 @@
       <c r="F12" s="31">
         <v>0.92</v>
       </c>
-      <c r="G12" s="31">
+      <c r="G12" s="2">
+        <v>25</v>
+      </c>
+      <c r="I12" s="31">
         <v>0.92</v>
       </c>
-      <c r="H12" s="2">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="31">
         <v>3.5</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="31">
         <v>0.35</v>
       </c>
       <c r="D13" s="2">
@@ -3809,13 +3821,13 @@
         <v>0</v>
       </c>
       <c r="G13" s="2">
-        <v>0</v>
-      </c>
-      <c r="H13" s="2">
         <v>40</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>0</v>
       </c>
@@ -3835,13 +3847,13 @@
         <v>0</v>
       </c>
       <c r="G14" s="2">
-        <v>0</v>
-      </c>
-      <c r="H14" s="2">
         <v>25</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="36" t="s">
         <v>16</v>
       </c>
@@ -3860,14 +3872,14 @@
       <c r="F15" s="31">
         <v>0</v>
       </c>
-      <c r="G15" s="31">
-        <v>0</v>
-      </c>
-      <c r="H15" s="2">
+      <c r="G15" s="2">
         <v>25</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I15" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>70</v>
       </c>
@@ -3887,17 +3899,17 @@
         <v>0.89</v>
       </c>
       <c r="G16" s="2">
+        <v>50</v>
+      </c>
+      <c r="I16" s="2">
         <v>0.89</v>
       </c>
-      <c r="H16" s="2">
-        <v>50</v>
-      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="31">
         <v>0.5</v>
       </c>
       <c r="C17" s="2">
@@ -3913,17 +3925,17 @@
         <v>0</v>
       </c>
       <c r="G17" s="2">
-        <v>0</v>
-      </c>
-      <c r="H17" s="2">
         <v>25</v>
       </c>
+      <c r="I17" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="31">
         <v>0.5</v>
       </c>
       <c r="C18" s="2">
@@ -3939,18 +3951,18 @@
         <v>0</v>
       </c>
       <c r="G18" s="2">
-        <v>0</v>
-      </c>
-      <c r="H18" s="2">
         <v>25</v>
       </c>
+      <c r="I18" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="2">
-        <v>0.5</v>
+      <c r="B19" s="31">
+        <v>3.25</v>
       </c>
       <c r="C19" s="2">
         <v>1</v>
@@ -3965,18 +3977,18 @@
         <v>0</v>
       </c>
       <c r="G19" s="2">
-        <v>0</v>
-      </c>
-      <c r="H19" s="2">
         <v>30</v>
       </c>
+      <c r="I19" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="60" t="s">
         <v>1</v>
       </c>
       <c r="B20" s="31">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="C20" s="2">
         <v>1</v>
@@ -3991,10 +4003,10 @@
         <v>0</v>
       </c>
       <c r="G20" s="2">
-        <v>0</v>
-      </c>
-      <c r="H20" s="2">
         <v>30</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -4017,10 +4029,10 @@
         <v>0</v>
       </c>
       <c r="G21" s="2">
-        <v>0</v>
-      </c>
-      <c r="H21" s="2">
         <v>25</v>
+      </c>
+      <c r="I21" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -4043,14 +4055,14 @@
         <v>0</v>
       </c>
       <c r="G22" s="2">
-        <v>0</v>
-      </c>
-      <c r="H22" s="2">
         <v>25</v>
       </c>
+      <c r="I22" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="60" t="s">
         <v>87</v>
       </c>
       <c r="B23" s="31">
@@ -4068,11 +4080,11 @@
       <c r="F23" s="31">
         <v>0.92</v>
       </c>
-      <c r="G23" s="31">
+      <c r="G23" s="2">
+        <v>25</v>
+      </c>
+      <c r="I23" s="31">
         <v>0.92</v>
-      </c>
-      <c r="H23" s="2">
-        <v>25</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>93</v>

--- a/data/Traderes_data.xlsx
+++ b/data/Traderes_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\toolbox-amiris-emlab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF1A8821-0B8D-451D-B57A-31C8CB013E08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5316D6A2-E45D-4DBD-B50A-FE031C872A0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21810" yWindow="17250" windowWidth="29040" windowHeight="17640" tabRatio="785" activeTab="7" xr2:uid="{9A6D5CBA-73A9-44EC-81CD-5563DD7C030A}"/>
+    <workbookView xWindow="1530" yWindow="1455" windowWidth="25845" windowHeight="10260" tabRatio="785" activeTab="5" xr2:uid="{9A6D5CBA-73A9-44EC-81CD-5563DD7C030A}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="12" r:id="rId1"/>
@@ -59,9 +59,9 @@
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{7683A134-5051-4502-95AA-7E7E1506D127}">
       <text>
-        <t xml:space="preserve">[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t xml:space="preserve">[Opmerkingenthread]
+U kunt deze opmerkingenthread lezen in uw versie van Excel. Eventuele wijzigingen aan de thread gaan echter verloren als het bestand wordt geopend in een nieuwere versie van Excel. Meer informatie: https://go.microsoft.com/fwlink/?linkid=870924
+Opmerking:
     Eur/MW
 </t>
       </text>
@@ -668,14 +668,14 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="8">
-    <cellStyle name="Bad" xfId="3" builtinId="27"/>
     <cellStyle name="Comma 2" xfId="2" xr:uid="{E5037CBA-12FA-4B97-B1F6-0BDCF682C8FC}"/>
     <cellStyle name="Comma 2 2" xfId="6" xr:uid="{70A3E38C-3CB6-43E2-84EC-850839FF8B51}"/>
     <cellStyle name="Comma 2 3" xfId="7" xr:uid="{8FEEAB14-B303-4891-A615-0BE5A09BA410}"/>
-    <cellStyle name="Good" xfId="5" builtinId="26"/>
+    <cellStyle name="Goed" xfId="5" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{66935CEE-9E6E-468B-A18D-D284C6317C61}"/>
+    <cellStyle name="Ongeldig" xfId="3" builtinId="27"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -795,7 +795,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Thema">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -2178,7 +2178,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D7D7B62-0359-4414-8FD2-B8EA37D25C57}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
@@ -2539,7 +2539,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCB4739B-0110-4D61-9D8D-66A005DA91D1}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="G40" sqref="G40:G41"/>
     </sheetView>
   </sheetViews>
@@ -2875,8 +2875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49062442-D143-42F9-B57C-0195CD17CFC1}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2978,10 +2978,10 @@
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="30">
-        <v>74.27</v>
+        <v>350</v>
       </c>
       <c r="D9" s="28">
-        <v>45.07</v>
+        <v>300</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -3479,8 +3479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40331877-1BEF-474F-BDAB-D1A166D0FBFC}">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/Traderes_data.xlsx
+++ b/data/Traderes_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\toolbox-amiris-emlab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF1A8821-0B8D-451D-B57A-31C8CB013E08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E93BFC59-33CF-48DA-BC8C-1B66235C2222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21810" yWindow="17250" windowWidth="29040" windowHeight="17640" tabRatio="785" activeTab="7" xr2:uid="{9A6D5CBA-73A9-44EC-81CD-5563DD7C030A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="785" activeTab="5" xr2:uid="{9A6D5CBA-73A9-44EC-81CD-5563DD7C030A}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="12" r:id="rId1"/>
@@ -27,7 +27,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">fixedCosts!$A$1:$B$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">investmentCosts!$A$1:$B$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">investmentCosts!$A$1:$G$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">lifetime_technical!$A$1:$D$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">techspecs!$A$1:$I$1</definedName>
   </definedNames>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="95">
   <si>
     <t>OCGT</t>
   </si>
@@ -340,9 +340,6 @@
     <t>correct values</t>
   </si>
   <si>
-    <t>talking</t>
-  </si>
-  <si>
     <t>BIOMASSRETRO CCS  (retrofit) CAPEX (500 €/kW); FIX O&amp;M(74,8€/kW); VAR O&amp;M(2,8€/MWh); Efficiency (0,3) (Source: Aurora, 2021 Zero-Carbon Dutch power System report)</t>
   </si>
   <si>
@@ -353,16 +350,23 @@
   </si>
   <si>
     <t>&lt;4E-P</t>
+  </si>
+  <si>
+    <t>Gas</t>
+  </si>
+  <si>
+    <t>S3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="&quot;€&quot;\ #,##0"/>
   </numFmts>
   <fonts count="16" x14ac:knownFonts="1">
     <font>
@@ -478,7 +482,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -519,8 +523,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -565,6 +575,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -576,7 +597,7 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -610,7 +631,6 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="10" fillId="6" borderId="1" xfId="5" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="10" fillId="6" borderId="0" xfId="5" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="10" fillId="6" borderId="1" xfId="5" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="5" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -634,18 +654,9 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="10" fillId="6" borderId="1" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="10" fillId="6" borderId="1" xfId="5" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -653,7 +664,6 @@
     <xf numFmtId="1" fontId="10" fillId="6" borderId="1" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="6" borderId="0" xfId="5" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="5"/>
     <xf numFmtId="2" fontId="10" fillId="6" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -666,6 +676,25 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="10" fillId="6" borderId="1" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="6" borderId="1" xfId="5" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="10" fillId="6" borderId="0" xfId="5" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="166" fontId="10" fillId="6" borderId="3" xfId="5" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -1138,7 +1167,7 @@
   <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1778,8 +1807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7B6706D-91F6-4F7E-841A-03D37A556D1E}">
   <dimension ref="A2:A34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1842,7 +1871,7 @@
       <c r="B3" s="9">
         <v>27840</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="D3" s="40" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2062,7 +2091,7 @@
         <v>2700</v>
       </c>
       <c r="C7" s="13"/>
-      <c r="D7" s="39" t="s">
+      <c r="D7" s="38" t="s">
         <v>71</v>
       </c>
       <c r="F7" s="15">
@@ -2083,7 +2112,7 @@
     <row r="9" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="B9" s="9"/>
-      <c r="D9" s="41" t="s">
+      <c r="D9" s="40" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2176,354 +2205,337 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D7D7B62-0359-4414-8FD2-B8EA37D25C57}">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" style="46" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="14.5703125" style="59" customWidth="1"/>
+    <col min="3" max="4" width="14.5703125" style="1" customWidth="1"/>
+    <col min="5" max="7" width="9.140625" style="1"/>
+    <col min="8" max="9" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="43">
+      <c r="B1" s="41">
+        <v>2020</v>
+      </c>
+      <c r="C1" s="41">
+        <v>2030</v>
+      </c>
+      <c r="D1" s="54">
         <v>2050</v>
       </c>
-      <c r="H1" s="42">
-        <v>2020</v>
-      </c>
-      <c r="I1" s="42">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="40" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="44">
+      <c r="B2" s="63"/>
+      <c r="C2" s="55">
+        <v>3030612</v>
+      </c>
+      <c r="D2" s="55">
         <v>2400000</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="44">
-        <v>3030612</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="40" t="s">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="35">
-        <v>850698.174</v>
-      </c>
-      <c r="C3" s="45"/>
-      <c r="H3" s="48">
+      <c r="B3" s="63">
         <f xml:space="preserve"> 0.935767992*1000000</f>
         <v>935767.99200000009</v>
       </c>
-      <c r="I3" s="35">
+      <c r="C3" s="56">
         <v>882599.35600000003</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="40" t="s">
+      <c r="D3" s="56">
+        <v>850698.174</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="45"/>
-      <c r="H4" s="48">
+      <c r="B4" s="63">
         <v>1390000</v>
       </c>
-      <c r="I4" s="9">
+      <c r="C4" s="64">
         <v>1280000</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="40" t="s">
+      <c r="D4" s="57"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="45"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="35">
+      <c r="B5" s="63"/>
+      <c r="C5" s="56">
         <v>3845510</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="40" t="s">
+      <c r="D5" s="57"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="35">
+      <c r="B6" s="63"/>
+      <c r="C6" s="56">
+        <f>ROUND(2690000*1.002*1.016*1.018*1.014*1.007,0)</f>
+        <v>2846616</v>
+      </c>
+      <c r="D6" s="56">
         <f>ROUND(2685000*1.002*1.016*1.018*1.014*1.007,0)</f>
         <v>2841325</v>
       </c>
-      <c r="C6" s="45"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="35">
-        <f>ROUND(2690000*1.002*1.016*1.018*1.014*1.007,0)</f>
-        <v>2846616</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="40" t="s">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="43">
+      <c r="B7" s="63"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54">
         <v>730000</v>
       </c>
-      <c r="C7" s="45"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="43"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="40" t="s">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="B8" s="35">
+      <c r="B8" s="56">
+        <v>478517.72310000006</v>
+      </c>
+      <c r="C8" s="56">
+        <v>467883.99592000007</v>
+      </c>
+      <c r="D8" s="56">
         <v>435982.81438000005</v>
       </c>
-      <c r="C8" s="45"/>
-      <c r="H8" s="35">
-        <v>478517.72310000006</v>
-      </c>
-      <c r="I8" s="35">
-        <v>467883.99592000007</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="40" t="s">
-        <v>92</v>
-      </c>
-      <c r="B9" s="35">
-        <v>850698.174</v>
-      </c>
-      <c r="C9" s="45"/>
-      <c r="D9" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H9" s="35">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" s="56">
         <f xml:space="preserve"> 0.935767992*1000000</f>
         <v>935767.99200000009</v>
       </c>
-      <c r="I9" s="35">
+      <c r="C9" s="56">
         <v>882599.35600000003</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="40" t="s">
+      <c r="D9" s="56">
+        <v>850698.174</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="35">
+      <c r="B10" s="63"/>
+      <c r="C10" s="56">
+        <f>ROUND(2990000*1.002*1.016*1.018*1.014*1.007,0)</f>
+        <v>3164083</v>
+      </c>
+      <c r="D10" s="56">
         <f>ROUND(2970000*1.002*1.016*1.018*1.014*1.007,0)</f>
         <v>3142918</v>
       </c>
-      <c r="C10" s="45"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="35">
-        <f>ROUND(2990000*1.002*1.016*1.018*1.014*1.007,0)</f>
-        <v>3164083</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="40" t="s">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="B11" s="42"/>
-      <c r="C11" s="45"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="35">
+      <c r="B11" s="63"/>
+      <c r="C11" s="56">
         <v>3845510</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="40" t="s">
+      <c r="D11" s="57"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="35">
+      <c r="B12" s="65">
+        <v>734000</v>
+      </c>
+      <c r="C12" s="65">
+        <v>490000</v>
+      </c>
+      <c r="D12" s="56">
         <v>220000</v>
       </c>
-      <c r="C12" s="45"/>
-      <c r="H12" s="55">
-        <v>734000</v>
-      </c>
-      <c r="I12" s="55">
-        <v>490000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="40" t="s">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="35">
+      <c r="B13" s="63"/>
+      <c r="C13" s="56">
+        <f>D13</f>
         <v>7940450</v>
       </c>
-      <c r="C13" s="45"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="35">
-        <f>B13</f>
+      <c r="D13" s="56">
         <v>7940450</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="43">
-        <v>412000</v>
-      </c>
-      <c r="C14" s="45"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="43"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="40" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B14" s="63"/>
+      <c r="C14" s="67">
+        <v>882599.35600000003</v>
+      </c>
+      <c r="D14" s="67">
+        <v>882599.35600000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="43"/>
-      <c r="C15" s="45"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="35">
+      <c r="B15" s="63"/>
+      <c r="C15" s="56">
         <v>343000</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="40" t="s">
+      <c r="D15" s="54"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="B16" s="44">
+      <c r="B16" s="63"/>
+      <c r="C16" s="55">
+        <f>ROUND(2690000*1.002*1.016*1.018*1.014*1.007,0)+600000</f>
+        <v>3446616</v>
+      </c>
+      <c r="D16" s="55">
         <f>ROUND(2685000*1.002*1.016*1.018*1.014*1.007,0)+600000</f>
         <v>3441325</v>
       </c>
-      <c r="C16" s="45"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="44">
-        <f>ROUND(2690000*1.002*1.016*1.018*1.014*1.007,0)+600000</f>
-        <v>3446616</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="40" t="s">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="35">
-        <v>290000</v>
-      </c>
-      <c r="C17" s="45"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="35">
+      <c r="B17" s="63"/>
+      <c r="C17" s="56">
         <f>ROUND(580000*0.95/1.092/1.029,0)</f>
         <v>490358</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="40" t="s">
+      <c r="D17" s="56">
+        <v>290000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="35">
+      <c r="B18" s="63"/>
+      <c r="C18" s="56">
+        <v>840000</v>
+      </c>
+      <c r="D18" s="56">
         <v>640000</v>
       </c>
-      <c r="C18" s="45"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="35">
-        <v>840000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="40" t="s">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="35">
+      <c r="B19" s="60">
+        <v>2120000</v>
+      </c>
+      <c r="C19" s="56">
+        <v>1800000</v>
+      </c>
+      <c r="D19" s="56">
         <v>1640000</v>
       </c>
-      <c r="C19" s="45"/>
-      <c r="H19">
-        <v>2120000</v>
-      </c>
-      <c r="I19" s="35">
-        <v>1800000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="40" t="s">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="17">
+      <c r="B20" s="65">
+        <v>1105513.87329</v>
+      </c>
+      <c r="C20" s="65">
+        <v>1146644.8996600001</v>
+      </c>
+      <c r="D20" s="58">
         <v>1090288.1746699999</v>
       </c>
-      <c r="C20" s="45"/>
-      <c r="H20" s="54">
-        <v>1105513.87329</v>
-      </c>
-      <c r="I20" s="54">
-        <v>1146644.8996600001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="40" t="s">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="44">
+      <c r="B21" s="63"/>
+      <c r="C21" s="55">
+        <v>650000</v>
+      </c>
+      <c r="D21" s="55">
         <v>400000</v>
       </c>
-      <c r="C21" s="45"/>
-      <c r="H21" s="48"/>
-      <c r="I21" s="44">
-        <v>650000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="45"/>
-      <c r="H22" s="49">
+      <c r="B22" s="66">
         <v>50000</v>
       </c>
-      <c r="I22" s="42">
-        <f>H22</f>
+      <c r="C22" s="57">
+        <f>B22</f>
         <v>50000</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="D22" s="57"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="B23" s="31">
+      <c r="B23" s="65">
+        <v>1198000</v>
+      </c>
+      <c r="C23" s="65">
+        <v>728000</v>
+      </c>
+      <c r="D23" s="70">
         <v>380000</v>
       </c>
-      <c r="C23" s="1">
-        <f>B23/B12</f>
-        <v>1.7272727272727273</v>
-      </c>
-      <c r="H23" s="55">
-        <v>1198000</v>
-      </c>
-      <c r="I23" s="55">
-        <v>728000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H24" s="50"/>
-      <c r="I24" s="45"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B28"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="46"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="54">
+        <v>412000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="60"/>
       <c r="C28"/>
       <c r="D28"/>
-      <c r="E28" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="45"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="61"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:B1" xr:uid="{5D7D7B62-0359-4414-8FD2-B8EA37D25C57}">
@@ -2539,8 +2551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCB4739B-0110-4D61-9D8D-66A005DA91D1}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G40" sqref="G40:G41"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2554,16 +2566,16 @@
       <c r="A1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="42">
+      <c r="B1" s="41">
         <v>2050</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="G1" s="42">
+      <c r="G1" s="41">
         <v>2020</v>
       </c>
-      <c r="H1" s="42">
+      <c r="H1" s="41">
         <v>2030</v>
       </c>
     </row>
@@ -2571,273 +2583,270 @@
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="35">
+      <c r="B2" s="34">
         <v>61676</v>
       </c>
-      <c r="G2" s="42"/>
-      <c r="H2" s="35">
+      <c r="G2" s="41"/>
+      <c r="H2" s="34">
         <v>66992</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="35">
+      <c r="B3" s="34">
         <v>27647.69067</v>
       </c>
-      <c r="G3" s="48"/>
-      <c r="H3" s="35">
+      <c r="G3" s="44"/>
+      <c r="H3" s="34">
         <v>29561.761559999999</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="42">
+      <c r="B4" s="41">
         <v>32000</v>
       </c>
-      <c r="G4" s="48"/>
-      <c r="H4" s="42">
+      <c r="G4" s="44"/>
+      <c r="H4" s="41">
         <v>32000</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="35">
+      <c r="B5" s="34">
         <v>61528.160000000003</v>
       </c>
-      <c r="G5" s="52"/>
-      <c r="H5" s="35">
+      <c r="G5" s="46"/>
+      <c r="H5" s="34">
         <v>61528.160000000003</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="35">
+      <c r="B6" s="34">
         <f>ROUND(13425*1.002*1.016*1.018*1.014*1.007,0)</f>
         <v>14207</v>
       </c>
-      <c r="G6" s="42"/>
-      <c r="H6" s="35">
+      <c r="G6" s="41"/>
+      <c r="H6" s="34">
         <f>ROUND(13450*1.002*1.016*1.018*1.014*1.007,0)</f>
         <v>14233</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="42">
+      <c r="B7" s="41">
         <v>30000</v>
       </c>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="B8" s="53">
+      <c r="B8" s="47">
         <v>7892.9478017180809</v>
       </c>
       <c r="D8" s="1">
         <f>9000/B8</f>
         <v>1.1402583959874844</v>
       </c>
-      <c r="G8" s="53">
+      <c r="G8" s="47">
         <v>8579.2910888240003</v>
       </c>
-      <c r="H8" s="53">
+      <c r="H8" s="47">
         <v>8236.1194452710406</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="40" t="s">
-        <v>92</v>
-      </c>
-      <c r="B9" s="35">
+      <c r="A9" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" s="34">
         <v>27647</v>
       </c>
-      <c r="G9" s="42"/>
-      <c r="H9" s="35">
+      <c r="G9" s="41"/>
+      <c r="H9" s="34">
         <v>29561</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="40" t="s">
+      <c r="A10" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="35">
+      <c r="B10" s="34">
         <f>ROUND(14850*1.002*1.016*1.018*1.014*1.007,0)</f>
         <v>15715</v>
       </c>
-      <c r="G10" s="48"/>
-      <c r="H10" s="35">
+      <c r="G10" s="44"/>
+      <c r="H10" s="34">
         <f>ROUND(14950*1.002*1.016*1.018*1.014*1.007,0)</f>
         <v>15820</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="B11" s="35">
+      <c r="B11" s="34">
         <f>H11</f>
         <v>61528.160000000003</v>
       </c>
-      <c r="G11" s="52"/>
-      <c r="H11" s="35">
+      <c r="G11" s="46"/>
+      <c r="H11" s="34">
         <v>61528.160000000003</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="35">
+      <c r="B12" s="34">
         <v>570</v>
       </c>
-      <c r="G12" s="42"/>
-      <c r="H12" s="35">
+      <c r="G12" s="41"/>
+      <c r="H12" s="34">
         <v>570</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="40" t="s">
+      <c r="A13" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="35">
+      <c r="B13" s="34">
         <v>111166.3</v>
       </c>
-      <c r="G13" s="42"/>
-      <c r="H13" s="35">
+      <c r="G13" s="41"/>
+      <c r="H13" s="34">
         <f>B13</f>
         <v>111166.3</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="42">
-        <v>7423</v>
-      </c>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42">
-        <v>7423</v>
+      <c r="A14" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G14" s="41"/>
+      <c r="H14" s="62">
+        <v>27647</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="40" t="s">
+      <c r="A15" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="35">
+      <c r="B15" s="34">
         <v>8815.1</v>
       </c>
-      <c r="G15" s="52"/>
-      <c r="H15" s="35">
+      <c r="G15" s="46"/>
+      <c r="H15" s="34">
         <v>8815.1</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="40" t="s">
+      <c r="A16" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="B16" s="35">
+      <c r="B16" s="34">
         <f>ROUND(14850*1.002*1.016*1.018*1.014*1.007,0)+8507</f>
         <v>24222</v>
       </c>
-      <c r="G16" s="52"/>
-      <c r="H16" s="35">
+      <c r="G16" s="46"/>
+      <c r="H16" s="34">
         <f>ROUND(14950*1.002*1.016*1.018*1.014*1.007,0)+8507</f>
         <v>24327</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="40" t="s">
+      <c r="A17" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="35">
+      <c r="B17" s="34">
         <v>7400</v>
       </c>
-      <c r="G17" s="42"/>
-      <c r="H17" s="35">
+      <c r="G17" s="41"/>
+      <c r="H17" s="34">
         <v>9500</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="40" t="s">
+      <c r="A18" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="35">
+      <c r="B18" s="34">
         <v>8900</v>
       </c>
-      <c r="G18" s="42"/>
-      <c r="H18" s="35">
+      <c r="G18" s="41"/>
+      <c r="H18" s="34">
         <v>10700</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="40" t="s">
+      <c r="A19" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="35">
+      <c r="B19" s="34">
         <v>33000</v>
       </c>
-      <c r="G19" s="58">
+      <c r="G19" s="51">
         <v>50000</v>
       </c>
-      <c r="H19" s="35">
+      <c r="H19" s="34">
         <v>39000</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="40" t="s">
+      <c r="A20" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="57">
+      <c r="B20" s="50">
         <v>12058.65</v>
       </c>
-      <c r="D20" s="56">
+      <c r="D20" s="49">
         <v>16662.667964091612</v>
       </c>
-      <c r="E20" s="56">
+      <c r="E20" s="49">
         <v>15602.06928231802</v>
       </c>
-      <c r="G20" s="56">
+      <c r="G20" s="49">
         <v>16396.952973721294</v>
       </c>
-      <c r="H20" s="57">
+      <c r="H20" s="50">
         <v>13398.5</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="40" t="s">
+      <c r="A21" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="35">
+      <c r="B21" s="34">
         <v>28000.000000000004</v>
       </c>
-      <c r="G21" s="42"/>
-      <c r="H21" s="35">
+      <c r="G21" s="41"/>
+      <c r="H21" s="34">
         <v>45500.000000000007</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="40" t="s">
+      <c r="A22" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="B22" s="42">
+      <c r="B22" s="41">
         <v>1700</v>
       </c>
-      <c r="G22" s="42"/>
-      <c r="H22" s="42">
+      <c r="G22" s="41"/>
+      <c r="H22" s="41">
         <v>1700</v>
       </c>
     </row>
@@ -2845,19 +2854,27 @@
       <c r="A23" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B23" s="45">
+      <c r="B23" s="42">
         <f>B12</f>
         <v>570</v>
       </c>
     </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="41">
+        <v>7423</v>
+      </c>
+    </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="59" t="s">
+      <c r="A26" s="52" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="52" t="s">
         <v>90</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="59" t="s">
-        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -2875,8 +2892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49062442-D143-42F9-B57C-0195CD17CFC1}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2899,6 +2916,9 @@
       <c r="D1" s="26">
         <v>2050</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -2908,6 +2928,7 @@
       <c r="C2" s="28">
         <v>26.81</v>
       </c>
+      <c r="D2" s="26"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -2917,6 +2938,7 @@
       <c r="C3" s="28">
         <v>8.93</v>
       </c>
+      <c r="D3" s="26"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -2926,6 +2948,7 @@
       <c r="C4" s="28">
         <v>6.48</v>
       </c>
+      <c r="D4" s="26"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
@@ -2947,6 +2970,7 @@
       <c r="C6" s="28">
         <v>40.68</v>
       </c>
+      <c r="D6" s="26"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
@@ -2956,7 +2980,7 @@
       <c r="C7" s="28">
         <v>74.66</v>
       </c>
-      <c r="D7" s="29">
+      <c r="D7" s="28">
         <v>50.29</v>
       </c>
     </row>
@@ -2977,11 +3001,14 @@
         <v>12</v>
       </c>
       <c r="B9" s="3"/>
-      <c r="C9" s="30">
+      <c r="C9" s="29">
         <v>74.27</v>
       </c>
       <c r="D9" s="28">
         <v>45.07</v>
+      </c>
+      <c r="F9" s="1">
+        <v>116.90402942789999</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -2989,7 +3016,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="3"/>
-      <c r="C10" s="30">
+      <c r="C10" s="29">
         <v>100</v>
       </c>
       <c r="D10" s="28">
@@ -3013,6 +3040,7 @@
         <v>83</v>
       </c>
       <c r="B12" s="3"/>
+      <c r="C12" s="2"/>
       <c r="D12" s="3">
         <v>48.579252851200003</v>
       </c>
@@ -3030,7 +3058,7 @@
   <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3052,8 +3080,8 @@
       <c r="D1" s="25">
         <v>2050</v>
       </c>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -3066,12 +3094,12 @@
       <c r="D2" s="4">
         <v>25</v>
       </c>
-      <c r="E2" s="40"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
+      <c r="E2" s="39"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="39" t="s">
         <v>77</v>
       </c>
       <c r="B3" s="4"/>
@@ -3081,11 +3109,11 @@
       <c r="D3" s="4">
         <v>25</v>
       </c>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="39" t="s">
         <v>75</v>
       </c>
       <c r="B4" s="4"/>
@@ -3095,12 +3123,12 @@
       <c r="D4" s="4">
         <v>40</v>
       </c>
-      <c r="E4" s="40"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="34"/>
+      <c r="E4" s="39"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="33"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="35" t="s">
         <v>65</v>
       </c>
       <c r="B5" s="4"/>
@@ -3110,9 +3138,9 @@
       <c r="D5" s="4">
         <v>40</v>
       </c>
-      <c r="E5" s="40"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="34"/>
+      <c r="E5" s="39"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="33"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
@@ -3125,9 +3153,9 @@
       <c r="D6" s="4">
         <v>60</v>
       </c>
-      <c r="E6" s="40"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
+      <c r="E6" s="39"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
@@ -3140,39 +3168,39 @@
       <c r="D7" s="4">
         <v>30</v>
       </c>
-      <c r="E7" s="40"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
+      <c r="E7" s="39"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="36" t="s">
         <v>86</v>
       </c>
       <c r="B8" s="4"/>
-      <c r="C8" s="47">
+      <c r="C8" s="43">
         <v>25</v>
       </c>
-      <c r="D8" s="47">
+      <c r="D8" s="43">
         <v>25</v>
       </c>
-      <c r="E8" s="40"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="34"/>
+      <c r="E8" s="39"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="33"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B9" s="4"/>
-      <c r="C9" s="47">
+      <c r="C9" s="43">
         <v>25</v>
       </c>
-      <c r="D9" s="47">
+      <c r="D9" s="43">
         <v>25</v>
       </c>
-      <c r="E9" s="40"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="33"/>
+      <c r="E9" s="39"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
@@ -3185,12 +3213,12 @@
       <c r="D10" s="4">
         <v>60</v>
       </c>
-      <c r="E10" s="40"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="33"/>
+      <c r="E10" s="39"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="35" t="s">
         <v>66</v>
       </c>
       <c r="B11" s="4"/>
@@ -3200,26 +3228,26 @@
       <c r="D11" s="4">
         <v>40</v>
       </c>
-      <c r="E11" s="40"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
+      <c r="E11" s="39"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="32"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="55">
+      <c r="B12" s="48">
         <v>20</v>
       </c>
-      <c r="C12" s="55">
+      <c r="C12" s="48">
         <v>25</v>
       </c>
-      <c r="D12" s="55">
+      <c r="D12" s="48">
         <v>30</v>
       </c>
-      <c r="E12" s="40"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="33"/>
+      <c r="E12" s="39"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
@@ -3232,9 +3260,9 @@
       <c r="D13" s="4">
         <v>40</v>
       </c>
-      <c r="E13" s="40"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33"/>
+      <c r="E13" s="39"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="32"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
@@ -3247,12 +3275,12 @@
       <c r="D14" s="4">
         <v>25</v>
       </c>
-      <c r="E14" s="40"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="33"/>
+      <c r="E14" s="39"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="36" t="s">
+      <c r="A15" s="35" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="4"/>
@@ -3262,9 +3290,9 @@
       <c r="D15" s="4">
         <v>25</v>
       </c>
-      <c r="E15" s="40"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="33"/>
+      <c r="E15" s="39"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
@@ -3277,9 +3305,9 @@
       <c r="D16" s="4">
         <v>50</v>
       </c>
-      <c r="E16" s="40"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="33"/>
+      <c r="E16" s="39"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="32"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
@@ -3292,9 +3320,9 @@
       <c r="D17" s="4">
         <v>40</v>
       </c>
-      <c r="E17" s="40"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="33"/>
+      <c r="E17" s="39"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
@@ -3307,43 +3335,43 @@
       <c r="D18" s="4">
         <v>40</v>
       </c>
-      <c r="E18" s="40"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="33"/>
+      <c r="E18" s="39"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="32"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="47">
+      <c r="B19" s="43">
         <v>27</v>
       </c>
-      <c r="C19" s="47">
+      <c r="C19" s="43">
         <v>30</v>
       </c>
-      <c r="D19" s="47">
+      <c r="D19" s="43">
         <v>30</v>
       </c>
-      <c r="E19" s="40"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="33"/>
+      <c r="E19" s="39"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="32"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="47">
+      <c r="B20" s="43">
         <v>27</v>
       </c>
-      <c r="C20" s="47">
+      <c r="C20" s="43">
         <v>30</v>
       </c>
-      <c r="D20" s="47">
+      <c r="D20" s="43">
         <v>30</v>
       </c>
-      <c r="E20" s="40"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="33"/>
+      <c r="E20" s="39"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
@@ -3356,114 +3384,126 @@
       <c r="D21" s="4">
         <v>30</v>
       </c>
-      <c r="E21" s="40"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="33"/>
+      <c r="E21" s="39"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="32"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B22" s="55">
+      <c r="B22" s="48">
         <v>20</v>
       </c>
-      <c r="C22" s="55">
+      <c r="C22" s="48">
         <v>25</v>
       </c>
-      <c r="D22" s="55">
+      <c r="D22" s="48">
         <v>30</v>
       </c>
-      <c r="E22" s="40"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="33"/>
+      <c r="E22" s="39"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="32"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J23" s="33"/>
-      <c r="K23" s="33"/>
+      <c r="A23" s="68" t="s">
+        <v>93</v>
+      </c>
+      <c r="B23" s="69">
+        <v>25</v>
+      </c>
+      <c r="C23" s="69">
+        <v>25</v>
+      </c>
+      <c r="D23" s="69">
+        <v>25</v>
+      </c>
+      <c r="J23" s="32"/>
+      <c r="K23" s="32"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J24" s="33"/>
-      <c r="K24" s="33"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="32"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="32"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J26" s="33"/>
-      <c r="K26" s="33"/>
+      <c r="J26" s="32"/>
+      <c r="K26" s="32"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J27" s="33"/>
-      <c r="K27" s="33"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="32"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J28" s="33"/>
-      <c r="K28" s="33"/>
+      <c r="J28" s="32"/>
+      <c r="K28" s="32"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J29" s="33"/>
-      <c r="K29" s="33"/>
+      <c r="J29" s="32"/>
+      <c r="K29" s="32"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J30" s="33"/>
-      <c r="K30" s="33"/>
+      <c r="J30" s="32"/>
+      <c r="K30" s="32"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J31" s="33"/>
-      <c r="K31" s="33"/>
+      <c r="J31" s="32"/>
+      <c r="K31" s="32"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J32" s="33"/>
-      <c r="K32" s="33"/>
+      <c r="J32" s="32"/>
+      <c r="K32" s="32"/>
     </row>
     <row r="33" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J33" s="33"/>
-      <c r="K33" s="33"/>
+      <c r="J33" s="32"/>
+      <c r="K33" s="32"/>
     </row>
     <row r="34" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J34" s="33"/>
-      <c r="K34" s="33"/>
+      <c r="J34" s="32"/>
+      <c r="K34" s="32"/>
     </row>
     <row r="35" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J35" s="33"/>
-      <c r="K35" s="33"/>
+      <c r="J35" s="32"/>
+      <c r="K35" s="32"/>
     </row>
     <row r="36" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J36" s="33"/>
-      <c r="K36" s="33"/>
+      <c r="J36" s="32"/>
+      <c r="K36" s="32"/>
     </row>
     <row r="37" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J37" s="33"/>
-      <c r="K37" s="33"/>
+      <c r="J37" s="32"/>
+      <c r="K37" s="32"/>
     </row>
     <row r="38" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J38" s="33"/>
+      <c r="J38" s="32"/>
     </row>
     <row r="39" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J39" s="33"/>
+      <c r="J39" s="32"/>
     </row>
     <row r="40" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J40" s="32"/>
+      <c r="J40" s="31"/>
     </row>
     <row r="41" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J41" s="32"/>
+      <c r="J41" s="31"/>
     </row>
     <row r="42" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J42" s="32"/>
-      <c r="K42" s="32"/>
+      <c r="J42" s="31"/>
+      <c r="K42" s="31"/>
     </row>
     <row r="43" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J43" s="32"/>
-      <c r="K43" s="32"/>
+      <c r="J43" s="31"/>
+      <c r="K43" s="31"/>
     </row>
     <row r="44" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J44" s="32"/>
-      <c r="K44" s="32"/>
+      <c r="J44" s="31"/>
+      <c r="K44" s="31"/>
     </row>
     <row r="45" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J45" s="32"/>
-      <c r="K45" s="32"/>
+      <c r="J45" s="31"/>
+      <c r="K45" s="31"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D1" xr:uid="{A82A2359-E2A1-427E-8CA6-7C7CC9CE7402}">
@@ -3477,10 +3517,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40331877-1BEF-474F-BDAB-D1A166D0FBFC}">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3493,25 +3533,25 @@
       <c r="A1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="51" t="s">
+      <c r="E1" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="51" t="s">
+      <c r="F1" s="45" t="s">
         <v>22</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="I1" s="51" t="s">
+      <c r="I1" s="45" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3519,7 +3559,7 @@
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="31">
+      <c r="B2" s="30">
         <v>1.83</v>
       </c>
       <c r="C2" s="2">
@@ -3545,30 +3585,30 @@
       <c r="A3" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="31">
+      <c r="B3" s="30">
         <v>4.4000000000000004</v>
       </c>
-      <c r="C3" s="31">
+      <c r="C3" s="30">
         <v>0.6</v>
       </c>
-      <c r="D3" s="31">
-        <v>0</v>
-      </c>
-      <c r="E3" s="31">
-        <v>0</v>
-      </c>
-      <c r="F3" s="31">
+      <c r="D3" s="30">
+        <v>0</v>
+      </c>
+      <c r="E3" s="30">
+        <v>0</v>
+      </c>
+      <c r="F3" s="30">
         <v>0</v>
       </c>
       <c r="G3" s="2">
         <v>25</v>
       </c>
-      <c r="I3" s="31">
+      <c r="I3" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="39" t="s">
         <v>75</v>
       </c>
       <c r="B4" s="2">
@@ -3594,28 +3634,28 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="31">
+      <c r="B5" s="30">
         <v>3.5</v>
       </c>
-      <c r="C5" s="31">
+      <c r="C5" s="30">
         <v>0.43</v>
       </c>
-      <c r="D5" s="31">
-        <v>0</v>
-      </c>
-      <c r="E5" s="31">
-        <v>0</v>
-      </c>
-      <c r="F5" s="31">
+      <c r="D5" s="30">
+        <v>0</v>
+      </c>
+      <c r="E5" s="30">
+        <v>0</v>
+      </c>
+      <c r="F5" s="30">
         <v>0</v>
       </c>
       <c r="G5" s="2">
         <v>40</v>
       </c>
-      <c r="I5" s="31">
+      <c r="I5" s="30">
         <v>0</v>
       </c>
     </row>
@@ -3672,59 +3712,59 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="60" t="s">
+      <c r="A8" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="B8" s="31">
+      <c r="B8" s="30">
         <v>4.79</v>
       </c>
-      <c r="C8" s="31">
+      <c r="C8" s="30">
         <v>0.43</v>
       </c>
-      <c r="D8" s="31">
-        <v>0</v>
-      </c>
-      <c r="E8" s="31">
-        <v>0</v>
-      </c>
-      <c r="F8" s="31">
-        <v>0</v>
-      </c>
-      <c r="G8" s="31">
+      <c r="D8" s="30">
+        <v>0</v>
+      </c>
+      <c r="E8" s="30">
+        <v>0</v>
+      </c>
+      <c r="F8" s="30">
+        <v>0</v>
+      </c>
+      <c r="G8" s="30">
         <v>25</v>
       </c>
-      <c r="I8" s="31">
+      <c r="I8" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="60" t="s">
-        <v>92</v>
-      </c>
-      <c r="B9" s="31">
+      <c r="A9" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" s="30">
         <v>4.24</v>
       </c>
-      <c r="C9" s="31">
+      <c r="C9" s="30">
         <v>0.6</v>
       </c>
-      <c r="D9" s="31">
-        <v>0</v>
-      </c>
-      <c r="E9" s="31">
-        <v>0</v>
-      </c>
-      <c r="F9" s="31">
-        <v>0</v>
-      </c>
-      <c r="G9" s="31">
+      <c r="D9" s="30">
+        <v>0</v>
+      </c>
+      <c r="E9" s="30">
+        <v>0</v>
+      </c>
+      <c r="F9" s="30">
+        <v>0</v>
+      </c>
+      <c r="G9" s="30">
         <v>25</v>
       </c>
-      <c r="I9" s="31">
+      <c r="I9" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="40" t="s">
+      <c r="A10" s="39" t="s">
         <v>69</v>
       </c>
       <c r="B10" s="2">
@@ -3750,54 +3790,54 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="B11" s="31">
+      <c r="B11" s="30">
         <v>3.5</v>
       </c>
-      <c r="C11" s="31">
+      <c r="C11" s="30">
         <v>0.43</v>
       </c>
-      <c r="D11" s="31">
-        <v>0</v>
-      </c>
-      <c r="E11" s="31">
-        <v>0</v>
-      </c>
-      <c r="F11" s="31">
+      <c r="D11" s="30">
+        <v>0</v>
+      </c>
+      <c r="E11" s="30">
+        <v>0</v>
+      </c>
+      <c r="F11" s="30">
         <v>0</v>
       </c>
       <c r="G11" s="2">
         <v>40</v>
       </c>
-      <c r="I11" s="31">
+      <c r="I11" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="60" t="s">
+      <c r="A12" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="31">
+      <c r="B12" s="30">
         <v>1.8</v>
       </c>
-      <c r="C12" s="31">
+      <c r="C12" s="30">
         <v>0.92</v>
       </c>
-      <c r="D12" s="31">
+      <c r="D12" s="30">
         <v>0.92</v>
       </c>
-      <c r="E12" s="31">
+      <c r="E12" s="30">
         <v>2</v>
       </c>
-      <c r="F12" s="31">
+      <c r="F12" s="30">
         <v>0.92</v>
       </c>
       <c r="G12" s="2">
         <v>25</v>
       </c>
-      <c r="I12" s="31">
+      <c r="I12" s="30">
         <v>0.92</v>
       </c>
     </row>
@@ -3805,10 +3845,10 @@
       <c r="A13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="31">
+      <c r="B13" s="30">
         <v>3.5</v>
       </c>
-      <c r="C13" s="31">
+      <c r="C13" s="30">
         <v>0.35</v>
       </c>
       <c r="D13" s="2">
@@ -3828,54 +3868,42 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="2">
-        <v>4.5</v>
-      </c>
-      <c r="C14" s="2">
+      <c r="A14" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B14" s="62">
+        <v>4.46</v>
+      </c>
+      <c r="C14" s="62">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="G14" s="62">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="30">
+        <v>3.5</v>
+      </c>
+      <c r="C15" s="30">
         <v>0.43</v>
       </c>
-      <c r="D14" s="2">
-        <v>0</v>
-      </c>
-      <c r="E14" s="2">
-        <v>0</v>
-      </c>
-      <c r="F14" s="2">
-        <v>0</v>
-      </c>
-      <c r="G14" s="2">
-        <v>25</v>
-      </c>
-      <c r="I14" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="31">
-        <v>3.5</v>
-      </c>
-      <c r="C15" s="31">
-        <v>0.43</v>
-      </c>
-      <c r="D15" s="31">
-        <v>0</v>
-      </c>
-      <c r="E15" s="31">
-        <v>0</v>
-      </c>
-      <c r="F15" s="31">
+      <c r="D15" s="30">
+        <v>0</v>
+      </c>
+      <c r="E15" s="30">
+        <v>0</v>
+      </c>
+      <c r="F15" s="30">
         <v>0</v>
       </c>
       <c r="G15" s="2">
         <v>25</v>
       </c>
-      <c r="I15" s="31">
+      <c r="I15" s="30">
         <v>0</v>
       </c>
     </row>
@@ -3906,10 +3934,10 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="60" t="s">
+      <c r="A17" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="31">
+      <c r="B17" s="30">
         <v>0.5</v>
       </c>
       <c r="C17" s="2">
@@ -3932,10 +3960,10 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="60" t="s">
+      <c r="A18" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="31">
+      <c r="B18" s="30">
         <v>0.5</v>
       </c>
       <c r="C18" s="2">
@@ -3958,10 +3986,10 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="60" t="s">
+      <c r="A19" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="31">
+      <c r="B19" s="30">
         <v>3.25</v>
       </c>
       <c r="C19" s="2">
@@ -3984,10 +4012,10 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="60" t="s">
+      <c r="A20" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="31">
+      <c r="B20" s="30">
         <v>1.3</v>
       </c>
       <c r="C20" s="2">
@@ -4062,32 +4090,58 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="60" t="s">
+      <c r="A23" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="B23" s="31">
+      <c r="B23" s="30">
         <v>1.8</v>
       </c>
-      <c r="C23" s="31">
+      <c r="C23" s="30">
         <v>0.92</v>
       </c>
-      <c r="D23" s="31">
+      <c r="D23" s="30">
         <v>0.92</v>
       </c>
-      <c r="E23" s="31">
+      <c r="E23" s="30">
         <v>4</v>
       </c>
-      <c r="F23" s="31">
+      <c r="F23" s="30">
         <v>0.92</v>
       </c>
       <c r="G23" s="2">
         <v>25</v>
       </c>
-      <c r="I23" s="31">
+      <c r="I23" s="30">
         <v>0.92</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0.43</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0</v>
+      </c>
+      <c r="G24" s="2">
+        <v>25</v>
+      </c>
+      <c r="I24" s="2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4104,8 +4158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B909238E-497E-4EC4-9566-E5DA38A0C671}">
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/Traderes_data.xlsx
+++ b/data/Traderes_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\toolbox-amiris-emlab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E93BFC59-33CF-48DA-BC8C-1B66235C2222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D338F2C-B10E-4B4C-8453-60FD8C12B869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="785" activeTab="5" xr2:uid="{9A6D5CBA-73A9-44EC-81CD-5563DD7C030A}"/>
+    <workbookView xWindow="28605" yWindow="16995" windowWidth="29040" windowHeight="17640" tabRatio="785" activeTab="5" xr2:uid="{9A6D5CBA-73A9-44EC-81CD-5563DD7C030A}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="12" r:id="rId1"/>
@@ -1167,7 +1167,7 @@
   <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1305,6 +1305,10 @@
       <c r="K4" s="10">
         <v>91733</v>
       </c>
+      <c r="M4">
+        <f>SUM(I4:K4)</f>
+        <v>173733</v>
+      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
@@ -1807,7 +1811,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7B6706D-91F6-4F7E-841A-03D37A556D1E}">
   <dimension ref="A2:A34"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
@@ -1971,12 +1975,14 @@
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
   </cols>
@@ -2084,16 +2090,6 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="9">
-        <v>2700</v>
-      </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="38" t="s">
-        <v>71</v>
-      </c>
       <c r="F7" s="15">
         <v>26964</v>
       </c>
@@ -2105,24 +2101,28 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="9"/>
       <c r="C8" s="13"/>
     </row>
     <row r="9" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="9"/>
       <c r="D9" s="40" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="9"/>
       <c r="C10" s="13"/>
     </row>
     <row r="11" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D12" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="9">
+        <v>2700</v>
+      </c>
+      <c r="F12" s="38" t="s">
+        <v>71</v>
+      </c>
+    </row>
     <row r="13" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
@@ -2893,7 +2893,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U11" sqref="U11"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3027,7 +3027,9 @@
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="3"/>
+      <c r="B11" s="3">
+        <v>1</v>
+      </c>
       <c r="C11" s="3">
         <v>1</v>
       </c>

--- a/data/Traderes_data.xlsx
+++ b/data/Traderes_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\toolbox-amiris-emlab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D338F2C-B10E-4B4C-8453-60FD8C12B869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0DA6FB7-4AD5-4C1E-B8DF-471BF5F34035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28605" yWindow="16995" windowWidth="29040" windowHeight="17640" tabRatio="785" activeTab="5" xr2:uid="{9A6D5CBA-73A9-44EC-81CD-5563DD7C030A}"/>
   </bookViews>
@@ -2890,10 +2890,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49062442-D143-42F9-B57C-0195CD17CFC1}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2903,7 +2903,7 @@
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>64</v>
       </c>
@@ -2919,8 +2919,11 @@
       <c r="F1" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I1" s="1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>20</v>
       </c>
@@ -2930,7 +2933,7 @@
       </c>
       <c r="D2" s="26"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
@@ -2940,7 +2943,7 @@
       </c>
       <c r="D3" s="26"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>18</v>
       </c>
@@ -2950,7 +2953,7 @@
       </c>
       <c r="D4" s="26"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
@@ -2962,7 +2965,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>67</v>
       </c>
@@ -2972,7 +2975,7 @@
       </c>
       <c r="D6" s="26"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
@@ -2984,7 +2987,7 @@
         <v>50.29</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
@@ -2996,7 +2999,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
@@ -3011,19 +3014,27 @@
         <v>116.90402942789999</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="29">
+        <f>H10*1.5</f>
+        <v>150</v>
+      </c>
+      <c r="D10" s="28">
+        <f>168*2</f>
+        <v>336</v>
+      </c>
+      <c r="H10" s="29">
         <v>100</v>
       </c>
-      <c r="D10" s="28">
+      <c r="I10" s="28">
         <v>168</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
@@ -3037,7 +3048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>83</v>
       </c>

--- a/data/Traderes_data.xlsx
+++ b/data/Traderes_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\toolbox-amiris-emlab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0DA6FB7-4AD5-4C1E-B8DF-471BF5F34035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE89020F-E375-4B56-B943-AC3A47246862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28605" yWindow="16995" windowWidth="29040" windowHeight="17640" tabRatio="785" activeTab="5" xr2:uid="{9A6D5CBA-73A9-44EC-81CD-5563DD7C030A}"/>
+    <workbookView xWindow="-9150" yWindow="-21710" windowWidth="38620" windowHeight="21220" tabRatio="785" activeTab="5" xr2:uid="{9A6D5CBA-73A9-44EC-81CD-5563DD7C030A}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="12" r:id="rId1"/>
@@ -22,8 +22,9 @@
     <sheet name="lifetime_technical" sheetId="9" r:id="rId7"/>
     <sheet name="techspecs" sheetId="5" r:id="rId8"/>
     <sheet name="yearlyCO2" sheetId="6" r:id="rId9"/>
-    <sheet name="YearlyTargets" sheetId="8" r:id="rId10"/>
-    <sheet name="sources" sheetId="10" r:id="rId11"/>
+    <sheet name="YearlyTargets (2)" sheetId="13" r:id="rId10"/>
+    <sheet name="YearlyTargets" sheetId="8" r:id="rId11"/>
+    <sheet name="sources" sheetId="10" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">fixedCosts!$A$1:$B$1</definedName>
@@ -71,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="96">
   <si>
     <t>OCGT</t>
   </si>
@@ -356,6 +357,9 @@
   </si>
   <si>
     <t>S3</t>
+  </si>
+  <si>
+    <t>https://observatory.clean-hydrogen.europa.eu/index.php/hydrogen-landscape/production-trade-and-cost/cost-hydrogen-production#:~:text=Hydrogen%20production%20costs%20via%20electrolysis,median%20of%206.20%20EUR%2Fkg.</t>
   </si>
 </sst>
 </file>
@@ -1163,11 +1167,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45B99EE7-78BD-4D7B-BBF6-8C8367192318}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22AC0017-3466-4792-AA28-B1C1F09791CC}">
   <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1220,15 +1224,9 @@
       <c r="A2" s="19">
         <v>2019</v>
       </c>
-      <c r="B2" s="11">
-        <v>290.54545454545456</v>
-      </c>
-      <c r="C2" s="11">
-        <v>1821.6363636363637</v>
-      </c>
-      <c r="D2" s="11">
-        <v>1724.3181818181799</v>
-      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
@@ -1252,15 +1250,9 @@
       <c r="A3" s="10">
         <v>2020</v>
       </c>
-      <c r="B3" s="11">
-        <v>290.54545454545456</v>
-      </c>
-      <c r="C3" s="11">
-        <v>1821.6363636363637</v>
-      </c>
-      <c r="D3" s="11">
-        <v>1724.3181818181818</v>
-      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
@@ -1281,15 +1273,9 @@
       <c r="A4" s="19">
         <v>2021</v>
       </c>
-      <c r="B4" s="11">
-        <v>290.54545454545456</v>
-      </c>
-      <c r="C4" s="11">
-        <v>1821.6363636363637</v>
-      </c>
-      <c r="D4" s="11">
-        <v>1724.3181818181818</v>
-      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -1314,29 +1300,17 @@
       <c r="A5" s="10">
         <v>2022</v>
       </c>
-      <c r="B5" s="11">
-        <v>290.54545454545456</v>
-      </c>
-      <c r="C5" s="11">
-        <v>1821.6363636363637</v>
-      </c>
-      <c r="D5" s="11">
-        <v>1724.3181818181818</v>
-      </c>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="19">
         <v>2023</v>
       </c>
-      <c r="B6" s="11">
-        <v>290.54545454545456</v>
-      </c>
-      <c r="C6" s="11">
-        <v>1821.6363636363637</v>
-      </c>
-      <c r="D6" s="11">
-        <v>1724.3181818181818</v>
-      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
       <c r="H6" s="21" t="s">
         <v>56</v>
       </c>
@@ -1354,15 +1328,9 @@
       <c r="A7" s="10">
         <v>2024</v>
       </c>
-      <c r="B7" s="11">
-        <v>290.54545454545456</v>
-      </c>
-      <c r="C7" s="11">
-        <v>1821.6363636363637</v>
-      </c>
-      <c r="D7" s="11">
-        <v>1724.3181818181818</v>
-      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
       <c r="H7" s="20" t="s">
         <v>52</v>
       </c>
@@ -1380,15 +1348,9 @@
       <c r="A8" s="19">
         <v>2025</v>
       </c>
-      <c r="B8" s="11">
-        <v>290.54545454545456</v>
-      </c>
-      <c r="C8" s="11">
-        <v>1821.6363636363637</v>
-      </c>
-      <c r="D8" s="11">
-        <v>1724.3181818181818</v>
-      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
       <c r="H8" s="20" t="s">
         <v>51</v>
       </c>
@@ -1406,15 +1368,9 @@
       <c r="A9" s="10">
         <v>2026</v>
       </c>
-      <c r="B9" s="11">
-        <v>290.54545454545456</v>
-      </c>
-      <c r="C9" s="11">
-        <v>1821.6363636363637</v>
-      </c>
-      <c r="D9" s="11">
-        <v>1724.3181818181818</v>
-      </c>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
       <c r="H9" s="20" t="s">
         <v>50</v>
       </c>
@@ -1432,71 +1388,47 @@
       <c r="A10" s="19">
         <v>2027</v>
       </c>
-      <c r="B10" s="11">
-        <v>290.54545454545456</v>
-      </c>
-      <c r="C10" s="11">
-        <v>1821.6363636363637</v>
-      </c>
-      <c r="D10" s="11">
-        <v>1724.3181818181818</v>
-      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>2028</v>
       </c>
-      <c r="B11" s="11">
-        <v>290.54545454545456</v>
-      </c>
-      <c r="C11" s="11">
-        <v>1821.6363636363637</v>
-      </c>
-      <c r="D11" s="11">
-        <v>1724.3181818181818</v>
-      </c>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>2029</v>
       </c>
-      <c r="B12" s="11">
-        <v>290.54545454545456</v>
-      </c>
-      <c r="C12" s="11">
-        <v>1821.6363636363637</v>
-      </c>
-      <c r="D12" s="11">
-        <v>1724.3181818181818</v>
-      </c>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="19">
         <v>2030</v>
       </c>
-      <c r="B13" s="11">
-        <v>228.4</v>
-      </c>
-      <c r="C13" s="11">
-        <v>2450</v>
-      </c>
-      <c r="D13" s="11">
-        <v>3298.8249999999998</v>
+      <c r="B13" s="10">
+        <v>7432</v>
+      </c>
+      <c r="C13" s="10">
+        <v>21000</v>
+      </c>
+      <c r="D13" s="9">
+        <v>25756.5</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="19">
         <v>2031</v>
       </c>
-      <c r="B14" s="11">
-        <v>228.4</v>
-      </c>
-      <c r="C14" s="11">
-        <v>2450</v>
-      </c>
-      <c r="D14" s="11">
-        <v>3298.8249999999998</v>
-      </c>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
       <c r="G14" s="20"/>
       <c r="H14" t="s">
         <v>40</v>
@@ -1515,15 +1447,9 @@
       <c r="A15" s="10">
         <v>2032</v>
       </c>
-      <c r="B15" s="11">
-        <v>228.4</v>
-      </c>
-      <c r="C15" s="11">
-        <v>2450</v>
-      </c>
-      <c r="D15" s="11">
-        <v>3298.8249999999998</v>
-      </c>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
       <c r="G15" s="20"/>
       <c r="H15" t="s">
         <v>45</v>
@@ -1542,15 +1468,9 @@
       <c r="A16" s="10">
         <v>2033</v>
       </c>
-      <c r="B16" s="11">
-        <v>228.4</v>
-      </c>
-      <c r="C16" s="11">
-        <v>2450</v>
-      </c>
-      <c r="D16" s="11">
-        <v>3298.8249999999998</v>
-      </c>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
       <c r="H16" t="s">
         <v>43</v>
       </c>
@@ -1568,238 +1488,142 @@
       <c r="A17" s="19">
         <v>2034</v>
       </c>
-      <c r="B17" s="11">
-        <v>228.4</v>
-      </c>
-      <c r="C17" s="11">
-        <v>2450</v>
-      </c>
-      <c r="D17" s="11">
-        <v>3298.8249999999998</v>
-      </c>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="19">
         <v>2035</v>
       </c>
-      <c r="B18" s="11">
-        <v>228.4</v>
-      </c>
-      <c r="C18" s="11">
-        <v>2450</v>
-      </c>
-      <c r="D18" s="11">
-        <v>3298.8249999999998</v>
-      </c>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
         <v>2036</v>
       </c>
-      <c r="B19" s="11">
-        <v>228.4</v>
-      </c>
-      <c r="C19" s="11">
-        <v>2450</v>
-      </c>
-      <c r="D19" s="11">
-        <v>3298.8249999999998</v>
-      </c>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
         <v>2037</v>
       </c>
-      <c r="B20" s="11">
-        <v>228.4</v>
-      </c>
-      <c r="C20" s="11">
-        <v>2450</v>
-      </c>
-      <c r="D20" s="11">
-        <v>3298.8249999999998</v>
-      </c>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="19">
         <v>2038</v>
       </c>
-      <c r="B21" s="11">
-        <v>228.4</v>
-      </c>
-      <c r="C21" s="11">
-        <v>2450</v>
-      </c>
-      <c r="D21" s="11">
-        <v>3298.8249999999998</v>
-      </c>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="19">
         <v>2039</v>
       </c>
-      <c r="B22" s="11">
-        <v>228.4</v>
-      </c>
-      <c r="C22" s="11">
-        <v>2450</v>
-      </c>
-      <c r="D22" s="11">
-        <v>3298.8249999999998</v>
-      </c>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="10">
         <v>2040</v>
       </c>
-      <c r="B23" s="11">
-        <v>228.4</v>
-      </c>
-      <c r="C23" s="11">
-        <v>2450</v>
-      </c>
-      <c r="D23" s="11">
-        <v>3298.8249999999998</v>
-      </c>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="10">
         <v>2041</v>
       </c>
-      <c r="B24" s="11">
-        <v>228.4</v>
-      </c>
-      <c r="C24" s="11">
-        <v>2450</v>
-      </c>
-      <c r="D24" s="11">
-        <v>3298.8249999999998</v>
-      </c>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="19">
         <v>2042</v>
       </c>
-      <c r="B25" s="11">
-        <v>228.4</v>
-      </c>
-      <c r="C25" s="11">
-        <v>2450</v>
-      </c>
-      <c r="D25" s="11">
-        <v>3298.8249999999998</v>
-      </c>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="19">
         <v>2043</v>
       </c>
-      <c r="B26" s="11">
-        <v>228.4</v>
-      </c>
-      <c r="C26" s="11">
-        <v>2450</v>
-      </c>
-      <c r="D26" s="11">
-        <v>3298.8249999999998</v>
-      </c>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="10">
         <v>2044</v>
       </c>
-      <c r="B27" s="11">
-        <v>228.4</v>
-      </c>
-      <c r="C27" s="11">
-        <v>2450</v>
-      </c>
-      <c r="D27" s="11">
-        <v>3298.8249999999998</v>
-      </c>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="10">
         <v>2045</v>
       </c>
-      <c r="B28" s="11">
-        <v>228.4</v>
-      </c>
-      <c r="C28" s="11">
-        <v>2450</v>
-      </c>
-      <c r="D28" s="11">
-        <v>3298.8249999999998</v>
-      </c>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="19">
         <v>2046</v>
       </c>
-      <c r="B29" s="11">
-        <v>228.4</v>
-      </c>
-      <c r="C29" s="11">
-        <v>2450</v>
-      </c>
-      <c r="D29" s="11">
-        <v>3298.8249999999998</v>
-      </c>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="19">
         <v>2047</v>
       </c>
-      <c r="B30" s="11">
-        <v>228.4</v>
-      </c>
-      <c r="C30" s="11">
-        <v>2450</v>
-      </c>
-      <c r="D30" s="11">
-        <v>3298.8249999999998</v>
-      </c>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="10">
         <v>2048</v>
       </c>
-      <c r="B31" s="11">
-        <v>228.4</v>
-      </c>
-      <c r="C31" s="11">
-        <v>2450</v>
-      </c>
-      <c r="D31" s="11">
-        <v>3298.8249999999998</v>
-      </c>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="10">
         <v>2049</v>
       </c>
-      <c r="B32" s="11">
-        <v>228.4</v>
-      </c>
-      <c r="C32" s="11">
-        <v>2450</v>
-      </c>
-      <c r="D32" s="11">
-        <v>3298.8249999999998</v>
-      </c>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="19">
         <v>2050</v>
       </c>
-      <c r="B33" s="11">
-        <v>228.4</v>
-      </c>
-      <c r="C33" s="11">
-        <v>2450</v>
-      </c>
-      <c r="D33" s="11">
-        <v>3298.8249999999998</v>
+      <c r="B33" s="10">
+        <v>12000</v>
+      </c>
+      <c r="C33" s="10">
+        <v>70000</v>
+      </c>
+      <c r="D33" s="10">
+        <v>91733</v>
       </c>
     </row>
   </sheetData>
@@ -1808,6 +1632,651 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45B99EE7-78BD-4D7B-BBF6-8C8367192318}">
+  <dimension ref="A1:M33"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="37.42578125" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="5" max="7" width="7.85546875" customWidth="1"/>
+    <col min="8" max="8" width="43.28515625" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="K1" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="M1" s="23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="19">
+        <v>2019</v>
+      </c>
+      <c r="B2" s="11">
+        <v>290.54545454545456</v>
+      </c>
+      <c r="C2" s="11">
+        <v>1821.6363636363637</v>
+      </c>
+      <c r="D2" s="11">
+        <v>1724.3181818181799</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="22">
+        <v>2019</v>
+      </c>
+      <c r="I2" s="10">
+        <v>4236</v>
+      </c>
+      <c r="J2" s="10">
+        <v>962</v>
+      </c>
+      <c r="K2" s="10">
+        <v>6789</v>
+      </c>
+      <c r="M2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="10">
+        <v>2020</v>
+      </c>
+      <c r="B3" s="11">
+        <v>290.54545454545456</v>
+      </c>
+      <c r="C3" s="11">
+        <v>1821.6363636363637</v>
+      </c>
+      <c r="D3" s="11">
+        <v>1724.3181818181818</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="22">
+        <v>2030</v>
+      </c>
+      <c r="I3" s="10">
+        <v>7432</v>
+      </c>
+      <c r="J3" s="10">
+        <v>21000</v>
+      </c>
+      <c r="K3" s="9">
+        <v>25756.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="19">
+        <v>2021</v>
+      </c>
+      <c r="B4" s="11">
+        <v>290.54545454545456</v>
+      </c>
+      <c r="C4" s="11">
+        <v>1821.6363636363637</v>
+      </c>
+      <c r="D4" s="11">
+        <v>1724.3181818181818</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="22">
+        <v>2050</v>
+      </c>
+      <c r="I4" s="10">
+        <v>12000</v>
+      </c>
+      <c r="J4" s="10">
+        <v>70000</v>
+      </c>
+      <c r="K4" s="10">
+        <v>91733</v>
+      </c>
+      <c r="M4">
+        <f>SUM(I4:K4)</f>
+        <v>173733</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
+        <v>2022</v>
+      </c>
+      <c r="B5" s="11">
+        <v>290.54545454545456</v>
+      </c>
+      <c r="C5" s="11">
+        <v>1821.6363636363637</v>
+      </c>
+      <c r="D5" s="11">
+        <v>1724.3181818181818</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="19">
+        <v>2023</v>
+      </c>
+      <c r="B6" s="11">
+        <v>290.54545454545456</v>
+      </c>
+      <c r="C6" s="11">
+        <v>1821.6363636363637</v>
+      </c>
+      <c r="D6" s="11">
+        <v>1724.3181818181818</v>
+      </c>
+      <c r="H6" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I6" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="J6" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="K6" s="21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <v>2024</v>
+      </c>
+      <c r="B7" s="11">
+        <v>290.54545454545456</v>
+      </c>
+      <c r="C7" s="11">
+        <v>1821.6363636363637</v>
+      </c>
+      <c r="D7" s="11">
+        <v>1724.3181818181818</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="I7" s="6">
+        <v>290.54545454545502</v>
+      </c>
+      <c r="J7" s="6">
+        <v>1821.6363636363637</v>
+      </c>
+      <c r="K7" s="6">
+        <v>1724.3181818181818</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="19">
+        <v>2025</v>
+      </c>
+      <c r="B8" s="11">
+        <v>290.54545454545456</v>
+      </c>
+      <c r="C8" s="11">
+        <v>1821.6363636363637</v>
+      </c>
+      <c r="D8" s="11">
+        <v>1724.3181818181818</v>
+      </c>
+      <c r="H8" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="I8" s="6">
+        <v>228.4</v>
+      </c>
+      <c r="J8" s="6">
+        <v>2450</v>
+      </c>
+      <c r="K8" s="6">
+        <v>3298.8249999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>2026</v>
+      </c>
+      <c r="B9" s="11">
+        <v>290.54545454545456</v>
+      </c>
+      <c r="C9" s="11">
+        <v>1821.6363636363637</v>
+      </c>
+      <c r="D9" s="11">
+        <v>1724.3181818181818</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="I9" s="6">
+        <v>250.45161290322579</v>
+      </c>
+      <c r="J9" s="6">
+        <v>2227.0322580645161</v>
+      </c>
+      <c r="K9" s="6">
+        <v>2740.1290322580644</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="19">
+        <v>2027</v>
+      </c>
+      <c r="B10" s="11">
+        <v>290.54545454545456</v>
+      </c>
+      <c r="C10" s="11">
+        <v>1821.6363636363637</v>
+      </c>
+      <c r="D10" s="11">
+        <v>1724.3181818181818</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
+        <v>2028</v>
+      </c>
+      <c r="B11" s="11">
+        <v>290.54545454545456</v>
+      </c>
+      <c r="C11" s="11">
+        <v>1821.6363636363637</v>
+      </c>
+      <c r="D11" s="11">
+        <v>1724.3181818181818</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
+        <v>2029</v>
+      </c>
+      <c r="B12" s="11">
+        <v>290.54545454545456</v>
+      </c>
+      <c r="C12" s="11">
+        <v>1821.6363636363637</v>
+      </c>
+      <c r="D12" s="11">
+        <v>1724.3181818181818</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="19">
+        <v>2030</v>
+      </c>
+      <c r="B13" s="11">
+        <v>228.4</v>
+      </c>
+      <c r="C13" s="11">
+        <v>2450</v>
+      </c>
+      <c r="D13" s="11">
+        <v>3298.8249999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="19">
+        <v>2031</v>
+      </c>
+      <c r="B14" s="11">
+        <v>228.4</v>
+      </c>
+      <c r="C14" s="11">
+        <v>2450</v>
+      </c>
+      <c r="D14" s="11">
+        <v>3298.8249999999998</v>
+      </c>
+      <c r="G14" s="20"/>
+      <c r="H14" t="s">
+        <v>40</v>
+      </c>
+      <c r="I14" t="s">
+        <v>49</v>
+      </c>
+      <c r="J14" t="b">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="10">
+        <v>2032</v>
+      </c>
+      <c r="B15" s="11">
+        <v>228.4</v>
+      </c>
+      <c r="C15" s="11">
+        <v>2450</v>
+      </c>
+      <c r="D15" s="11">
+        <v>3298.8249999999998</v>
+      </c>
+      <c r="G15" s="20"/>
+      <c r="H15" t="s">
+        <v>45</v>
+      </c>
+      <c r="I15" t="s">
+        <v>49</v>
+      </c>
+      <c r="J15" t="b">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="10">
+        <v>2033</v>
+      </c>
+      <c r="B16" s="11">
+        <v>228.4</v>
+      </c>
+      <c r="C16" s="11">
+        <v>2450</v>
+      </c>
+      <c r="D16" s="11">
+        <v>3298.8249999999998</v>
+      </c>
+      <c r="H16" t="s">
+        <v>43</v>
+      </c>
+      <c r="I16" t="s">
+        <v>49</v>
+      </c>
+      <c r="J16" t="b">
+        <v>1</v>
+      </c>
+      <c r="K16" s="6">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="19">
+        <v>2034</v>
+      </c>
+      <c r="B17" s="11">
+        <v>228.4</v>
+      </c>
+      <c r="C17" s="11">
+        <v>2450</v>
+      </c>
+      <c r="D17" s="11">
+        <v>3298.8249999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="19">
+        <v>2035</v>
+      </c>
+      <c r="B18" s="11">
+        <v>228.4</v>
+      </c>
+      <c r="C18" s="11">
+        <v>2450</v>
+      </c>
+      <c r="D18" s="11">
+        <v>3298.8249999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="10">
+        <v>2036</v>
+      </c>
+      <c r="B19" s="11">
+        <v>228.4</v>
+      </c>
+      <c r="C19" s="11">
+        <v>2450</v>
+      </c>
+      <c r="D19" s="11">
+        <v>3298.8249999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="10">
+        <v>2037</v>
+      </c>
+      <c r="B20" s="11">
+        <v>228.4</v>
+      </c>
+      <c r="C20" s="11">
+        <v>2450</v>
+      </c>
+      <c r="D20" s="11">
+        <v>3298.8249999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="19">
+        <v>2038</v>
+      </c>
+      <c r="B21" s="11">
+        <v>228.4</v>
+      </c>
+      <c r="C21" s="11">
+        <v>2450</v>
+      </c>
+      <c r="D21" s="11">
+        <v>3298.8249999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="19">
+        <v>2039</v>
+      </c>
+      <c r="B22" s="11">
+        <v>228.4</v>
+      </c>
+      <c r="C22" s="11">
+        <v>2450</v>
+      </c>
+      <c r="D22" s="11">
+        <v>3298.8249999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="10">
+        <v>2040</v>
+      </c>
+      <c r="B23" s="11">
+        <v>228.4</v>
+      </c>
+      <c r="C23" s="11">
+        <v>2450</v>
+      </c>
+      <c r="D23" s="11">
+        <v>3298.8249999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="10">
+        <v>2041</v>
+      </c>
+      <c r="B24" s="11">
+        <v>228.4</v>
+      </c>
+      <c r="C24" s="11">
+        <v>2450</v>
+      </c>
+      <c r="D24" s="11">
+        <v>3298.8249999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="19">
+        <v>2042</v>
+      </c>
+      <c r="B25" s="11">
+        <v>228.4</v>
+      </c>
+      <c r="C25" s="11">
+        <v>2450</v>
+      </c>
+      <c r="D25" s="11">
+        <v>3298.8249999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="19">
+        <v>2043</v>
+      </c>
+      <c r="B26" s="11">
+        <v>228.4</v>
+      </c>
+      <c r="C26" s="11">
+        <v>2450</v>
+      </c>
+      <c r="D26" s="11">
+        <v>3298.8249999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="10">
+        <v>2044</v>
+      </c>
+      <c r="B27" s="11">
+        <v>228.4</v>
+      </c>
+      <c r="C27" s="11">
+        <v>2450</v>
+      </c>
+      <c r="D27" s="11">
+        <v>3298.8249999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="10">
+        <v>2045</v>
+      </c>
+      <c r="B28" s="11">
+        <v>228.4</v>
+      </c>
+      <c r="C28" s="11">
+        <v>2450</v>
+      </c>
+      <c r="D28" s="11">
+        <v>3298.8249999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="19">
+        <v>2046</v>
+      </c>
+      <c r="B29" s="11">
+        <v>228.4</v>
+      </c>
+      <c r="C29" s="11">
+        <v>2450</v>
+      </c>
+      <c r="D29" s="11">
+        <v>3298.8249999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="19">
+        <v>2047</v>
+      </c>
+      <c r="B30" s="11">
+        <v>228.4</v>
+      </c>
+      <c r="C30" s="11">
+        <v>2450</v>
+      </c>
+      <c r="D30" s="11">
+        <v>3298.8249999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="10">
+        <v>2048</v>
+      </c>
+      <c r="B31" s="11">
+        <v>228.4</v>
+      </c>
+      <c r="C31" s="11">
+        <v>2450</v>
+      </c>
+      <c r="D31" s="11">
+        <v>3298.8249999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="10">
+        <v>2049</v>
+      </c>
+      <c r="B32" s="11">
+        <v>228.4</v>
+      </c>
+      <c r="C32" s="11">
+        <v>2450</v>
+      </c>
+      <c r="D32" s="11">
+        <v>3298.8249999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="19">
+        <v>2050</v>
+      </c>
+      <c r="B33" s="11">
+        <v>228.4</v>
+      </c>
+      <c r="C33" s="11">
+        <v>2450</v>
+      </c>
+      <c r="D33" s="11">
+        <v>3298.8249999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7B6706D-91F6-4F7E-841A-03D37A556D1E}">
   <dimension ref="A2:A34"/>
   <sheetViews>
@@ -2893,7 +3362,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="S19" sqref="S19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3003,7 +3472,10 @@
       <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="3"/>
+      <c r="B9" s="3">
+        <f>H9/33.6*1000</f>
+        <v>175.5952380952381</v>
+      </c>
       <c r="C9" s="29">
         <v>74.27</v>
       </c>
@@ -3012,20 +3484,28 @@
       </c>
       <c r="F9" s="1">
         <v>116.90402942789999</v>
+      </c>
+      <c r="H9" s="1">
+        <v>5.9</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="3"/>
+      <c r="B10" s="3">
+        <v>20</v>
+      </c>
       <c r="C10" s="29">
-        <f>H10*1.5</f>
-        <v>150</v>
+        <f>H10*2</f>
+        <v>200</v>
       </c>
       <c r="D10" s="28">
-        <f>168*2</f>
-        <v>336</v>
+        <f>168*3</f>
+        <v>504</v>
       </c>
       <c r="H10" s="29">
         <v>100</v>
@@ -3530,10 +4010,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40331877-1BEF-474F-BDAB-D1A166D0FBFC}">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3542,7 +4022,7 @@
     <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>27</v>
       </c>
@@ -3568,7 +4048,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -3594,7 +4074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>77</v>
       </c>
@@ -3620,7 +4100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="39" t="s">
         <v>75</v>
       </c>
@@ -3646,7 +4126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="35" t="s">
         <v>65</v>
       </c>
@@ -3672,7 +4152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>68</v>
       </c>
@@ -3698,7 +4178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -3724,7 +4204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="53" t="s">
         <v>86</v>
       </c>
@@ -3750,7 +4230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="53" t="s">
         <v>91</v>
       </c>
@@ -3776,7 +4256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="39" t="s">
         <v>69</v>
       </c>
@@ -3802,7 +4282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="35" t="s">
         <v>66</v>
       </c>
@@ -3828,7 +4308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="53" t="s">
         <v>6</v>
       </c>
@@ -3854,7 +4334,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>5</v>
       </c>
@@ -3879,8 +4359,16 @@
       <c r="I13" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L13" s="1">
+        <f>2033-G13</f>
+        <v>1993</v>
+      </c>
+      <c r="N13" s="1">
+        <f>2020-L13</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>93</v>
       </c>
@@ -3894,7 +4382,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="35" t="s">
         <v>16</v>
       </c>
@@ -3920,7 +4408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>70</v>
       </c>

--- a/data/Traderes_data.xlsx
+++ b/data/Traderes_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\toolbox-amiris-emlab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE89020F-E375-4B56-B943-AC3A47246862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A55D1E6-D42F-410C-B8BB-4539936EFE63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9150" yWindow="-21710" windowWidth="38620" windowHeight="21220" tabRatio="785" activeTab="5" xr2:uid="{9A6D5CBA-73A9-44EC-81CD-5563DD7C030A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="785" activeTab="5" xr2:uid="{9A6D5CBA-73A9-44EC-81CD-5563DD7C030A}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="12" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="100">
   <si>
     <t>OCGT</t>
   </si>
@@ -360,6 +360,18 @@
   </si>
   <si>
     <t>https://observatory.clean-hydrogen.europa.eu/index.php/hydrogen-landscape/production-trade-and-cost/cost-hydrogen-production#:~:text=Hydrogen%20production%20costs%20via%20electrolysis,median%20of%206.20%20EUR%2Fkg.</t>
+  </si>
+  <si>
+    <t>Eur/kg</t>
+  </si>
+  <si>
+    <t>brndle</t>
+  </si>
+  <si>
+    <t>COMPETES</t>
+  </si>
+  <si>
+    <t>&lt; these are being overwritten</t>
   </si>
 </sst>
 </file>
@@ -372,7 +384,7 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="&quot;€&quot;\ #,##0"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -485,8 +497,15 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -531,6 +550,11 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -591,7 +615,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -600,8 +624,9 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -699,14 +724,17 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="166" fontId="10" fillId="6" borderId="3" xfId="5" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="16" fillId="9" borderId="1" xfId="8" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="16" fillId="9" borderId="1" xfId="8" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="9">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
     <cellStyle name="Comma 2" xfId="2" xr:uid="{E5037CBA-12FA-4B97-B1F6-0BDCF682C8FC}"/>
     <cellStyle name="Comma 2 2" xfId="6" xr:uid="{70A3E38C-3CB6-43E2-84EC-850839FF8B51}"/>
     <cellStyle name="Comma 2 3" xfId="7" xr:uid="{8FEEAB14-B303-4891-A615-0BE5A09BA410}"/>
     <cellStyle name="Good" xfId="5" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{66935CEE-9E6E-468B-A18D-D284C6317C61}"/>
   </cellStyles>
@@ -1636,7 +1664,7 @@
   <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3359,10 +3387,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49062442-D143-42F9-B57C-0195CD17CFC1}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S19" sqref="S19"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3372,7 +3400,7 @@
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>64</v>
       </c>
@@ -3388,11 +3416,17 @@
       <c r="F1" s="1" t="s">
         <v>94</v>
       </c>
+      <c r="H1" s="1">
+        <v>2020</v>
+      </c>
       <c r="I1" s="1">
+        <v>2030</v>
+      </c>
+      <c r="J1" s="26">
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>20</v>
       </c>
@@ -3402,7 +3436,7 @@
       </c>
       <c r="D2" s="26"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
@@ -3412,7 +3446,7 @@
       </c>
       <c r="D3" s="26"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>18</v>
       </c>
@@ -3422,7 +3456,7 @@
       </c>
       <c r="D4" s="26"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
@@ -3434,7 +3468,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>67</v>
       </c>
@@ -3444,7 +3478,7 @@
       </c>
       <c r="D6" s="26"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
@@ -3456,7 +3490,7 @@
         <v>50.29</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
@@ -3467,54 +3501,70 @@
       <c r="D8" s="28">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G8" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H8" s="1">
+        <v>5.9</v>
+      </c>
+      <c r="J8" s="27">
+        <f>D9*33.6/1000</f>
+        <v>3.9278400000000002</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="3">
-        <f>H9/33.6*1000</f>
+        <f>H8/33.6*1000</f>
         <v>175.5952380952381</v>
       </c>
-      <c r="C9" s="29">
+      <c r="C9" s="29"/>
+      <c r="D9" s="28">
+        <v>116.9</v>
+      </c>
+      <c r="I9" s="29">
         <v>74.27</v>
       </c>
-      <c r="D9" s="28">
+      <c r="J9" s="28">
         <v>45.07</v>
       </c>
-      <c r="F9" s="1">
-        <v>116.90402942789999</v>
-      </c>
-      <c r="H9" s="1">
-        <v>5.9</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="3">
-        <v>20</v>
-      </c>
-      <c r="C10" s="29">
-        <f>H10*2</f>
+      <c r="B10" s="71">
+        <v>22</v>
+      </c>
+      <c r="C10" s="71">
         <v>200</v>
       </c>
-      <c r="D10" s="28">
-        <f>168*3</f>
-        <v>504</v>
-      </c>
-      <c r="H10" s="29">
+      <c r="D10" s="72">
+        <f>J10*2</f>
+        <v>336</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I10" s="29">
         <v>100</v>
       </c>
-      <c r="I10" s="28">
+      <c r="J10" s="28">
         <v>168</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K10" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
@@ -3528,7 +3578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>83</v>
       </c>
@@ -4659,7 +4709,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B909238E-497E-4EC4-9566-E5DA38A0C671}">
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>

--- a/data/Traderes_data.xlsx
+++ b/data/Traderes_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\toolbox-amiris-emlab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A55D1E6-D42F-410C-B8BB-4539936EFE63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CE381EC-AF62-443D-9B93-7DA985517247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="785" activeTab="5" xr2:uid="{9A6D5CBA-73A9-44EC-81CD-5563DD7C030A}"/>
+    <workbookView xWindow="-3680" yWindow="-16810" windowWidth="21600" windowHeight="12740" tabRatio="785" activeTab="5" xr2:uid="{9A6D5CBA-73A9-44EC-81CD-5563DD7C030A}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="12" r:id="rId1"/>
@@ -3390,7 +3390,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3545,11 +3545,10 @@
         <v>22</v>
       </c>
       <c r="C10" s="71">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="D10" s="72">
-        <f>J10*2</f>
-        <v>336</v>
+        <v>500</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>99</v>

--- a/data/Traderes_data.xlsx
+++ b/data/Traderes_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\toolbox-amiris-emlab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CE381EC-AF62-443D-9B93-7DA985517247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5877BBAB-27AF-489F-A13F-6F49FEABDA12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3680" yWindow="-16810" windowWidth="21600" windowHeight="12740" tabRatio="785" activeTab="5" xr2:uid="{9A6D5CBA-73A9-44EC-81CD-5563DD7C030A}"/>
+    <workbookView xWindow="6375" yWindow="3015" windowWidth="21600" windowHeight="12735" tabRatio="785" activeTab="5" xr2:uid="{9A6D5CBA-73A9-44EC-81CD-5563DD7C030A}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="12" r:id="rId1"/>
@@ -3390,7 +3390,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3430,7 +3430,10 @@
       <c r="A2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="3"/>
+      <c r="B2" s="3">
+        <f>C2</f>
+        <v>26.81</v>
+      </c>
       <c r="C2" s="28">
         <v>26.81</v>
       </c>
@@ -3440,7 +3443,10 @@
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="3"/>
+      <c r="B3" s="3">
+        <f t="shared" ref="B3:B7" si="0">C3</f>
+        <v>8.93</v>
+      </c>
       <c r="C3" s="28">
         <v>8.93</v>
       </c>
@@ -3450,7 +3456,10 @@
       <c r="A4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="3"/>
+      <c r="B4" s="3">
+        <f t="shared" si="0"/>
+        <v>6.48</v>
+      </c>
       <c r="C4" s="28">
         <v>6.48</v>
       </c>
@@ -3460,7 +3469,10 @@
       <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="3"/>
+      <c r="B5" s="3">
+        <f t="shared" si="0"/>
+        <v>1.69</v>
+      </c>
       <c r="C5" s="28">
         <v>1.69</v>
       </c>
@@ -3472,7 +3484,10 @@
       <c r="A6" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B6" s="3"/>
+      <c r="B6" s="3">
+        <f t="shared" si="0"/>
+        <v>40.68</v>
+      </c>
       <c r="C6" s="28">
         <v>40.68</v>
       </c>
